--- a/Stochastic_engine/Gas_prices/NG.xlsx
+++ b/Stochastic_engine/Gas_prices/NG.xlsx
@@ -378,7 +378,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1096"/>
+  <dimension ref="A1:F731"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15003,7306 +15003,6 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="732" spans="1:6">
-      <c r="A732" s="1" t="n">
-        <v>730</v>
-      </c>
-      <c r="B732" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C732" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D732" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E732" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F732" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="733" spans="1:6">
-      <c r="A733" s="1" t="n">
-        <v>731</v>
-      </c>
-      <c r="B733" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C733" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D733" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E733" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F733" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="734" spans="1:6">
-      <c r="A734" s="1" t="n">
-        <v>732</v>
-      </c>
-      <c r="B734" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C734" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D734" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E734" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F734" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="735" spans="1:6">
-      <c r="A735" s="1" t="n">
-        <v>733</v>
-      </c>
-      <c r="B735" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C735" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D735" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E735" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F735" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="736" spans="1:6">
-      <c r="A736" s="1" t="n">
-        <v>734</v>
-      </c>
-      <c r="B736" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C736" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D736" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E736" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F736" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="737" spans="1:6">
-      <c r="A737" s="1" t="n">
-        <v>735</v>
-      </c>
-      <c r="B737" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C737" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D737" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E737" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F737" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="738" spans="1:6">
-      <c r="A738" s="1" t="n">
-        <v>736</v>
-      </c>
-      <c r="B738" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C738" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D738" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E738" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F738" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="739" spans="1:6">
-      <c r="A739" s="1" t="n">
-        <v>737</v>
-      </c>
-      <c r="B739" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C739" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D739" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E739" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F739" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="740" spans="1:6">
-      <c r="A740" s="1" t="n">
-        <v>738</v>
-      </c>
-      <c r="B740" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C740" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D740" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E740" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F740" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="741" spans="1:6">
-      <c r="A741" s="1" t="n">
-        <v>739</v>
-      </c>
-      <c r="B741" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C741" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D741" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E741" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F741" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="742" spans="1:6">
-      <c r="A742" s="1" t="n">
-        <v>740</v>
-      </c>
-      <c r="B742" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C742" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D742" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E742" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F742" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="743" spans="1:6">
-      <c r="A743" s="1" t="n">
-        <v>741</v>
-      </c>
-      <c r="B743" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C743" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D743" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E743" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F743" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="744" spans="1:6">
-      <c r="A744" s="1" t="n">
-        <v>742</v>
-      </c>
-      <c r="B744" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C744" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D744" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E744" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F744" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="745" spans="1:6">
-      <c r="A745" s="1" t="n">
-        <v>743</v>
-      </c>
-      <c r="B745" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C745" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D745" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E745" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F745" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="746" spans="1:6">
-      <c r="A746" s="1" t="n">
-        <v>744</v>
-      </c>
-      <c r="B746" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C746" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D746" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E746" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F746" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="747" spans="1:6">
-      <c r="A747" s="1" t="n">
-        <v>745</v>
-      </c>
-      <c r="B747" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C747" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D747" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E747" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F747" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="748" spans="1:6">
-      <c r="A748" s="1" t="n">
-        <v>746</v>
-      </c>
-      <c r="B748" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C748" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D748" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E748" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F748" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="749" spans="1:6">
-      <c r="A749" s="1" t="n">
-        <v>747</v>
-      </c>
-      <c r="B749" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C749" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D749" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E749" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F749" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="750" spans="1:6">
-      <c r="A750" s="1" t="n">
-        <v>748</v>
-      </c>
-      <c r="B750" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C750" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D750" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E750" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F750" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="751" spans="1:6">
-      <c r="A751" s="1" t="n">
-        <v>749</v>
-      </c>
-      <c r="B751" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C751" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D751" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E751" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F751" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="752" spans="1:6">
-      <c r="A752" s="1" t="n">
-        <v>750</v>
-      </c>
-      <c r="B752" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C752" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D752" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E752" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F752" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="753" spans="1:6">
-      <c r="A753" s="1" t="n">
-        <v>751</v>
-      </c>
-      <c r="B753" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C753" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D753" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E753" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F753" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="754" spans="1:6">
-      <c r="A754" s="1" t="n">
-        <v>752</v>
-      </c>
-      <c r="B754" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C754" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D754" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E754" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F754" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="755" spans="1:6">
-      <c r="A755" s="1" t="n">
-        <v>753</v>
-      </c>
-      <c r="B755" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C755" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D755" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E755" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F755" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="756" spans="1:6">
-      <c r="A756" s="1" t="n">
-        <v>754</v>
-      </c>
-      <c r="B756" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C756" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D756" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E756" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F756" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="757" spans="1:6">
-      <c r="A757" s="1" t="n">
-        <v>755</v>
-      </c>
-      <c r="B757" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C757" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D757" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E757" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F757" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="758" spans="1:6">
-      <c r="A758" s="1" t="n">
-        <v>756</v>
-      </c>
-      <c r="B758" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C758" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D758" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E758" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F758" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="759" spans="1:6">
-      <c r="A759" s="1" t="n">
-        <v>757</v>
-      </c>
-      <c r="B759" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C759" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D759" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E759" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F759" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="760" spans="1:6">
-      <c r="A760" s="1" t="n">
-        <v>758</v>
-      </c>
-      <c r="B760" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C760" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D760" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E760" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F760" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="761" spans="1:6">
-      <c r="A761" s="1" t="n">
-        <v>759</v>
-      </c>
-      <c r="B761" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C761" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D761" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E761" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F761" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="762" spans="1:6">
-      <c r="A762" s="1" t="n">
-        <v>760</v>
-      </c>
-      <c r="B762" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C762" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D762" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E762" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F762" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="763" spans="1:6">
-      <c r="A763" s="1" t="n">
-        <v>761</v>
-      </c>
-      <c r="B763" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C763" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D763" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E763" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F763" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="764" spans="1:6">
-      <c r="A764" s="1" t="n">
-        <v>762</v>
-      </c>
-      <c r="B764" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C764" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D764" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E764" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F764" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="765" spans="1:6">
-      <c r="A765" s="1" t="n">
-        <v>763</v>
-      </c>
-      <c r="B765" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C765" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D765" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E765" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F765" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="766" spans="1:6">
-      <c r="A766" s="1" t="n">
-        <v>764</v>
-      </c>
-      <c r="B766" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C766" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D766" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E766" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F766" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="767" spans="1:6">
-      <c r="A767" s="1" t="n">
-        <v>765</v>
-      </c>
-      <c r="B767" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C767" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D767" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E767" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F767" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="768" spans="1:6">
-      <c r="A768" s="1" t="n">
-        <v>766</v>
-      </c>
-      <c r="B768" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C768" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D768" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E768" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F768" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="769" spans="1:6">
-      <c r="A769" s="1" t="n">
-        <v>767</v>
-      </c>
-      <c r="B769" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C769" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D769" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E769" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F769" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="770" spans="1:6">
-      <c r="A770" s="1" t="n">
-        <v>768</v>
-      </c>
-      <c r="B770" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C770" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D770" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E770" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F770" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="771" spans="1:6">
-      <c r="A771" s="1" t="n">
-        <v>769</v>
-      </c>
-      <c r="B771" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C771" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D771" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E771" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F771" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="772" spans="1:6">
-      <c r="A772" s="1" t="n">
-        <v>770</v>
-      </c>
-      <c r="B772" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C772" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D772" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E772" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F772" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="773" spans="1:6">
-      <c r="A773" s="1" t="n">
-        <v>771</v>
-      </c>
-      <c r="B773" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C773" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D773" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E773" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F773" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="774" spans="1:6">
-      <c r="A774" s="1" t="n">
-        <v>772</v>
-      </c>
-      <c r="B774" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C774" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D774" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E774" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F774" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="775" spans="1:6">
-      <c r="A775" s="1" t="n">
-        <v>773</v>
-      </c>
-      <c r="B775" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C775" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D775" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E775" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F775" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="776" spans="1:6">
-      <c r="A776" s="1" t="n">
-        <v>774</v>
-      </c>
-      <c r="B776" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C776" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D776" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E776" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F776" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="777" spans="1:6">
-      <c r="A777" s="1" t="n">
-        <v>775</v>
-      </c>
-      <c r="B777" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C777" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D777" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E777" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F777" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="778" spans="1:6">
-      <c r="A778" s="1" t="n">
-        <v>776</v>
-      </c>
-      <c r="B778" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C778" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D778" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E778" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F778" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="779" spans="1:6">
-      <c r="A779" s="1" t="n">
-        <v>777</v>
-      </c>
-      <c r="B779" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C779" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D779" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E779" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F779" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="780" spans="1:6">
-      <c r="A780" s="1" t="n">
-        <v>778</v>
-      </c>
-      <c r="B780" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C780" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D780" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E780" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F780" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="781" spans="1:6">
-      <c r="A781" s="1" t="n">
-        <v>779</v>
-      </c>
-      <c r="B781" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C781" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D781" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E781" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F781" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="782" spans="1:6">
-      <c r="A782" s="1" t="n">
-        <v>780</v>
-      </c>
-      <c r="B782" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C782" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D782" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E782" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F782" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="783" spans="1:6">
-      <c r="A783" s="1" t="n">
-        <v>781</v>
-      </c>
-      <c r="B783" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C783" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D783" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E783" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F783" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="784" spans="1:6">
-      <c r="A784" s="1" t="n">
-        <v>782</v>
-      </c>
-      <c r="B784" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C784" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D784" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E784" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F784" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="785" spans="1:6">
-      <c r="A785" s="1" t="n">
-        <v>783</v>
-      </c>
-      <c r="B785" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C785" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D785" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E785" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F785" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="786" spans="1:6">
-      <c r="A786" s="1" t="n">
-        <v>784</v>
-      </c>
-      <c r="B786" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C786" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D786" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E786" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F786" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="787" spans="1:6">
-      <c r="A787" s="1" t="n">
-        <v>785</v>
-      </c>
-      <c r="B787" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C787" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D787" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E787" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F787" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="788" spans="1:6">
-      <c r="A788" s="1" t="n">
-        <v>786</v>
-      </c>
-      <c r="B788" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C788" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D788" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E788" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F788" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="789" spans="1:6">
-      <c r="A789" s="1" t="n">
-        <v>787</v>
-      </c>
-      <c r="B789" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C789" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D789" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E789" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F789" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="790" spans="1:6">
-      <c r="A790" s="1" t="n">
-        <v>788</v>
-      </c>
-      <c r="B790" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C790" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D790" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E790" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F790" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="791" spans="1:6">
-      <c r="A791" s="1" t="n">
-        <v>789</v>
-      </c>
-      <c r="B791" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C791" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D791" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E791" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F791" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="792" spans="1:6">
-      <c r="A792" s="1" t="n">
-        <v>790</v>
-      </c>
-      <c r="B792" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C792" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D792" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E792" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F792" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="793" spans="1:6">
-      <c r="A793" s="1" t="n">
-        <v>791</v>
-      </c>
-      <c r="B793" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C793" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D793" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E793" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F793" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="794" spans="1:6">
-      <c r="A794" s="1" t="n">
-        <v>792</v>
-      </c>
-      <c r="B794" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C794" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D794" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E794" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F794" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="795" spans="1:6">
-      <c r="A795" s="1" t="n">
-        <v>793</v>
-      </c>
-      <c r="B795" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C795" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D795" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E795" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F795" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="796" spans="1:6">
-      <c r="A796" s="1" t="n">
-        <v>794</v>
-      </c>
-      <c r="B796" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C796" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D796" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E796" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F796" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="797" spans="1:6">
-      <c r="A797" s="1" t="n">
-        <v>795</v>
-      </c>
-      <c r="B797" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C797" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D797" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E797" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F797" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="798" spans="1:6">
-      <c r="A798" s="1" t="n">
-        <v>796</v>
-      </c>
-      <c r="B798" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C798" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D798" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E798" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F798" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="799" spans="1:6">
-      <c r="A799" s="1" t="n">
-        <v>797</v>
-      </c>
-      <c r="B799" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C799" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D799" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E799" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F799" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="800" spans="1:6">
-      <c r="A800" s="1" t="n">
-        <v>798</v>
-      </c>
-      <c r="B800" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C800" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D800" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E800" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F800" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="801" spans="1:6">
-      <c r="A801" s="1" t="n">
-        <v>799</v>
-      </c>
-      <c r="B801" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C801" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D801" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E801" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F801" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="802" spans="1:6">
-      <c r="A802" s="1" t="n">
-        <v>800</v>
-      </c>
-      <c r="B802" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C802" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D802" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E802" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F802" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="803" spans="1:6">
-      <c r="A803" s="1" t="n">
-        <v>801</v>
-      </c>
-      <c r="B803" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C803" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D803" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E803" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F803" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="804" spans="1:6">
-      <c r="A804" s="1" t="n">
-        <v>802</v>
-      </c>
-      <c r="B804" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C804" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D804" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E804" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F804" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="805" spans="1:6">
-      <c r="A805" s="1" t="n">
-        <v>803</v>
-      </c>
-      <c r="B805" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C805" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D805" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E805" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F805" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="806" spans="1:6">
-      <c r="A806" s="1" t="n">
-        <v>804</v>
-      </c>
-      <c r="B806" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C806" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D806" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E806" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F806" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="807" spans="1:6">
-      <c r="A807" s="1" t="n">
-        <v>805</v>
-      </c>
-      <c r="B807" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C807" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D807" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E807" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F807" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="808" spans="1:6">
-      <c r="A808" s="1" t="n">
-        <v>806</v>
-      </c>
-      <c r="B808" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C808" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D808" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E808" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F808" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="809" spans="1:6">
-      <c r="A809" s="1" t="n">
-        <v>807</v>
-      </c>
-      <c r="B809" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C809" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D809" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E809" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F809" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="810" spans="1:6">
-      <c r="A810" s="1" t="n">
-        <v>808</v>
-      </c>
-      <c r="B810" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C810" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D810" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E810" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F810" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="811" spans="1:6">
-      <c r="A811" s="1" t="n">
-        <v>809</v>
-      </c>
-      <c r="B811" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C811" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D811" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E811" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F811" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="812" spans="1:6">
-      <c r="A812" s="1" t="n">
-        <v>810</v>
-      </c>
-      <c r="B812" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C812" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D812" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E812" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F812" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="813" spans="1:6">
-      <c r="A813" s="1" t="n">
-        <v>811</v>
-      </c>
-      <c r="B813" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C813" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D813" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E813" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F813" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="814" spans="1:6">
-      <c r="A814" s="1" t="n">
-        <v>812</v>
-      </c>
-      <c r="B814" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C814" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D814" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E814" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F814" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="815" spans="1:6">
-      <c r="A815" s="1" t="n">
-        <v>813</v>
-      </c>
-      <c r="B815" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C815" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D815" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E815" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F815" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="816" spans="1:6">
-      <c r="A816" s="1" t="n">
-        <v>814</v>
-      </c>
-      <c r="B816" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C816" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D816" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E816" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F816" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="817" spans="1:6">
-      <c r="A817" s="1" t="n">
-        <v>815</v>
-      </c>
-      <c r="B817" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C817" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D817" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E817" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F817" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="818" spans="1:6">
-      <c r="A818" s="1" t="n">
-        <v>816</v>
-      </c>
-      <c r="B818" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C818" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D818" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E818" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F818" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="819" spans="1:6">
-      <c r="A819" s="1" t="n">
-        <v>817</v>
-      </c>
-      <c r="B819" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C819" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D819" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E819" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F819" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="820" spans="1:6">
-      <c r="A820" s="1" t="n">
-        <v>818</v>
-      </c>
-      <c r="B820" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C820" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D820" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E820" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F820" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="821" spans="1:6">
-      <c r="A821" s="1" t="n">
-        <v>819</v>
-      </c>
-      <c r="B821" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C821" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D821" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E821" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F821" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="822" spans="1:6">
-      <c r="A822" s="1" t="n">
-        <v>820</v>
-      </c>
-      <c r="B822" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C822" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D822" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E822" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F822" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="823" spans="1:6">
-      <c r="A823" s="1" t="n">
-        <v>821</v>
-      </c>
-      <c r="B823" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C823" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D823" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E823" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F823" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="824" spans="1:6">
-      <c r="A824" s="1" t="n">
-        <v>822</v>
-      </c>
-      <c r="B824" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C824" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D824" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E824" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F824" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="825" spans="1:6">
-      <c r="A825" s="1" t="n">
-        <v>823</v>
-      </c>
-      <c r="B825" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C825" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D825" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E825" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F825" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="826" spans="1:6">
-      <c r="A826" s="1" t="n">
-        <v>824</v>
-      </c>
-      <c r="B826" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C826" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D826" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E826" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F826" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="827" spans="1:6">
-      <c r="A827" s="1" t="n">
-        <v>825</v>
-      </c>
-      <c r="B827" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C827" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D827" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E827" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F827" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="828" spans="1:6">
-      <c r="A828" s="1" t="n">
-        <v>826</v>
-      </c>
-      <c r="B828" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C828" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D828" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E828" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F828" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="829" spans="1:6">
-      <c r="A829" s="1" t="n">
-        <v>827</v>
-      </c>
-      <c r="B829" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C829" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D829" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E829" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F829" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="830" spans="1:6">
-      <c r="A830" s="1" t="n">
-        <v>828</v>
-      </c>
-      <c r="B830" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C830" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D830" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E830" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F830" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="831" spans="1:6">
-      <c r="A831" s="1" t="n">
-        <v>829</v>
-      </c>
-      <c r="B831" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C831" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D831" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E831" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F831" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="832" spans="1:6">
-      <c r="A832" s="1" t="n">
-        <v>830</v>
-      </c>
-      <c r="B832" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C832" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D832" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E832" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F832" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="833" spans="1:6">
-      <c r="A833" s="1" t="n">
-        <v>831</v>
-      </c>
-      <c r="B833" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C833" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D833" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E833" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F833" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="834" spans="1:6">
-      <c r="A834" s="1" t="n">
-        <v>832</v>
-      </c>
-      <c r="B834" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C834" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D834" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E834" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F834" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="835" spans="1:6">
-      <c r="A835" s="1" t="n">
-        <v>833</v>
-      </c>
-      <c r="B835" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C835" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D835" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E835" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F835" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="836" spans="1:6">
-      <c r="A836" s="1" t="n">
-        <v>834</v>
-      </c>
-      <c r="B836" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C836" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D836" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E836" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F836" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="837" spans="1:6">
-      <c r="A837" s="1" t="n">
-        <v>835</v>
-      </c>
-      <c r="B837" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C837" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D837" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E837" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F837" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="838" spans="1:6">
-      <c r="A838" s="1" t="n">
-        <v>836</v>
-      </c>
-      <c r="B838" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C838" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D838" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E838" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F838" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="839" spans="1:6">
-      <c r="A839" s="1" t="n">
-        <v>837</v>
-      </c>
-      <c r="B839" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C839" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D839" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E839" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F839" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="840" spans="1:6">
-      <c r="A840" s="1" t="n">
-        <v>838</v>
-      </c>
-      <c r="B840" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C840" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D840" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E840" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F840" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="841" spans="1:6">
-      <c r="A841" s="1" t="n">
-        <v>839</v>
-      </c>
-      <c r="B841" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C841" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D841" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E841" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F841" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="842" spans="1:6">
-      <c r="A842" s="1" t="n">
-        <v>840</v>
-      </c>
-      <c r="B842" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C842" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D842" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E842" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F842" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="843" spans="1:6">
-      <c r="A843" s="1" t="n">
-        <v>841</v>
-      </c>
-      <c r="B843" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C843" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D843" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E843" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F843" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="844" spans="1:6">
-      <c r="A844" s="1" t="n">
-        <v>842</v>
-      </c>
-      <c r="B844" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C844" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D844" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E844" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F844" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="845" spans="1:6">
-      <c r="A845" s="1" t="n">
-        <v>843</v>
-      </c>
-      <c r="B845" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C845" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D845" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E845" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F845" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="846" spans="1:6">
-      <c r="A846" s="1" t="n">
-        <v>844</v>
-      </c>
-      <c r="B846" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C846" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D846" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E846" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F846" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="847" spans="1:6">
-      <c r="A847" s="1" t="n">
-        <v>845</v>
-      </c>
-      <c r="B847" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C847" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D847" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E847" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F847" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="848" spans="1:6">
-      <c r="A848" s="1" t="n">
-        <v>846</v>
-      </c>
-      <c r="B848" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C848" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D848" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E848" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F848" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="849" spans="1:6">
-      <c r="A849" s="1" t="n">
-        <v>847</v>
-      </c>
-      <c r="B849" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C849" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D849" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E849" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F849" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="850" spans="1:6">
-      <c r="A850" s="1" t="n">
-        <v>848</v>
-      </c>
-      <c r="B850" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C850" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D850" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E850" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F850" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="851" spans="1:6">
-      <c r="A851" s="1" t="n">
-        <v>849</v>
-      </c>
-      <c r="B851" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C851" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D851" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E851" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F851" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="852" spans="1:6">
-      <c r="A852" s="1" t="n">
-        <v>850</v>
-      </c>
-      <c r="B852" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C852" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D852" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E852" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F852" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="853" spans="1:6">
-      <c r="A853" s="1" t="n">
-        <v>851</v>
-      </c>
-      <c r="B853" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C853" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D853" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E853" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F853" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="854" spans="1:6">
-      <c r="A854" s="1" t="n">
-        <v>852</v>
-      </c>
-      <c r="B854" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C854" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D854" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E854" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F854" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="855" spans="1:6">
-      <c r="A855" s="1" t="n">
-        <v>853</v>
-      </c>
-      <c r="B855" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C855" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D855" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E855" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F855" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="856" spans="1:6">
-      <c r="A856" s="1" t="n">
-        <v>854</v>
-      </c>
-      <c r="B856" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C856" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D856" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E856" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F856" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="857" spans="1:6">
-      <c r="A857" s="1" t="n">
-        <v>855</v>
-      </c>
-      <c r="B857" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C857" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D857" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E857" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F857" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="858" spans="1:6">
-      <c r="A858" s="1" t="n">
-        <v>856</v>
-      </c>
-      <c r="B858" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C858" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D858" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E858" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F858" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="859" spans="1:6">
-      <c r="A859" s="1" t="n">
-        <v>857</v>
-      </c>
-      <c r="B859" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C859" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D859" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E859" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F859" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="860" spans="1:6">
-      <c r="A860" s="1" t="n">
-        <v>858</v>
-      </c>
-      <c r="B860" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C860" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D860" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E860" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F860" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="861" spans="1:6">
-      <c r="A861" s="1" t="n">
-        <v>859</v>
-      </c>
-      <c r="B861" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C861" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D861" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E861" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F861" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="862" spans="1:6">
-      <c r="A862" s="1" t="n">
-        <v>860</v>
-      </c>
-      <c r="B862" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C862" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D862" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E862" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F862" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="863" spans="1:6">
-      <c r="A863" s="1" t="n">
-        <v>861</v>
-      </c>
-      <c r="B863" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C863" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D863" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E863" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F863" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="864" spans="1:6">
-      <c r="A864" s="1" t="n">
-        <v>862</v>
-      </c>
-      <c r="B864" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C864" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D864" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E864" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F864" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="865" spans="1:6">
-      <c r="A865" s="1" t="n">
-        <v>863</v>
-      </c>
-      <c r="B865" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C865" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D865" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E865" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F865" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="866" spans="1:6">
-      <c r="A866" s="1" t="n">
-        <v>864</v>
-      </c>
-      <c r="B866" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C866" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D866" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E866" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F866" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="867" spans="1:6">
-      <c r="A867" s="1" t="n">
-        <v>865</v>
-      </c>
-      <c r="B867" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C867" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D867" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E867" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F867" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="868" spans="1:6">
-      <c r="A868" s="1" t="n">
-        <v>866</v>
-      </c>
-      <c r="B868" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C868" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D868" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E868" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F868" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="869" spans="1:6">
-      <c r="A869" s="1" t="n">
-        <v>867</v>
-      </c>
-      <c r="B869" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C869" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D869" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E869" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F869" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="870" spans="1:6">
-      <c r="A870" s="1" t="n">
-        <v>868</v>
-      </c>
-      <c r="B870" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C870" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D870" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E870" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F870" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="871" spans="1:6">
-      <c r="A871" s="1" t="n">
-        <v>869</v>
-      </c>
-      <c r="B871" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C871" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D871" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E871" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F871" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="872" spans="1:6">
-      <c r="A872" s="1" t="n">
-        <v>870</v>
-      </c>
-      <c r="B872" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C872" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D872" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E872" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F872" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="873" spans="1:6">
-      <c r="A873" s="1" t="n">
-        <v>871</v>
-      </c>
-      <c r="B873" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C873" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D873" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E873" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F873" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="874" spans="1:6">
-      <c r="A874" s="1" t="n">
-        <v>872</v>
-      </c>
-      <c r="B874" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C874" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D874" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E874" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F874" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="875" spans="1:6">
-      <c r="A875" s="1" t="n">
-        <v>873</v>
-      </c>
-      <c r="B875" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C875" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D875" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E875" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F875" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="876" spans="1:6">
-      <c r="A876" s="1" t="n">
-        <v>874</v>
-      </c>
-      <c r="B876" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C876" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D876" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E876" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F876" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="877" spans="1:6">
-      <c r="A877" s="1" t="n">
-        <v>875</v>
-      </c>
-      <c r="B877" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C877" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D877" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E877" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F877" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="878" spans="1:6">
-      <c r="A878" s="1" t="n">
-        <v>876</v>
-      </c>
-      <c r="B878" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C878" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D878" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E878" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F878" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="879" spans="1:6">
-      <c r="A879" s="1" t="n">
-        <v>877</v>
-      </c>
-      <c r="B879" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C879" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D879" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E879" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F879" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="880" spans="1:6">
-      <c r="A880" s="1" t="n">
-        <v>878</v>
-      </c>
-      <c r="B880" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C880" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D880" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E880" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F880" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="881" spans="1:6">
-      <c r="A881" s="1" t="n">
-        <v>879</v>
-      </c>
-      <c r="B881" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C881" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D881" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E881" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F881" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="882" spans="1:6">
-      <c r="A882" s="1" t="n">
-        <v>880</v>
-      </c>
-      <c r="B882" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C882" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D882" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E882" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F882" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="883" spans="1:6">
-      <c r="A883" s="1" t="n">
-        <v>881</v>
-      </c>
-      <c r="B883" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C883" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D883" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E883" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F883" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="884" spans="1:6">
-      <c r="A884" s="1" t="n">
-        <v>882</v>
-      </c>
-      <c r="B884" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C884" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D884" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E884" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F884" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="885" spans="1:6">
-      <c r="A885" s="1" t="n">
-        <v>883</v>
-      </c>
-      <c r="B885" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C885" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D885" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E885" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F885" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="886" spans="1:6">
-      <c r="A886" s="1" t="n">
-        <v>884</v>
-      </c>
-      <c r="B886" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C886" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D886" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E886" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F886" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="887" spans="1:6">
-      <c r="A887" s="1" t="n">
-        <v>885</v>
-      </c>
-      <c r="B887" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C887" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D887" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E887" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F887" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="888" spans="1:6">
-      <c r="A888" s="1" t="n">
-        <v>886</v>
-      </c>
-      <c r="B888" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C888" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D888" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E888" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F888" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="889" spans="1:6">
-      <c r="A889" s="1" t="n">
-        <v>887</v>
-      </c>
-      <c r="B889" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C889" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D889" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E889" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F889" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="890" spans="1:6">
-      <c r="A890" s="1" t="n">
-        <v>888</v>
-      </c>
-      <c r="B890" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C890" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D890" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E890" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F890" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="891" spans="1:6">
-      <c r="A891" s="1" t="n">
-        <v>889</v>
-      </c>
-      <c r="B891" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C891" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D891" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E891" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F891" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="892" spans="1:6">
-      <c r="A892" s="1" t="n">
-        <v>890</v>
-      </c>
-      <c r="B892" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C892" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D892" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E892" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F892" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="893" spans="1:6">
-      <c r="A893" s="1" t="n">
-        <v>891</v>
-      </c>
-      <c r="B893" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C893" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D893" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E893" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F893" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="894" spans="1:6">
-      <c r="A894" s="1" t="n">
-        <v>892</v>
-      </c>
-      <c r="B894" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C894" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D894" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E894" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F894" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="895" spans="1:6">
-      <c r="A895" s="1" t="n">
-        <v>893</v>
-      </c>
-      <c r="B895" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C895" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D895" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E895" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F895" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="896" spans="1:6">
-      <c r="A896" s="1" t="n">
-        <v>894</v>
-      </c>
-      <c r="B896" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C896" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D896" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E896" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F896" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="897" spans="1:6">
-      <c r="A897" s="1" t="n">
-        <v>895</v>
-      </c>
-      <c r="B897" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C897" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D897" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E897" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F897" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="898" spans="1:6">
-      <c r="A898" s="1" t="n">
-        <v>896</v>
-      </c>
-      <c r="B898" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C898" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D898" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E898" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F898" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="899" spans="1:6">
-      <c r="A899" s="1" t="n">
-        <v>897</v>
-      </c>
-      <c r="B899" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C899" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D899" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E899" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F899" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="900" spans="1:6">
-      <c r="A900" s="1" t="n">
-        <v>898</v>
-      </c>
-      <c r="B900" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C900" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D900" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E900" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F900" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="901" spans="1:6">
-      <c r="A901" s="1" t="n">
-        <v>899</v>
-      </c>
-      <c r="B901" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C901" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D901" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E901" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F901" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="902" spans="1:6">
-      <c r="A902" s="1" t="n">
-        <v>900</v>
-      </c>
-      <c r="B902" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C902" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D902" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E902" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F902" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="903" spans="1:6">
-      <c r="A903" s="1" t="n">
-        <v>901</v>
-      </c>
-      <c r="B903" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C903" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D903" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E903" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F903" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="904" spans="1:6">
-      <c r="A904" s="1" t="n">
-        <v>902</v>
-      </c>
-      <c r="B904" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C904" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D904" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E904" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F904" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="905" spans="1:6">
-      <c r="A905" s="1" t="n">
-        <v>903</v>
-      </c>
-      <c r="B905" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C905" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D905" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E905" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F905" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="906" spans="1:6">
-      <c r="A906" s="1" t="n">
-        <v>904</v>
-      </c>
-      <c r="B906" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C906" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D906" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E906" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F906" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="907" spans="1:6">
-      <c r="A907" s="1" t="n">
-        <v>905</v>
-      </c>
-      <c r="B907" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C907" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D907" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E907" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F907" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="908" spans="1:6">
-      <c r="A908" s="1" t="n">
-        <v>906</v>
-      </c>
-      <c r="B908" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C908" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D908" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E908" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F908" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="909" spans="1:6">
-      <c r="A909" s="1" t="n">
-        <v>907</v>
-      </c>
-      <c r="B909" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C909" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D909" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E909" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F909" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="910" spans="1:6">
-      <c r="A910" s="1" t="n">
-        <v>908</v>
-      </c>
-      <c r="B910" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C910" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D910" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E910" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F910" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="911" spans="1:6">
-      <c r="A911" s="1" t="n">
-        <v>909</v>
-      </c>
-      <c r="B911" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C911" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D911" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E911" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F911" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="912" spans="1:6">
-      <c r="A912" s="1" t="n">
-        <v>910</v>
-      </c>
-      <c r="B912" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C912" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D912" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E912" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F912" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="913" spans="1:6">
-      <c r="A913" s="1" t="n">
-        <v>911</v>
-      </c>
-      <c r="B913" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C913" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D913" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E913" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F913" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="914" spans="1:6">
-      <c r="A914" s="1" t="n">
-        <v>912</v>
-      </c>
-      <c r="B914" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C914" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D914" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E914" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F914" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="915" spans="1:6">
-      <c r="A915" s="1" t="n">
-        <v>913</v>
-      </c>
-      <c r="B915" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C915" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D915" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E915" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F915" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="916" spans="1:6">
-      <c r="A916" s="1" t="n">
-        <v>914</v>
-      </c>
-      <c r="B916" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C916" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D916" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E916" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F916" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="917" spans="1:6">
-      <c r="A917" s="1" t="n">
-        <v>915</v>
-      </c>
-      <c r="B917" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C917" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D917" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E917" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F917" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="918" spans="1:6">
-      <c r="A918" s="1" t="n">
-        <v>916</v>
-      </c>
-      <c r="B918" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C918" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D918" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E918" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F918" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="919" spans="1:6">
-      <c r="A919" s="1" t="n">
-        <v>917</v>
-      </c>
-      <c r="B919" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C919" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D919" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E919" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F919" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="920" spans="1:6">
-      <c r="A920" s="1" t="n">
-        <v>918</v>
-      </c>
-      <c r="B920" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C920" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D920" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E920" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F920" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="921" spans="1:6">
-      <c r="A921" s="1" t="n">
-        <v>919</v>
-      </c>
-      <c r="B921" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C921" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D921" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E921" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F921" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="922" spans="1:6">
-      <c r="A922" s="1" t="n">
-        <v>920</v>
-      </c>
-      <c r="B922" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C922" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D922" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E922" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F922" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="923" spans="1:6">
-      <c r="A923" s="1" t="n">
-        <v>921</v>
-      </c>
-      <c r="B923" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C923" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D923" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E923" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F923" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="924" spans="1:6">
-      <c r="A924" s="1" t="n">
-        <v>922</v>
-      </c>
-      <c r="B924" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C924" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D924" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E924" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F924" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="925" spans="1:6">
-      <c r="A925" s="1" t="n">
-        <v>923</v>
-      </c>
-      <c r="B925" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C925" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D925" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E925" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F925" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="926" spans="1:6">
-      <c r="A926" s="1" t="n">
-        <v>924</v>
-      </c>
-      <c r="B926" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C926" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D926" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E926" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F926" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="927" spans="1:6">
-      <c r="A927" s="1" t="n">
-        <v>925</v>
-      </c>
-      <c r="B927" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C927" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D927" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E927" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F927" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="928" spans="1:6">
-      <c r="A928" s="1" t="n">
-        <v>926</v>
-      </c>
-      <c r="B928" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C928" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D928" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E928" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F928" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="929" spans="1:6">
-      <c r="A929" s="1" t="n">
-        <v>927</v>
-      </c>
-      <c r="B929" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C929" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D929" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E929" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F929" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="930" spans="1:6">
-      <c r="A930" s="1" t="n">
-        <v>928</v>
-      </c>
-      <c r="B930" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C930" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D930" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E930" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F930" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="931" spans="1:6">
-      <c r="A931" s="1" t="n">
-        <v>929</v>
-      </c>
-      <c r="B931" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C931" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D931" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E931" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F931" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="932" spans="1:6">
-      <c r="A932" s="1" t="n">
-        <v>930</v>
-      </c>
-      <c r="B932" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C932" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D932" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E932" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F932" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="933" spans="1:6">
-      <c r="A933" s="1" t="n">
-        <v>931</v>
-      </c>
-      <c r="B933" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C933" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D933" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E933" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F933" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="934" spans="1:6">
-      <c r="A934" s="1" t="n">
-        <v>932</v>
-      </c>
-      <c r="B934" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C934" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D934" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E934" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F934" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="935" spans="1:6">
-      <c r="A935" s="1" t="n">
-        <v>933</v>
-      </c>
-      <c r="B935" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C935" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D935" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E935" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F935" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="936" spans="1:6">
-      <c r="A936" s="1" t="n">
-        <v>934</v>
-      </c>
-      <c r="B936" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C936" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D936" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E936" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F936" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="937" spans="1:6">
-      <c r="A937" s="1" t="n">
-        <v>935</v>
-      </c>
-      <c r="B937" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C937" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D937" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E937" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F937" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="938" spans="1:6">
-      <c r="A938" s="1" t="n">
-        <v>936</v>
-      </c>
-      <c r="B938" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C938" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D938" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E938" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F938" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="939" spans="1:6">
-      <c r="A939" s="1" t="n">
-        <v>937</v>
-      </c>
-      <c r="B939" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C939" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D939" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E939" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F939" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="940" spans="1:6">
-      <c r="A940" s="1" t="n">
-        <v>938</v>
-      </c>
-      <c r="B940" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C940" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D940" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E940" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F940" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="941" spans="1:6">
-      <c r="A941" s="1" t="n">
-        <v>939</v>
-      </c>
-      <c r="B941" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C941" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D941" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E941" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F941" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="942" spans="1:6">
-      <c r="A942" s="1" t="n">
-        <v>940</v>
-      </c>
-      <c r="B942" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C942" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D942" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E942" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F942" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="943" spans="1:6">
-      <c r="A943" s="1" t="n">
-        <v>941</v>
-      </c>
-      <c r="B943" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C943" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D943" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E943" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F943" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="944" spans="1:6">
-      <c r="A944" s="1" t="n">
-        <v>942</v>
-      </c>
-      <c r="B944" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C944" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D944" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E944" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F944" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="945" spans="1:6">
-      <c r="A945" s="1" t="n">
-        <v>943</v>
-      </c>
-      <c r="B945" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C945" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D945" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E945" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F945" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="946" spans="1:6">
-      <c r="A946" s="1" t="n">
-        <v>944</v>
-      </c>
-      <c r="B946" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C946" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D946" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E946" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F946" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="947" spans="1:6">
-      <c r="A947" s="1" t="n">
-        <v>945</v>
-      </c>
-      <c r="B947" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C947" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D947" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E947" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F947" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="948" spans="1:6">
-      <c r="A948" s="1" t="n">
-        <v>946</v>
-      </c>
-      <c r="B948" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C948" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D948" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E948" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F948" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="949" spans="1:6">
-      <c r="A949" s="1" t="n">
-        <v>947</v>
-      </c>
-      <c r="B949" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C949" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D949" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E949" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F949" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="950" spans="1:6">
-      <c r="A950" s="1" t="n">
-        <v>948</v>
-      </c>
-      <c r="B950" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C950" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D950" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E950" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F950" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="951" spans="1:6">
-      <c r="A951" s="1" t="n">
-        <v>949</v>
-      </c>
-      <c r="B951" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C951" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D951" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E951" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F951" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="952" spans="1:6">
-      <c r="A952" s="1" t="n">
-        <v>950</v>
-      </c>
-      <c r="B952" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C952" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D952" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E952" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F952" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="953" spans="1:6">
-      <c r="A953" s="1" t="n">
-        <v>951</v>
-      </c>
-      <c r="B953" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C953" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D953" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E953" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F953" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="954" spans="1:6">
-      <c r="A954" s="1" t="n">
-        <v>952</v>
-      </c>
-      <c r="B954" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C954" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D954" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E954" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F954" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="955" spans="1:6">
-      <c r="A955" s="1" t="n">
-        <v>953</v>
-      </c>
-      <c r="B955" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C955" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D955" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E955" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F955" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="956" spans="1:6">
-      <c r="A956" s="1" t="n">
-        <v>954</v>
-      </c>
-      <c r="B956" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C956" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D956" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E956" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F956" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="957" spans="1:6">
-      <c r="A957" s="1" t="n">
-        <v>955</v>
-      </c>
-      <c r="B957" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C957" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D957" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E957" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F957" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="958" spans="1:6">
-      <c r="A958" s="1" t="n">
-        <v>956</v>
-      </c>
-      <c r="B958" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C958" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D958" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E958" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F958" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="959" spans="1:6">
-      <c r="A959" s="1" t="n">
-        <v>957</v>
-      </c>
-      <c r="B959" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C959" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D959" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E959" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F959" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="960" spans="1:6">
-      <c r="A960" s="1" t="n">
-        <v>958</v>
-      </c>
-      <c r="B960" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C960" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D960" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E960" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F960" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="961" spans="1:6">
-      <c r="A961" s="1" t="n">
-        <v>959</v>
-      </c>
-      <c r="B961" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C961" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D961" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E961" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F961" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="962" spans="1:6">
-      <c r="A962" s="1" t="n">
-        <v>960</v>
-      </c>
-      <c r="B962" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C962" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D962" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E962" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F962" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="963" spans="1:6">
-      <c r="A963" s="1" t="n">
-        <v>961</v>
-      </c>
-      <c r="B963" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C963" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D963" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E963" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F963" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="964" spans="1:6">
-      <c r="A964" s="1" t="n">
-        <v>962</v>
-      </c>
-      <c r="B964" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C964" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D964" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E964" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F964" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="965" spans="1:6">
-      <c r="A965" s="1" t="n">
-        <v>963</v>
-      </c>
-      <c r="B965" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C965" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D965" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E965" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F965" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="966" spans="1:6">
-      <c r="A966" s="1" t="n">
-        <v>964</v>
-      </c>
-      <c r="B966" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C966" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D966" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E966" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F966" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="967" spans="1:6">
-      <c r="A967" s="1" t="n">
-        <v>965</v>
-      </c>
-      <c r="B967" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C967" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D967" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E967" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F967" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="968" spans="1:6">
-      <c r="A968" s="1" t="n">
-        <v>966</v>
-      </c>
-      <c r="B968" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C968" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D968" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E968" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F968" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="969" spans="1:6">
-      <c r="A969" s="1" t="n">
-        <v>967</v>
-      </c>
-      <c r="B969" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C969" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D969" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E969" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F969" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="970" spans="1:6">
-      <c r="A970" s="1" t="n">
-        <v>968</v>
-      </c>
-      <c r="B970" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C970" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D970" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E970" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F970" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="971" spans="1:6">
-      <c r="A971" s="1" t="n">
-        <v>969</v>
-      </c>
-      <c r="B971" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C971" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D971" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E971" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F971" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="972" spans="1:6">
-      <c r="A972" s="1" t="n">
-        <v>970</v>
-      </c>
-      <c r="B972" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C972" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D972" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E972" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F972" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="973" spans="1:6">
-      <c r="A973" s="1" t="n">
-        <v>971</v>
-      </c>
-      <c r="B973" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C973" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D973" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E973" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F973" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="974" spans="1:6">
-      <c r="A974" s="1" t="n">
-        <v>972</v>
-      </c>
-      <c r="B974" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C974" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D974" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E974" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F974" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="975" spans="1:6">
-      <c r="A975" s="1" t="n">
-        <v>973</v>
-      </c>
-      <c r="B975" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C975" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D975" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E975" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F975" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="976" spans="1:6">
-      <c r="A976" s="1" t="n">
-        <v>974</v>
-      </c>
-      <c r="B976" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C976" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D976" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E976" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F976" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="977" spans="1:6">
-      <c r="A977" s="1" t="n">
-        <v>975</v>
-      </c>
-      <c r="B977" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C977" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D977" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E977" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F977" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="978" spans="1:6">
-      <c r="A978" s="1" t="n">
-        <v>976</v>
-      </c>
-      <c r="B978" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C978" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D978" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E978" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F978" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="979" spans="1:6">
-      <c r="A979" s="1" t="n">
-        <v>977</v>
-      </c>
-      <c r="B979" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C979" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D979" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E979" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F979" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="980" spans="1:6">
-      <c r="A980" s="1" t="n">
-        <v>978</v>
-      </c>
-      <c r="B980" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C980" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D980" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E980" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F980" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="981" spans="1:6">
-      <c r="A981" s="1" t="n">
-        <v>979</v>
-      </c>
-      <c r="B981" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C981" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D981" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E981" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F981" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="982" spans="1:6">
-      <c r="A982" s="1" t="n">
-        <v>980</v>
-      </c>
-      <c r="B982" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C982" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D982" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E982" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F982" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="983" spans="1:6">
-      <c r="A983" s="1" t="n">
-        <v>981</v>
-      </c>
-      <c r="B983" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C983" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D983" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E983" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F983" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="984" spans="1:6">
-      <c r="A984" s="1" t="n">
-        <v>982</v>
-      </c>
-      <c r="B984" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C984" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D984" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E984" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F984" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="985" spans="1:6">
-      <c r="A985" s="1" t="n">
-        <v>983</v>
-      </c>
-      <c r="B985" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C985" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D985" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E985" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F985" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="986" spans="1:6">
-      <c r="A986" s="1" t="n">
-        <v>984</v>
-      </c>
-      <c r="B986" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C986" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D986" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E986" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F986" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="987" spans="1:6">
-      <c r="A987" s="1" t="n">
-        <v>985</v>
-      </c>
-      <c r="B987" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C987" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D987" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E987" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F987" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="988" spans="1:6">
-      <c r="A988" s="1" t="n">
-        <v>986</v>
-      </c>
-      <c r="B988" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C988" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D988" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E988" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F988" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="989" spans="1:6">
-      <c r="A989" s="1" t="n">
-        <v>987</v>
-      </c>
-      <c r="B989" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C989" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D989" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E989" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F989" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="990" spans="1:6">
-      <c r="A990" s="1" t="n">
-        <v>988</v>
-      </c>
-      <c r="B990" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C990" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D990" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E990" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F990" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="991" spans="1:6">
-      <c r="A991" s="1" t="n">
-        <v>989</v>
-      </c>
-      <c r="B991" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C991" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D991" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E991" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F991" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="992" spans="1:6">
-      <c r="A992" s="1" t="n">
-        <v>990</v>
-      </c>
-      <c r="B992" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C992" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D992" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E992" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F992" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="993" spans="1:6">
-      <c r="A993" s="1" t="n">
-        <v>991</v>
-      </c>
-      <c r="B993" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C993" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D993" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E993" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F993" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="994" spans="1:6">
-      <c r="A994" s="1" t="n">
-        <v>992</v>
-      </c>
-      <c r="B994" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C994" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D994" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E994" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F994" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="995" spans="1:6">
-      <c r="A995" s="1" t="n">
-        <v>993</v>
-      </c>
-      <c r="B995" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C995" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D995" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E995" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F995" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="996" spans="1:6">
-      <c r="A996" s="1" t="n">
-        <v>994</v>
-      </c>
-      <c r="B996" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C996" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D996" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E996" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F996" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="997" spans="1:6">
-      <c r="A997" s="1" t="n">
-        <v>995</v>
-      </c>
-      <c r="B997" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C997" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D997" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E997" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F997" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="998" spans="1:6">
-      <c r="A998" s="1" t="n">
-        <v>996</v>
-      </c>
-      <c r="B998" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C998" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D998" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E998" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F998" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="999" spans="1:6">
-      <c r="A999" s="1" t="n">
-        <v>997</v>
-      </c>
-      <c r="B999" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C999" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D999" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E999" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F999" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1000" spans="1:6">
-      <c r="A1000" s="1" t="n">
-        <v>998</v>
-      </c>
-      <c r="B1000" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1000" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1000" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1000" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1000" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1001" spans="1:6">
-      <c r="A1001" s="1" t="n">
-        <v>999</v>
-      </c>
-      <c r="B1001" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1001" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1001" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1001" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1001" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1002" spans="1:6">
-      <c r="A1002" s="1" t="n">
-        <v>1000</v>
-      </c>
-      <c r="B1002" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1002" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1002" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1002" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1002" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1003" spans="1:6">
-      <c r="A1003" s="1" t="n">
-        <v>1001</v>
-      </c>
-      <c r="B1003" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1003" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1003" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1003" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1003" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1004" spans="1:6">
-      <c r="A1004" s="1" t="n">
-        <v>1002</v>
-      </c>
-      <c r="B1004" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1004" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1004" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1004" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1004" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1005" spans="1:6">
-      <c r="A1005" s="1" t="n">
-        <v>1003</v>
-      </c>
-      <c r="B1005" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1005" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1005" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1005" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1005" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1006" spans="1:6">
-      <c r="A1006" s="1" t="n">
-        <v>1004</v>
-      </c>
-      <c r="B1006" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1006" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1006" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1006" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1006" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1007" spans="1:6">
-      <c r="A1007" s="1" t="n">
-        <v>1005</v>
-      </c>
-      <c r="B1007" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1007" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1007" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1007" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1007" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1008" spans="1:6">
-      <c r="A1008" s="1" t="n">
-        <v>1006</v>
-      </c>
-      <c r="B1008" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1008" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1008" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1008" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1008" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1009" spans="1:6">
-      <c r="A1009" s="1" t="n">
-        <v>1007</v>
-      </c>
-      <c r="B1009" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1009" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1009" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1009" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1009" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1010" spans="1:6">
-      <c r="A1010" s="1" t="n">
-        <v>1008</v>
-      </c>
-      <c r="B1010" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1010" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1010" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1010" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1010" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1011" spans="1:6">
-      <c r="A1011" s="1" t="n">
-        <v>1009</v>
-      </c>
-      <c r="B1011" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1011" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1011" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1011" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1011" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1012" spans="1:6">
-      <c r="A1012" s="1" t="n">
-        <v>1010</v>
-      </c>
-      <c r="B1012" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1012" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1012" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1012" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1012" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1013" spans="1:6">
-      <c r="A1013" s="1" t="n">
-        <v>1011</v>
-      </c>
-      <c r="B1013" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1013" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1013" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1013" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1013" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1014" spans="1:6">
-      <c r="A1014" s="1" t="n">
-        <v>1012</v>
-      </c>
-      <c r="B1014" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1014" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1014" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1014" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1014" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1015" spans="1:6">
-      <c r="A1015" s="1" t="n">
-        <v>1013</v>
-      </c>
-      <c r="B1015" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1015" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1015" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1015" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1015" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1016" spans="1:6">
-      <c r="A1016" s="1" t="n">
-        <v>1014</v>
-      </c>
-      <c r="B1016" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1016" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1016" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1016" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1016" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1017" spans="1:6">
-      <c r="A1017" s="1" t="n">
-        <v>1015</v>
-      </c>
-      <c r="B1017" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1017" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1017" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1017" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1017" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1018" spans="1:6">
-      <c r="A1018" s="1" t="n">
-        <v>1016</v>
-      </c>
-      <c r="B1018" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1018" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1018" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1018" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1018" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1019" spans="1:6">
-      <c r="A1019" s="1" t="n">
-        <v>1017</v>
-      </c>
-      <c r="B1019" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1019" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1019" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1019" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1019" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1020" spans="1:6">
-      <c r="A1020" s="1" t="n">
-        <v>1018</v>
-      </c>
-      <c r="B1020" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1020" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1020" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1020" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1020" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1021" spans="1:6">
-      <c r="A1021" s="1" t="n">
-        <v>1019</v>
-      </c>
-      <c r="B1021" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1021" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1021" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1021" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1021" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1022" spans="1:6">
-      <c r="A1022" s="1" t="n">
-        <v>1020</v>
-      </c>
-      <c r="B1022" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1022" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1022" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1022" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1022" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1023" spans="1:6">
-      <c r="A1023" s="1" t="n">
-        <v>1021</v>
-      </c>
-      <c r="B1023" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1023" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1023" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1023" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1023" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1024" spans="1:6">
-      <c r="A1024" s="1" t="n">
-        <v>1022</v>
-      </c>
-      <c r="B1024" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1024" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1024" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1024" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1024" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1025" spans="1:6">
-      <c r="A1025" s="1" t="n">
-        <v>1023</v>
-      </c>
-      <c r="B1025" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1025" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1025" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1025" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1025" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1026" spans="1:6">
-      <c r="A1026" s="1" t="n">
-        <v>1024</v>
-      </c>
-      <c r="B1026" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1026" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1026" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1026" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1026" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1027" spans="1:6">
-      <c r="A1027" s="1" t="n">
-        <v>1025</v>
-      </c>
-      <c r="B1027" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1027" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1027" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1027" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1027" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1028" spans="1:6">
-      <c r="A1028" s="1" t="n">
-        <v>1026</v>
-      </c>
-      <c r="B1028" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1028" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1028" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1028" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1028" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1029" spans="1:6">
-      <c r="A1029" s="1" t="n">
-        <v>1027</v>
-      </c>
-      <c r="B1029" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1029" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1029" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1029" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1029" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1030" spans="1:6">
-      <c r="A1030" s="1" t="n">
-        <v>1028</v>
-      </c>
-      <c r="B1030" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1030" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1030" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1030" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1030" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1031" spans="1:6">
-      <c r="A1031" s="1" t="n">
-        <v>1029</v>
-      </c>
-      <c r="B1031" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1031" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1031" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1031" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1031" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1032" spans="1:6">
-      <c r="A1032" s="1" t="n">
-        <v>1030</v>
-      </c>
-      <c r="B1032" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1032" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1032" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1032" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1032" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1033" spans="1:6">
-      <c r="A1033" s="1" t="n">
-        <v>1031</v>
-      </c>
-      <c r="B1033" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1033" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1033" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1033" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1033" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1034" spans="1:6">
-      <c r="A1034" s="1" t="n">
-        <v>1032</v>
-      </c>
-      <c r="B1034" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1034" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1034" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1034" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1034" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1035" spans="1:6">
-      <c r="A1035" s="1" t="n">
-        <v>1033</v>
-      </c>
-      <c r="B1035" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1035" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1035" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1035" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1035" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1036" spans="1:6">
-      <c r="A1036" s="1" t="n">
-        <v>1034</v>
-      </c>
-      <c r="B1036" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1036" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1036" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1036" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1036" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1037" spans="1:6">
-      <c r="A1037" s="1" t="n">
-        <v>1035</v>
-      </c>
-      <c r="B1037" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1037" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1037" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1037" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1037" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1038" spans="1:6">
-      <c r="A1038" s="1" t="n">
-        <v>1036</v>
-      </c>
-      <c r="B1038" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1038" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1038" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1038" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1038" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1039" spans="1:6">
-      <c r="A1039" s="1" t="n">
-        <v>1037</v>
-      </c>
-      <c r="B1039" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1039" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1039" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1039" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1039" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1040" spans="1:6">
-      <c r="A1040" s="1" t="n">
-        <v>1038</v>
-      </c>
-      <c r="B1040" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1040" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1040" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1040" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1040" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1041" spans="1:6">
-      <c r="A1041" s="1" t="n">
-        <v>1039</v>
-      </c>
-      <c r="B1041" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1041" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1041" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1041" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1041" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1042" spans="1:6">
-      <c r="A1042" s="1" t="n">
-        <v>1040</v>
-      </c>
-      <c r="B1042" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1042" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1042" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1042" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1042" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1043" spans="1:6">
-      <c r="A1043" s="1" t="n">
-        <v>1041</v>
-      </c>
-      <c r="B1043" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1043" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1043" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1043" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1043" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1044" spans="1:6">
-      <c r="A1044" s="1" t="n">
-        <v>1042</v>
-      </c>
-      <c r="B1044" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1044" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1044" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1044" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1044" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1045" spans="1:6">
-      <c r="A1045" s="1" t="n">
-        <v>1043</v>
-      </c>
-      <c r="B1045" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1045" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1045" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1045" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1045" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1046" spans="1:6">
-      <c r="A1046" s="1" t="n">
-        <v>1044</v>
-      </c>
-      <c r="B1046" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1046" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1046" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1046" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1046" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1047" spans="1:6">
-      <c r="A1047" s="1" t="n">
-        <v>1045</v>
-      </c>
-      <c r="B1047" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1047" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1047" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1047" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1047" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1048" spans="1:6">
-      <c r="A1048" s="1" t="n">
-        <v>1046</v>
-      </c>
-      <c r="B1048" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1048" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1048" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1048" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1048" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1049" spans="1:6">
-      <c r="A1049" s="1" t="n">
-        <v>1047</v>
-      </c>
-      <c r="B1049" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1049" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1049" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1049" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1049" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1050" spans="1:6">
-      <c r="A1050" s="1" t="n">
-        <v>1048</v>
-      </c>
-      <c r="B1050" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1050" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1050" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1050" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1050" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1051" spans="1:6">
-      <c r="A1051" s="1" t="n">
-        <v>1049</v>
-      </c>
-      <c r="B1051" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1051" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1051" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1051" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1051" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1052" spans="1:6">
-      <c r="A1052" s="1" t="n">
-        <v>1050</v>
-      </c>
-      <c r="B1052" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1052" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1052" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1052" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1052" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1053" spans="1:6">
-      <c r="A1053" s="1" t="n">
-        <v>1051</v>
-      </c>
-      <c r="B1053" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1053" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1053" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1053" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1053" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1054" spans="1:6">
-      <c r="A1054" s="1" t="n">
-        <v>1052</v>
-      </c>
-      <c r="B1054" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1054" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1054" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1054" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1054" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1055" spans="1:6">
-      <c r="A1055" s="1" t="n">
-        <v>1053</v>
-      </c>
-      <c r="B1055" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1055" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1055" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1055" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1055" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1056" spans="1:6">
-      <c r="A1056" s="1" t="n">
-        <v>1054</v>
-      </c>
-      <c r="B1056" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1056" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1056" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1056" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1056" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1057" spans="1:6">
-      <c r="A1057" s="1" t="n">
-        <v>1055</v>
-      </c>
-      <c r="B1057" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1057" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1057" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1057" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1057" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1058" spans="1:6">
-      <c r="A1058" s="1" t="n">
-        <v>1056</v>
-      </c>
-      <c r="B1058" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1058" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1058" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1058" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1058" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1059" spans="1:6">
-      <c r="A1059" s="1" t="n">
-        <v>1057</v>
-      </c>
-      <c r="B1059" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1059" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1059" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1059" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1059" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1060" spans="1:6">
-      <c r="A1060" s="1" t="n">
-        <v>1058</v>
-      </c>
-      <c r="B1060" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1060" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1060" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1060" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1060" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1061" spans="1:6">
-      <c r="A1061" s="1" t="n">
-        <v>1059</v>
-      </c>
-      <c r="B1061" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1061" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1061" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1061" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1061" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1062" spans="1:6">
-      <c r="A1062" s="1" t="n">
-        <v>1060</v>
-      </c>
-      <c r="B1062" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1062" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1062" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1062" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1062" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1063" spans="1:6">
-      <c r="A1063" s="1" t="n">
-        <v>1061</v>
-      </c>
-      <c r="B1063" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1063" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1063" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1063" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1063" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1064" spans="1:6">
-      <c r="A1064" s="1" t="n">
-        <v>1062</v>
-      </c>
-      <c r="B1064" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1064" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1064" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1064" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1064" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1065" spans="1:6">
-      <c r="A1065" s="1" t="n">
-        <v>1063</v>
-      </c>
-      <c r="B1065" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1065" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1065" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1065" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1065" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1066" spans="1:6">
-      <c r="A1066" s="1" t="n">
-        <v>1064</v>
-      </c>
-      <c r="B1066" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1066" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1066" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1066" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1066" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1067" spans="1:6">
-      <c r="A1067" s="1" t="n">
-        <v>1065</v>
-      </c>
-      <c r="B1067" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1067" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1067" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1067" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1067" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1068" spans="1:6">
-      <c r="A1068" s="1" t="n">
-        <v>1066</v>
-      </c>
-      <c r="B1068" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1068" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1068" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1068" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1068" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1069" spans="1:6">
-      <c r="A1069" s="1" t="n">
-        <v>1067</v>
-      </c>
-      <c r="B1069" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1069" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1069" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1069" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1069" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1070" spans="1:6">
-      <c r="A1070" s="1" t="n">
-        <v>1068</v>
-      </c>
-      <c r="B1070" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1070" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1070" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1070" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1070" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1071" spans="1:6">
-      <c r="A1071" s="1" t="n">
-        <v>1069</v>
-      </c>
-      <c r="B1071" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1071" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1071" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1071" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1071" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1072" spans="1:6">
-      <c r="A1072" s="1" t="n">
-        <v>1070</v>
-      </c>
-      <c r="B1072" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1072" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1072" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1072" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1072" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1073" spans="1:6">
-      <c r="A1073" s="1" t="n">
-        <v>1071</v>
-      </c>
-      <c r="B1073" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1073" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1073" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1073" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1073" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1074" spans="1:6">
-      <c r="A1074" s="1" t="n">
-        <v>1072</v>
-      </c>
-      <c r="B1074" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1074" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1074" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1074" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1074" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1075" spans="1:6">
-      <c r="A1075" s="1" t="n">
-        <v>1073</v>
-      </c>
-      <c r="B1075" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1075" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1075" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1075" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1075" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1076" spans="1:6">
-      <c r="A1076" s="1" t="n">
-        <v>1074</v>
-      </c>
-      <c r="B1076" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1076" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1076" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1076" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1076" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1077" spans="1:6">
-      <c r="A1077" s="1" t="n">
-        <v>1075</v>
-      </c>
-      <c r="B1077" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1077" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1077" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1077" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1077" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1078" spans="1:6">
-      <c r="A1078" s="1" t="n">
-        <v>1076</v>
-      </c>
-      <c r="B1078" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1078" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1078" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1078" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1078" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1079" spans="1:6">
-      <c r="A1079" s="1" t="n">
-        <v>1077</v>
-      </c>
-      <c r="B1079" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1079" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1079" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1079" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1079" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1080" spans="1:6">
-      <c r="A1080" s="1" t="n">
-        <v>1078</v>
-      </c>
-      <c r="B1080" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1080" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1080" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1080" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1080" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1081" spans="1:6">
-      <c r="A1081" s="1" t="n">
-        <v>1079</v>
-      </c>
-      <c r="B1081" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1081" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1081" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1081" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1081" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1082" spans="1:6">
-      <c r="A1082" s="1" t="n">
-        <v>1080</v>
-      </c>
-      <c r="B1082" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1082" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1082" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1082" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1082" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1083" spans="1:6">
-      <c r="A1083" s="1" t="n">
-        <v>1081</v>
-      </c>
-      <c r="B1083" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1083" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1083" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1083" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1083" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1084" spans="1:6">
-      <c r="A1084" s="1" t="n">
-        <v>1082</v>
-      </c>
-      <c r="B1084" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1084" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1084" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1084" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1084" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1085" spans="1:6">
-      <c r="A1085" s="1" t="n">
-        <v>1083</v>
-      </c>
-      <c r="B1085" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1085" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1085" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1085" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1085" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1086" spans="1:6">
-      <c r="A1086" s="1" t="n">
-        <v>1084</v>
-      </c>
-      <c r="B1086" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1086" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1086" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1086" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1086" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1087" spans="1:6">
-      <c r="A1087" s="1" t="n">
-        <v>1085</v>
-      </c>
-      <c r="B1087" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1087" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1087" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1087" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1087" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1088" spans="1:6">
-      <c r="A1088" s="1" t="n">
-        <v>1086</v>
-      </c>
-      <c r="B1088" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1088" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1088" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1088" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1088" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1089" spans="1:6">
-      <c r="A1089" s="1" t="n">
-        <v>1087</v>
-      </c>
-      <c r="B1089" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1089" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1089" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1089" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1089" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1090" spans="1:6">
-      <c r="A1090" s="1" t="n">
-        <v>1088</v>
-      </c>
-      <c r="B1090" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1090" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1090" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1090" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1090" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1091" spans="1:6">
-      <c r="A1091" s="1" t="n">
-        <v>1089</v>
-      </c>
-      <c r="B1091" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1091" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1091" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1091" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1091" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1092" spans="1:6">
-      <c r="A1092" s="1" t="n">
-        <v>1090</v>
-      </c>
-      <c r="B1092" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1092" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1092" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1092" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1092" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1093" spans="1:6">
-      <c r="A1093" s="1" t="n">
-        <v>1091</v>
-      </c>
-      <c r="B1093" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1093" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1093" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1093" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1093" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1094" spans="1:6">
-      <c r="A1094" s="1" t="n">
-        <v>1092</v>
-      </c>
-      <c r="B1094" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1094" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1094" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1094" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1094" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1095" spans="1:6">
-      <c r="A1095" s="1" t="n">
-        <v>1093</v>
-      </c>
-      <c r="B1095" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1095" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1095" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1095" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1095" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="1096" spans="1:6">
-      <c r="A1096" s="1" t="n">
-        <v>1094</v>
-      </c>
-      <c r="B1096" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C1096" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="D1096" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E1096" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="F1096" t="n">
-        <v>5.13</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Stochastic_engine/Gas_prices/NG.xlsx
+++ b/Stochastic_engine/Gas_prices/NG.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F731"/>
+  <dimension ref="A1:F366"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7709,7306 +7709,6 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="367" spans="1:6">
-      <c r="A367" s="1">
-        <v>365</v>
-      </c>
-      <c r="B367">
-        <v>4.47</v>
-      </c>
-      <c r="C367">
-        <v>4.47</v>
-      </c>
-      <c r="D367">
-        <v>4.66</v>
-      </c>
-      <c r="E367">
-        <v>4.66</v>
-      </c>
-      <c r="F367">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="368" spans="1:6">
-      <c r="A368" s="1">
-        <v>366</v>
-      </c>
-      <c r="B368">
-        <v>4.47</v>
-      </c>
-      <c r="C368">
-        <v>4.47</v>
-      </c>
-      <c r="D368">
-        <v>4.66</v>
-      </c>
-      <c r="E368">
-        <v>4.66</v>
-      </c>
-      <c r="F368">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="369" spans="1:6">
-      <c r="A369" s="1">
-        <v>367</v>
-      </c>
-      <c r="B369">
-        <v>4.47</v>
-      </c>
-      <c r="C369">
-        <v>4.47</v>
-      </c>
-      <c r="D369">
-        <v>4.66</v>
-      </c>
-      <c r="E369">
-        <v>4.66</v>
-      </c>
-      <c r="F369">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="370" spans="1:6">
-      <c r="A370" s="1">
-        <v>368</v>
-      </c>
-      <c r="B370">
-        <v>4.47</v>
-      </c>
-      <c r="C370">
-        <v>4.47</v>
-      </c>
-      <c r="D370">
-        <v>4.66</v>
-      </c>
-      <c r="E370">
-        <v>4.66</v>
-      </c>
-      <c r="F370">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="371" spans="1:6">
-      <c r="A371" s="1">
-        <v>369</v>
-      </c>
-      <c r="B371">
-        <v>4.47</v>
-      </c>
-      <c r="C371">
-        <v>4.47</v>
-      </c>
-      <c r="D371">
-        <v>4.66</v>
-      </c>
-      <c r="E371">
-        <v>4.66</v>
-      </c>
-      <c r="F371">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="372" spans="1:6">
-      <c r="A372" s="1">
-        <v>370</v>
-      </c>
-      <c r="B372">
-        <v>4.47</v>
-      </c>
-      <c r="C372">
-        <v>4.47</v>
-      </c>
-      <c r="D372">
-        <v>4.66</v>
-      </c>
-      <c r="E372">
-        <v>4.66</v>
-      </c>
-      <c r="F372">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="373" spans="1:6">
-      <c r="A373" s="1">
-        <v>371</v>
-      </c>
-      <c r="B373">
-        <v>4.47</v>
-      </c>
-      <c r="C373">
-        <v>4.47</v>
-      </c>
-      <c r="D373">
-        <v>4.66</v>
-      </c>
-      <c r="E373">
-        <v>4.66</v>
-      </c>
-      <c r="F373">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="374" spans="1:6">
-      <c r="A374" s="1">
-        <v>372</v>
-      </c>
-      <c r="B374">
-        <v>4.47</v>
-      </c>
-      <c r="C374">
-        <v>4.47</v>
-      </c>
-      <c r="D374">
-        <v>4.66</v>
-      </c>
-      <c r="E374">
-        <v>4.66</v>
-      </c>
-      <c r="F374">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="375" spans="1:6">
-      <c r="A375" s="1">
-        <v>373</v>
-      </c>
-      <c r="B375">
-        <v>4.47</v>
-      </c>
-      <c r="C375">
-        <v>4.47</v>
-      </c>
-      <c r="D375">
-        <v>4.66</v>
-      </c>
-      <c r="E375">
-        <v>4.66</v>
-      </c>
-      <c r="F375">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="376" spans="1:6">
-      <c r="A376" s="1">
-        <v>374</v>
-      </c>
-      <c r="B376">
-        <v>4.47</v>
-      </c>
-      <c r="C376">
-        <v>4.47</v>
-      </c>
-      <c r="D376">
-        <v>4.66</v>
-      </c>
-      <c r="E376">
-        <v>4.66</v>
-      </c>
-      <c r="F376">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="377" spans="1:6">
-      <c r="A377" s="1">
-        <v>375</v>
-      </c>
-      <c r="B377">
-        <v>4.47</v>
-      </c>
-      <c r="C377">
-        <v>4.47</v>
-      </c>
-      <c r="D377">
-        <v>4.66</v>
-      </c>
-      <c r="E377">
-        <v>4.66</v>
-      </c>
-      <c r="F377">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="378" spans="1:6">
-      <c r="A378" s="1">
-        <v>376</v>
-      </c>
-      <c r="B378">
-        <v>4.47</v>
-      </c>
-      <c r="C378">
-        <v>4.47</v>
-      </c>
-      <c r="D378">
-        <v>4.66</v>
-      </c>
-      <c r="E378">
-        <v>4.66</v>
-      </c>
-      <c r="F378">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="379" spans="1:6">
-      <c r="A379" s="1">
-        <v>377</v>
-      </c>
-      <c r="B379">
-        <v>4.47</v>
-      </c>
-      <c r="C379">
-        <v>4.47</v>
-      </c>
-      <c r="D379">
-        <v>4.66</v>
-      </c>
-      <c r="E379">
-        <v>4.66</v>
-      </c>
-      <c r="F379">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="380" spans="1:6">
-      <c r="A380" s="1">
-        <v>378</v>
-      </c>
-      <c r="B380">
-        <v>4.47</v>
-      </c>
-      <c r="C380">
-        <v>4.47</v>
-      </c>
-      <c r="D380">
-        <v>4.66</v>
-      </c>
-      <c r="E380">
-        <v>4.66</v>
-      </c>
-      <c r="F380">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="381" spans="1:6">
-      <c r="A381" s="1">
-        <v>379</v>
-      </c>
-      <c r="B381">
-        <v>4.47</v>
-      </c>
-      <c r="C381">
-        <v>4.47</v>
-      </c>
-      <c r="D381">
-        <v>4.66</v>
-      </c>
-      <c r="E381">
-        <v>4.66</v>
-      </c>
-      <c r="F381">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="382" spans="1:6">
-      <c r="A382" s="1">
-        <v>380</v>
-      </c>
-      <c r="B382">
-        <v>4.47</v>
-      </c>
-      <c r="C382">
-        <v>4.47</v>
-      </c>
-      <c r="D382">
-        <v>4.66</v>
-      </c>
-      <c r="E382">
-        <v>4.66</v>
-      </c>
-      <c r="F382">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="383" spans="1:6">
-      <c r="A383" s="1">
-        <v>381</v>
-      </c>
-      <c r="B383">
-        <v>4.47</v>
-      </c>
-      <c r="C383">
-        <v>4.47</v>
-      </c>
-      <c r="D383">
-        <v>4.66</v>
-      </c>
-      <c r="E383">
-        <v>4.66</v>
-      </c>
-      <c r="F383">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="384" spans="1:6">
-      <c r="A384" s="1">
-        <v>382</v>
-      </c>
-      <c r="B384">
-        <v>4.47</v>
-      </c>
-      <c r="C384">
-        <v>4.47</v>
-      </c>
-      <c r="D384">
-        <v>4.66</v>
-      </c>
-      <c r="E384">
-        <v>4.66</v>
-      </c>
-      <c r="F384">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="385" spans="1:6">
-      <c r="A385" s="1">
-        <v>383</v>
-      </c>
-      <c r="B385">
-        <v>4.47</v>
-      </c>
-      <c r="C385">
-        <v>4.47</v>
-      </c>
-      <c r="D385">
-        <v>4.66</v>
-      </c>
-      <c r="E385">
-        <v>4.66</v>
-      </c>
-      <c r="F385">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="386" spans="1:6">
-      <c r="A386" s="1">
-        <v>384</v>
-      </c>
-      <c r="B386">
-        <v>4.47</v>
-      </c>
-      <c r="C386">
-        <v>4.47</v>
-      </c>
-      <c r="D386">
-        <v>4.66</v>
-      </c>
-      <c r="E386">
-        <v>4.66</v>
-      </c>
-      <c r="F386">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="387" spans="1:6">
-      <c r="A387" s="1">
-        <v>385</v>
-      </c>
-      <c r="B387">
-        <v>4.47</v>
-      </c>
-      <c r="C387">
-        <v>4.47</v>
-      </c>
-      <c r="D387">
-        <v>4.66</v>
-      </c>
-      <c r="E387">
-        <v>4.66</v>
-      </c>
-      <c r="F387">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="388" spans="1:6">
-      <c r="A388" s="1">
-        <v>386</v>
-      </c>
-      <c r="B388">
-        <v>4.47</v>
-      </c>
-      <c r="C388">
-        <v>4.47</v>
-      </c>
-      <c r="D388">
-        <v>4.66</v>
-      </c>
-      <c r="E388">
-        <v>4.66</v>
-      </c>
-      <c r="F388">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="389" spans="1:6">
-      <c r="A389" s="1">
-        <v>387</v>
-      </c>
-      <c r="B389">
-        <v>4.47</v>
-      </c>
-      <c r="C389">
-        <v>4.47</v>
-      </c>
-      <c r="D389">
-        <v>4.66</v>
-      </c>
-      <c r="E389">
-        <v>4.66</v>
-      </c>
-      <c r="F389">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="390" spans="1:6">
-      <c r="A390" s="1">
-        <v>388</v>
-      </c>
-      <c r="B390">
-        <v>4.47</v>
-      </c>
-      <c r="C390">
-        <v>4.47</v>
-      </c>
-      <c r="D390">
-        <v>4.66</v>
-      </c>
-      <c r="E390">
-        <v>4.66</v>
-      </c>
-      <c r="F390">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="391" spans="1:6">
-      <c r="A391" s="1">
-        <v>389</v>
-      </c>
-      <c r="B391">
-        <v>4.47</v>
-      </c>
-      <c r="C391">
-        <v>4.47</v>
-      </c>
-      <c r="D391">
-        <v>4.66</v>
-      </c>
-      <c r="E391">
-        <v>4.66</v>
-      </c>
-      <c r="F391">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="392" spans="1:6">
-      <c r="A392" s="1">
-        <v>390</v>
-      </c>
-      <c r="B392">
-        <v>4.47</v>
-      </c>
-      <c r="C392">
-        <v>4.47</v>
-      </c>
-      <c r="D392">
-        <v>4.66</v>
-      </c>
-      <c r="E392">
-        <v>4.66</v>
-      </c>
-      <c r="F392">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="393" spans="1:6">
-      <c r="A393" s="1">
-        <v>391</v>
-      </c>
-      <c r="B393">
-        <v>4.47</v>
-      </c>
-      <c r="C393">
-        <v>4.47</v>
-      </c>
-      <c r="D393">
-        <v>4.66</v>
-      </c>
-      <c r="E393">
-        <v>4.66</v>
-      </c>
-      <c r="F393">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="394" spans="1:6">
-      <c r="A394" s="1">
-        <v>392</v>
-      </c>
-      <c r="B394">
-        <v>4.47</v>
-      </c>
-      <c r="C394">
-        <v>4.47</v>
-      </c>
-      <c r="D394">
-        <v>4.66</v>
-      </c>
-      <c r="E394">
-        <v>4.66</v>
-      </c>
-      <c r="F394">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="395" spans="1:6">
-      <c r="A395" s="1">
-        <v>393</v>
-      </c>
-      <c r="B395">
-        <v>4.47</v>
-      </c>
-      <c r="C395">
-        <v>4.47</v>
-      </c>
-      <c r="D395">
-        <v>4.66</v>
-      </c>
-      <c r="E395">
-        <v>4.66</v>
-      </c>
-      <c r="F395">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="396" spans="1:6">
-      <c r="A396" s="1">
-        <v>394</v>
-      </c>
-      <c r="B396">
-        <v>4.47</v>
-      </c>
-      <c r="C396">
-        <v>4.47</v>
-      </c>
-      <c r="D396">
-        <v>4.66</v>
-      </c>
-      <c r="E396">
-        <v>4.66</v>
-      </c>
-      <c r="F396">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="397" spans="1:6">
-      <c r="A397" s="1">
-        <v>395</v>
-      </c>
-      <c r="B397">
-        <v>4.47</v>
-      </c>
-      <c r="C397">
-        <v>4.47</v>
-      </c>
-      <c r="D397">
-        <v>4.66</v>
-      </c>
-      <c r="E397">
-        <v>4.66</v>
-      </c>
-      <c r="F397">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="398" spans="1:6">
-      <c r="A398" s="1">
-        <v>396</v>
-      </c>
-      <c r="B398">
-        <v>4.47</v>
-      </c>
-      <c r="C398">
-        <v>4.47</v>
-      </c>
-      <c r="D398">
-        <v>4.66</v>
-      </c>
-      <c r="E398">
-        <v>4.66</v>
-      </c>
-      <c r="F398">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="399" spans="1:6">
-      <c r="A399" s="1">
-        <v>397</v>
-      </c>
-      <c r="B399">
-        <v>4.47</v>
-      </c>
-      <c r="C399">
-        <v>4.47</v>
-      </c>
-      <c r="D399">
-        <v>4.66</v>
-      </c>
-      <c r="E399">
-        <v>4.66</v>
-      </c>
-      <c r="F399">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="400" spans="1:6">
-      <c r="A400" s="1">
-        <v>398</v>
-      </c>
-      <c r="B400">
-        <v>4.47</v>
-      </c>
-      <c r="C400">
-        <v>4.47</v>
-      </c>
-      <c r="D400">
-        <v>4.66</v>
-      </c>
-      <c r="E400">
-        <v>4.66</v>
-      </c>
-      <c r="F400">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="401" spans="1:6">
-      <c r="A401" s="1">
-        <v>399</v>
-      </c>
-      <c r="B401">
-        <v>4.47</v>
-      </c>
-      <c r="C401">
-        <v>4.47</v>
-      </c>
-      <c r="D401">
-        <v>4.66</v>
-      </c>
-      <c r="E401">
-        <v>4.66</v>
-      </c>
-      <c r="F401">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="402" spans="1:6">
-      <c r="A402" s="1">
-        <v>400</v>
-      </c>
-      <c r="B402">
-        <v>4.47</v>
-      </c>
-      <c r="C402">
-        <v>4.47</v>
-      </c>
-      <c r="D402">
-        <v>4.66</v>
-      </c>
-      <c r="E402">
-        <v>4.66</v>
-      </c>
-      <c r="F402">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="403" spans="1:6">
-      <c r="A403" s="1">
-        <v>401</v>
-      </c>
-      <c r="B403">
-        <v>4.47</v>
-      </c>
-      <c r="C403">
-        <v>4.47</v>
-      </c>
-      <c r="D403">
-        <v>4.66</v>
-      </c>
-      <c r="E403">
-        <v>4.66</v>
-      </c>
-      <c r="F403">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="404" spans="1:6">
-      <c r="A404" s="1">
-        <v>402</v>
-      </c>
-      <c r="B404">
-        <v>4.47</v>
-      </c>
-      <c r="C404">
-        <v>4.47</v>
-      </c>
-      <c r="D404">
-        <v>4.66</v>
-      </c>
-      <c r="E404">
-        <v>4.66</v>
-      </c>
-      <c r="F404">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="405" spans="1:6">
-      <c r="A405" s="1">
-        <v>403</v>
-      </c>
-      <c r="B405">
-        <v>4.47</v>
-      </c>
-      <c r="C405">
-        <v>4.47</v>
-      </c>
-      <c r="D405">
-        <v>4.66</v>
-      </c>
-      <c r="E405">
-        <v>4.66</v>
-      </c>
-      <c r="F405">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="406" spans="1:6">
-      <c r="A406" s="1">
-        <v>404</v>
-      </c>
-      <c r="B406">
-        <v>4.47</v>
-      </c>
-      <c r="C406">
-        <v>4.47</v>
-      </c>
-      <c r="D406">
-        <v>4.66</v>
-      </c>
-      <c r="E406">
-        <v>4.66</v>
-      </c>
-      <c r="F406">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="407" spans="1:6">
-      <c r="A407" s="1">
-        <v>405</v>
-      </c>
-      <c r="B407">
-        <v>4.47</v>
-      </c>
-      <c r="C407">
-        <v>4.47</v>
-      </c>
-      <c r="D407">
-        <v>4.66</v>
-      </c>
-      <c r="E407">
-        <v>4.66</v>
-      </c>
-      <c r="F407">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="408" spans="1:6">
-      <c r="A408" s="1">
-        <v>406</v>
-      </c>
-      <c r="B408">
-        <v>4.47</v>
-      </c>
-      <c r="C408">
-        <v>4.47</v>
-      </c>
-      <c r="D408">
-        <v>4.66</v>
-      </c>
-      <c r="E408">
-        <v>4.66</v>
-      </c>
-      <c r="F408">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="409" spans="1:6">
-      <c r="A409" s="1">
-        <v>407</v>
-      </c>
-      <c r="B409">
-        <v>4.47</v>
-      </c>
-      <c r="C409">
-        <v>4.47</v>
-      </c>
-      <c r="D409">
-        <v>4.66</v>
-      </c>
-      <c r="E409">
-        <v>4.66</v>
-      </c>
-      <c r="F409">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="410" spans="1:6">
-      <c r="A410" s="1">
-        <v>408</v>
-      </c>
-      <c r="B410">
-        <v>4.47</v>
-      </c>
-      <c r="C410">
-        <v>4.47</v>
-      </c>
-      <c r="D410">
-        <v>4.66</v>
-      </c>
-      <c r="E410">
-        <v>4.66</v>
-      </c>
-      <c r="F410">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="411" spans="1:6">
-      <c r="A411" s="1">
-        <v>409</v>
-      </c>
-      <c r="B411">
-        <v>4.47</v>
-      </c>
-      <c r="C411">
-        <v>4.47</v>
-      </c>
-      <c r="D411">
-        <v>4.66</v>
-      </c>
-      <c r="E411">
-        <v>4.66</v>
-      </c>
-      <c r="F411">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="412" spans="1:6">
-      <c r="A412" s="1">
-        <v>410</v>
-      </c>
-      <c r="B412">
-        <v>4.47</v>
-      </c>
-      <c r="C412">
-        <v>4.47</v>
-      </c>
-      <c r="D412">
-        <v>4.66</v>
-      </c>
-      <c r="E412">
-        <v>4.66</v>
-      </c>
-      <c r="F412">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="413" spans="1:6">
-      <c r="A413" s="1">
-        <v>411</v>
-      </c>
-      <c r="B413">
-        <v>4.47</v>
-      </c>
-      <c r="C413">
-        <v>4.47</v>
-      </c>
-      <c r="D413">
-        <v>4.66</v>
-      </c>
-      <c r="E413">
-        <v>4.66</v>
-      </c>
-      <c r="F413">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="414" spans="1:6">
-      <c r="A414" s="1">
-        <v>412</v>
-      </c>
-      <c r="B414">
-        <v>4.47</v>
-      </c>
-      <c r="C414">
-        <v>4.47</v>
-      </c>
-      <c r="D414">
-        <v>4.66</v>
-      </c>
-      <c r="E414">
-        <v>4.66</v>
-      </c>
-      <c r="F414">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="415" spans="1:6">
-      <c r="A415" s="1">
-        <v>413</v>
-      </c>
-      <c r="B415">
-        <v>4.47</v>
-      </c>
-      <c r="C415">
-        <v>4.47</v>
-      </c>
-      <c r="D415">
-        <v>4.66</v>
-      </c>
-      <c r="E415">
-        <v>4.66</v>
-      </c>
-      <c r="F415">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="416" spans="1:6">
-      <c r="A416" s="1">
-        <v>414</v>
-      </c>
-      <c r="B416">
-        <v>4.47</v>
-      </c>
-      <c r="C416">
-        <v>4.47</v>
-      </c>
-      <c r="D416">
-        <v>4.66</v>
-      </c>
-      <c r="E416">
-        <v>4.66</v>
-      </c>
-      <c r="F416">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="417" spans="1:6">
-      <c r="A417" s="1">
-        <v>415</v>
-      </c>
-      <c r="B417">
-        <v>4.47</v>
-      </c>
-      <c r="C417">
-        <v>4.47</v>
-      </c>
-      <c r="D417">
-        <v>4.66</v>
-      </c>
-      <c r="E417">
-        <v>4.66</v>
-      </c>
-      <c r="F417">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="418" spans="1:6">
-      <c r="A418" s="1">
-        <v>416</v>
-      </c>
-      <c r="B418">
-        <v>4.47</v>
-      </c>
-      <c r="C418">
-        <v>4.47</v>
-      </c>
-      <c r="D418">
-        <v>4.66</v>
-      </c>
-      <c r="E418">
-        <v>4.66</v>
-      </c>
-      <c r="F418">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="419" spans="1:6">
-      <c r="A419" s="1">
-        <v>417</v>
-      </c>
-      <c r="B419">
-        <v>4.47</v>
-      </c>
-      <c r="C419">
-        <v>4.47</v>
-      </c>
-      <c r="D419">
-        <v>4.66</v>
-      </c>
-      <c r="E419">
-        <v>4.66</v>
-      </c>
-      <c r="F419">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="420" spans="1:6">
-      <c r="A420" s="1">
-        <v>418</v>
-      </c>
-      <c r="B420">
-        <v>4.47</v>
-      </c>
-      <c r="C420">
-        <v>4.47</v>
-      </c>
-      <c r="D420">
-        <v>4.66</v>
-      </c>
-      <c r="E420">
-        <v>4.66</v>
-      </c>
-      <c r="F420">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="421" spans="1:6">
-      <c r="A421" s="1">
-        <v>419</v>
-      </c>
-      <c r="B421">
-        <v>4.47</v>
-      </c>
-      <c r="C421">
-        <v>4.47</v>
-      </c>
-      <c r="D421">
-        <v>4.66</v>
-      </c>
-      <c r="E421">
-        <v>4.66</v>
-      </c>
-      <c r="F421">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="422" spans="1:6">
-      <c r="A422" s="1">
-        <v>420</v>
-      </c>
-      <c r="B422">
-        <v>4.47</v>
-      </c>
-      <c r="C422">
-        <v>4.47</v>
-      </c>
-      <c r="D422">
-        <v>4.66</v>
-      </c>
-      <c r="E422">
-        <v>4.66</v>
-      </c>
-      <c r="F422">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="423" spans="1:6">
-      <c r="A423" s="1">
-        <v>421</v>
-      </c>
-      <c r="B423">
-        <v>4.47</v>
-      </c>
-      <c r="C423">
-        <v>4.47</v>
-      </c>
-      <c r="D423">
-        <v>4.66</v>
-      </c>
-      <c r="E423">
-        <v>4.66</v>
-      </c>
-      <c r="F423">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="424" spans="1:6">
-      <c r="A424" s="1">
-        <v>422</v>
-      </c>
-      <c r="B424">
-        <v>4.47</v>
-      </c>
-      <c r="C424">
-        <v>4.47</v>
-      </c>
-      <c r="D424">
-        <v>4.66</v>
-      </c>
-      <c r="E424">
-        <v>4.66</v>
-      </c>
-      <c r="F424">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="425" spans="1:6">
-      <c r="A425" s="1">
-        <v>423</v>
-      </c>
-      <c r="B425">
-        <v>4.47</v>
-      </c>
-      <c r="C425">
-        <v>4.47</v>
-      </c>
-      <c r="D425">
-        <v>4.66</v>
-      </c>
-      <c r="E425">
-        <v>4.66</v>
-      </c>
-      <c r="F425">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="426" spans="1:6">
-      <c r="A426" s="1">
-        <v>424</v>
-      </c>
-      <c r="B426">
-        <v>4.47</v>
-      </c>
-      <c r="C426">
-        <v>4.47</v>
-      </c>
-      <c r="D426">
-        <v>4.66</v>
-      </c>
-      <c r="E426">
-        <v>4.66</v>
-      </c>
-      <c r="F426">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="427" spans="1:6">
-      <c r="A427" s="1">
-        <v>425</v>
-      </c>
-      <c r="B427">
-        <v>4.47</v>
-      </c>
-      <c r="C427">
-        <v>4.47</v>
-      </c>
-      <c r="D427">
-        <v>4.66</v>
-      </c>
-      <c r="E427">
-        <v>4.66</v>
-      </c>
-      <c r="F427">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="428" spans="1:6">
-      <c r="A428" s="1">
-        <v>426</v>
-      </c>
-      <c r="B428">
-        <v>4.47</v>
-      </c>
-      <c r="C428">
-        <v>4.47</v>
-      </c>
-      <c r="D428">
-        <v>4.66</v>
-      </c>
-      <c r="E428">
-        <v>4.66</v>
-      </c>
-      <c r="F428">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="429" spans="1:6">
-      <c r="A429" s="1">
-        <v>427</v>
-      </c>
-      <c r="B429">
-        <v>4.47</v>
-      </c>
-      <c r="C429">
-        <v>4.47</v>
-      </c>
-      <c r="D429">
-        <v>4.66</v>
-      </c>
-      <c r="E429">
-        <v>4.66</v>
-      </c>
-      <c r="F429">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="430" spans="1:6">
-      <c r="A430" s="1">
-        <v>428</v>
-      </c>
-      <c r="B430">
-        <v>4.47</v>
-      </c>
-      <c r="C430">
-        <v>4.47</v>
-      </c>
-      <c r="D430">
-        <v>4.66</v>
-      </c>
-      <c r="E430">
-        <v>4.66</v>
-      </c>
-      <c r="F430">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="431" spans="1:6">
-      <c r="A431" s="1">
-        <v>429</v>
-      </c>
-      <c r="B431">
-        <v>4.47</v>
-      </c>
-      <c r="C431">
-        <v>4.47</v>
-      </c>
-      <c r="D431">
-        <v>4.66</v>
-      </c>
-      <c r="E431">
-        <v>4.66</v>
-      </c>
-      <c r="F431">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="432" spans="1:6">
-      <c r="A432" s="1">
-        <v>430</v>
-      </c>
-      <c r="B432">
-        <v>4.47</v>
-      </c>
-      <c r="C432">
-        <v>4.47</v>
-      </c>
-      <c r="D432">
-        <v>4.66</v>
-      </c>
-      <c r="E432">
-        <v>4.66</v>
-      </c>
-      <c r="F432">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="433" spans="1:6">
-      <c r="A433" s="1">
-        <v>431</v>
-      </c>
-      <c r="B433">
-        <v>4.47</v>
-      </c>
-      <c r="C433">
-        <v>4.47</v>
-      </c>
-      <c r="D433">
-        <v>4.66</v>
-      </c>
-      <c r="E433">
-        <v>4.66</v>
-      </c>
-      <c r="F433">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="434" spans="1:6">
-      <c r="A434" s="1">
-        <v>432</v>
-      </c>
-      <c r="B434">
-        <v>4.47</v>
-      </c>
-      <c r="C434">
-        <v>4.47</v>
-      </c>
-      <c r="D434">
-        <v>4.66</v>
-      </c>
-      <c r="E434">
-        <v>4.66</v>
-      </c>
-      <c r="F434">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="435" spans="1:6">
-      <c r="A435" s="1">
-        <v>433</v>
-      </c>
-      <c r="B435">
-        <v>4.47</v>
-      </c>
-      <c r="C435">
-        <v>4.47</v>
-      </c>
-      <c r="D435">
-        <v>4.66</v>
-      </c>
-      <c r="E435">
-        <v>4.66</v>
-      </c>
-      <c r="F435">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="436" spans="1:6">
-      <c r="A436" s="1">
-        <v>434</v>
-      </c>
-      <c r="B436">
-        <v>4.47</v>
-      </c>
-      <c r="C436">
-        <v>4.47</v>
-      </c>
-      <c r="D436">
-        <v>4.66</v>
-      </c>
-      <c r="E436">
-        <v>4.66</v>
-      </c>
-      <c r="F436">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="437" spans="1:6">
-      <c r="A437" s="1">
-        <v>435</v>
-      </c>
-      <c r="B437">
-        <v>4.47</v>
-      </c>
-      <c r="C437">
-        <v>4.47</v>
-      </c>
-      <c r="D437">
-        <v>4.66</v>
-      </c>
-      <c r="E437">
-        <v>4.66</v>
-      </c>
-      <c r="F437">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="438" spans="1:6">
-      <c r="A438" s="1">
-        <v>436</v>
-      </c>
-      <c r="B438">
-        <v>4.47</v>
-      </c>
-      <c r="C438">
-        <v>4.47</v>
-      </c>
-      <c r="D438">
-        <v>4.66</v>
-      </c>
-      <c r="E438">
-        <v>4.66</v>
-      </c>
-      <c r="F438">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="439" spans="1:6">
-      <c r="A439" s="1">
-        <v>437</v>
-      </c>
-      <c r="B439">
-        <v>4.47</v>
-      </c>
-      <c r="C439">
-        <v>4.47</v>
-      </c>
-      <c r="D439">
-        <v>4.66</v>
-      </c>
-      <c r="E439">
-        <v>4.66</v>
-      </c>
-      <c r="F439">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="440" spans="1:6">
-      <c r="A440" s="1">
-        <v>438</v>
-      </c>
-      <c r="B440">
-        <v>4.47</v>
-      </c>
-      <c r="C440">
-        <v>4.47</v>
-      </c>
-      <c r="D440">
-        <v>4.66</v>
-      </c>
-      <c r="E440">
-        <v>4.66</v>
-      </c>
-      <c r="F440">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="441" spans="1:6">
-      <c r="A441" s="1">
-        <v>439</v>
-      </c>
-      <c r="B441">
-        <v>4.47</v>
-      </c>
-      <c r="C441">
-        <v>4.47</v>
-      </c>
-      <c r="D441">
-        <v>4.66</v>
-      </c>
-      <c r="E441">
-        <v>4.66</v>
-      </c>
-      <c r="F441">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="442" spans="1:6">
-      <c r="A442" s="1">
-        <v>440</v>
-      </c>
-      <c r="B442">
-        <v>4.47</v>
-      </c>
-      <c r="C442">
-        <v>4.47</v>
-      </c>
-      <c r="D442">
-        <v>4.66</v>
-      </c>
-      <c r="E442">
-        <v>4.66</v>
-      </c>
-      <c r="F442">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="443" spans="1:6">
-      <c r="A443" s="1">
-        <v>441</v>
-      </c>
-      <c r="B443">
-        <v>4.47</v>
-      </c>
-      <c r="C443">
-        <v>4.47</v>
-      </c>
-      <c r="D443">
-        <v>4.66</v>
-      </c>
-      <c r="E443">
-        <v>4.66</v>
-      </c>
-      <c r="F443">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="444" spans="1:6">
-      <c r="A444" s="1">
-        <v>442</v>
-      </c>
-      <c r="B444">
-        <v>4.47</v>
-      </c>
-      <c r="C444">
-        <v>4.47</v>
-      </c>
-      <c r="D444">
-        <v>4.66</v>
-      </c>
-      <c r="E444">
-        <v>4.66</v>
-      </c>
-      <c r="F444">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="445" spans="1:6">
-      <c r="A445" s="1">
-        <v>443</v>
-      </c>
-      <c r="B445">
-        <v>4.47</v>
-      </c>
-      <c r="C445">
-        <v>4.47</v>
-      </c>
-      <c r="D445">
-        <v>4.66</v>
-      </c>
-      <c r="E445">
-        <v>4.66</v>
-      </c>
-      <c r="F445">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="446" spans="1:6">
-      <c r="A446" s="1">
-        <v>444</v>
-      </c>
-      <c r="B446">
-        <v>4.47</v>
-      </c>
-      <c r="C446">
-        <v>4.47</v>
-      </c>
-      <c r="D446">
-        <v>4.66</v>
-      </c>
-      <c r="E446">
-        <v>4.66</v>
-      </c>
-      <c r="F446">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="447" spans="1:6">
-      <c r="A447" s="1">
-        <v>445</v>
-      </c>
-      <c r="B447">
-        <v>4.47</v>
-      </c>
-      <c r="C447">
-        <v>4.47</v>
-      </c>
-      <c r="D447">
-        <v>4.66</v>
-      </c>
-      <c r="E447">
-        <v>4.66</v>
-      </c>
-      <c r="F447">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="448" spans="1:6">
-      <c r="A448" s="1">
-        <v>446</v>
-      </c>
-      <c r="B448">
-        <v>4.47</v>
-      </c>
-      <c r="C448">
-        <v>4.47</v>
-      </c>
-      <c r="D448">
-        <v>4.66</v>
-      </c>
-      <c r="E448">
-        <v>4.66</v>
-      </c>
-      <c r="F448">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="449" spans="1:6">
-      <c r="A449" s="1">
-        <v>447</v>
-      </c>
-      <c r="B449">
-        <v>4.47</v>
-      </c>
-      <c r="C449">
-        <v>4.47</v>
-      </c>
-      <c r="D449">
-        <v>4.66</v>
-      </c>
-      <c r="E449">
-        <v>4.66</v>
-      </c>
-      <c r="F449">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="450" spans="1:6">
-      <c r="A450" s="1">
-        <v>448</v>
-      </c>
-      <c r="B450">
-        <v>4.47</v>
-      </c>
-      <c r="C450">
-        <v>4.47</v>
-      </c>
-      <c r="D450">
-        <v>4.66</v>
-      </c>
-      <c r="E450">
-        <v>4.66</v>
-      </c>
-      <c r="F450">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="451" spans="1:6">
-      <c r="A451" s="1">
-        <v>449</v>
-      </c>
-      <c r="B451">
-        <v>4.47</v>
-      </c>
-      <c r="C451">
-        <v>4.47</v>
-      </c>
-      <c r="D451">
-        <v>4.66</v>
-      </c>
-      <c r="E451">
-        <v>4.66</v>
-      </c>
-      <c r="F451">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="452" spans="1:6">
-      <c r="A452" s="1">
-        <v>450</v>
-      </c>
-      <c r="B452">
-        <v>4.47</v>
-      </c>
-      <c r="C452">
-        <v>4.47</v>
-      </c>
-      <c r="D452">
-        <v>4.66</v>
-      </c>
-      <c r="E452">
-        <v>4.66</v>
-      </c>
-      <c r="F452">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="453" spans="1:6">
-      <c r="A453" s="1">
-        <v>451</v>
-      </c>
-      <c r="B453">
-        <v>4.47</v>
-      </c>
-      <c r="C453">
-        <v>4.47</v>
-      </c>
-      <c r="D453">
-        <v>4.66</v>
-      </c>
-      <c r="E453">
-        <v>4.66</v>
-      </c>
-      <c r="F453">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="454" spans="1:6">
-      <c r="A454" s="1">
-        <v>452</v>
-      </c>
-      <c r="B454">
-        <v>4.47</v>
-      </c>
-      <c r="C454">
-        <v>4.47</v>
-      </c>
-      <c r="D454">
-        <v>4.66</v>
-      </c>
-      <c r="E454">
-        <v>4.66</v>
-      </c>
-      <c r="F454">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="455" spans="1:6">
-      <c r="A455" s="1">
-        <v>453</v>
-      </c>
-      <c r="B455">
-        <v>4.47</v>
-      </c>
-      <c r="C455">
-        <v>4.47</v>
-      </c>
-      <c r="D455">
-        <v>4.66</v>
-      </c>
-      <c r="E455">
-        <v>4.66</v>
-      </c>
-      <c r="F455">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="456" spans="1:6">
-      <c r="A456" s="1">
-        <v>454</v>
-      </c>
-      <c r="B456">
-        <v>4.47</v>
-      </c>
-      <c r="C456">
-        <v>4.47</v>
-      </c>
-      <c r="D456">
-        <v>4.66</v>
-      </c>
-      <c r="E456">
-        <v>4.66</v>
-      </c>
-      <c r="F456">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="457" spans="1:6">
-      <c r="A457" s="1">
-        <v>455</v>
-      </c>
-      <c r="B457">
-        <v>4.47</v>
-      </c>
-      <c r="C457">
-        <v>4.47</v>
-      </c>
-      <c r="D457">
-        <v>4.66</v>
-      </c>
-      <c r="E457">
-        <v>4.66</v>
-      </c>
-      <c r="F457">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="458" spans="1:6">
-      <c r="A458" s="1">
-        <v>456</v>
-      </c>
-      <c r="B458">
-        <v>4.47</v>
-      </c>
-      <c r="C458">
-        <v>4.47</v>
-      </c>
-      <c r="D458">
-        <v>4.66</v>
-      </c>
-      <c r="E458">
-        <v>4.66</v>
-      </c>
-      <c r="F458">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="459" spans="1:6">
-      <c r="A459" s="1">
-        <v>457</v>
-      </c>
-      <c r="B459">
-        <v>4.47</v>
-      </c>
-      <c r="C459">
-        <v>4.47</v>
-      </c>
-      <c r="D459">
-        <v>4.66</v>
-      </c>
-      <c r="E459">
-        <v>4.66</v>
-      </c>
-      <c r="F459">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="460" spans="1:6">
-      <c r="A460" s="1">
-        <v>458</v>
-      </c>
-      <c r="B460">
-        <v>4.47</v>
-      </c>
-      <c r="C460">
-        <v>4.47</v>
-      </c>
-      <c r="D460">
-        <v>4.66</v>
-      </c>
-      <c r="E460">
-        <v>4.66</v>
-      </c>
-      <c r="F460">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="461" spans="1:6">
-      <c r="A461" s="1">
-        <v>459</v>
-      </c>
-      <c r="B461">
-        <v>4.47</v>
-      </c>
-      <c r="C461">
-        <v>4.47</v>
-      </c>
-      <c r="D461">
-        <v>4.66</v>
-      </c>
-      <c r="E461">
-        <v>4.66</v>
-      </c>
-      <c r="F461">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="462" spans="1:6">
-      <c r="A462" s="1">
-        <v>460</v>
-      </c>
-      <c r="B462">
-        <v>4.47</v>
-      </c>
-      <c r="C462">
-        <v>4.47</v>
-      </c>
-      <c r="D462">
-        <v>4.66</v>
-      </c>
-      <c r="E462">
-        <v>4.66</v>
-      </c>
-      <c r="F462">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="463" spans="1:6">
-      <c r="A463" s="1">
-        <v>461</v>
-      </c>
-      <c r="B463">
-        <v>4.47</v>
-      </c>
-      <c r="C463">
-        <v>4.47</v>
-      </c>
-      <c r="D463">
-        <v>4.66</v>
-      </c>
-      <c r="E463">
-        <v>4.66</v>
-      </c>
-      <c r="F463">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="464" spans="1:6">
-      <c r="A464" s="1">
-        <v>462</v>
-      </c>
-      <c r="B464">
-        <v>4.47</v>
-      </c>
-      <c r="C464">
-        <v>4.47</v>
-      </c>
-      <c r="D464">
-        <v>4.66</v>
-      </c>
-      <c r="E464">
-        <v>4.66</v>
-      </c>
-      <c r="F464">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="465" spans="1:6">
-      <c r="A465" s="1">
-        <v>463</v>
-      </c>
-      <c r="B465">
-        <v>4.47</v>
-      </c>
-      <c r="C465">
-        <v>4.47</v>
-      </c>
-      <c r="D465">
-        <v>4.66</v>
-      </c>
-      <c r="E465">
-        <v>4.66</v>
-      </c>
-      <c r="F465">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="466" spans="1:6">
-      <c r="A466" s="1">
-        <v>464</v>
-      </c>
-      <c r="B466">
-        <v>4.47</v>
-      </c>
-      <c r="C466">
-        <v>4.47</v>
-      </c>
-      <c r="D466">
-        <v>4.66</v>
-      </c>
-      <c r="E466">
-        <v>4.66</v>
-      </c>
-      <c r="F466">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="467" spans="1:6">
-      <c r="A467" s="1">
-        <v>465</v>
-      </c>
-      <c r="B467">
-        <v>4.47</v>
-      </c>
-      <c r="C467">
-        <v>4.47</v>
-      </c>
-      <c r="D467">
-        <v>4.66</v>
-      </c>
-      <c r="E467">
-        <v>4.66</v>
-      </c>
-      <c r="F467">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="468" spans="1:6">
-      <c r="A468" s="1">
-        <v>466</v>
-      </c>
-      <c r="B468">
-        <v>4.47</v>
-      </c>
-      <c r="C468">
-        <v>4.47</v>
-      </c>
-      <c r="D468">
-        <v>4.66</v>
-      </c>
-      <c r="E468">
-        <v>4.66</v>
-      </c>
-      <c r="F468">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="469" spans="1:6">
-      <c r="A469" s="1">
-        <v>467</v>
-      </c>
-      <c r="B469">
-        <v>4.47</v>
-      </c>
-      <c r="C469">
-        <v>4.47</v>
-      </c>
-      <c r="D469">
-        <v>4.66</v>
-      </c>
-      <c r="E469">
-        <v>4.66</v>
-      </c>
-      <c r="F469">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="470" spans="1:6">
-      <c r="A470" s="1">
-        <v>468</v>
-      </c>
-      <c r="B470">
-        <v>4.47</v>
-      </c>
-      <c r="C470">
-        <v>4.47</v>
-      </c>
-      <c r="D470">
-        <v>4.66</v>
-      </c>
-      <c r="E470">
-        <v>4.66</v>
-      </c>
-      <c r="F470">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="471" spans="1:6">
-      <c r="A471" s="1">
-        <v>469</v>
-      </c>
-      <c r="B471">
-        <v>4.47</v>
-      </c>
-      <c r="C471">
-        <v>4.47</v>
-      </c>
-      <c r="D471">
-        <v>4.66</v>
-      </c>
-      <c r="E471">
-        <v>4.66</v>
-      </c>
-      <c r="F471">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="472" spans="1:6">
-      <c r="A472" s="1">
-        <v>470</v>
-      </c>
-      <c r="B472">
-        <v>4.47</v>
-      </c>
-      <c r="C472">
-        <v>4.47</v>
-      </c>
-      <c r="D472">
-        <v>4.66</v>
-      </c>
-      <c r="E472">
-        <v>4.66</v>
-      </c>
-      <c r="F472">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="473" spans="1:6">
-      <c r="A473" s="1">
-        <v>471</v>
-      </c>
-      <c r="B473">
-        <v>4.47</v>
-      </c>
-      <c r="C473">
-        <v>4.47</v>
-      </c>
-      <c r="D473">
-        <v>4.66</v>
-      </c>
-      <c r="E473">
-        <v>4.66</v>
-      </c>
-      <c r="F473">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="474" spans="1:6">
-      <c r="A474" s="1">
-        <v>472</v>
-      </c>
-      <c r="B474">
-        <v>4.47</v>
-      </c>
-      <c r="C474">
-        <v>4.47</v>
-      </c>
-      <c r="D474">
-        <v>4.66</v>
-      </c>
-      <c r="E474">
-        <v>4.66</v>
-      </c>
-      <c r="F474">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="475" spans="1:6">
-      <c r="A475" s="1">
-        <v>473</v>
-      </c>
-      <c r="B475">
-        <v>4.47</v>
-      </c>
-      <c r="C475">
-        <v>4.47</v>
-      </c>
-      <c r="D475">
-        <v>4.66</v>
-      </c>
-      <c r="E475">
-        <v>4.66</v>
-      </c>
-      <c r="F475">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="476" spans="1:6">
-      <c r="A476" s="1">
-        <v>474</v>
-      </c>
-      <c r="B476">
-        <v>4.47</v>
-      </c>
-      <c r="C476">
-        <v>4.47</v>
-      </c>
-      <c r="D476">
-        <v>4.66</v>
-      </c>
-      <c r="E476">
-        <v>4.66</v>
-      </c>
-      <c r="F476">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="477" spans="1:6">
-      <c r="A477" s="1">
-        <v>475</v>
-      </c>
-      <c r="B477">
-        <v>4.47</v>
-      </c>
-      <c r="C477">
-        <v>4.47</v>
-      </c>
-      <c r="D477">
-        <v>4.66</v>
-      </c>
-      <c r="E477">
-        <v>4.66</v>
-      </c>
-      <c r="F477">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="478" spans="1:6">
-      <c r="A478" s="1">
-        <v>476</v>
-      </c>
-      <c r="B478">
-        <v>4.47</v>
-      </c>
-      <c r="C478">
-        <v>4.47</v>
-      </c>
-      <c r="D478">
-        <v>4.66</v>
-      </c>
-      <c r="E478">
-        <v>4.66</v>
-      </c>
-      <c r="F478">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="479" spans="1:6">
-      <c r="A479" s="1">
-        <v>477</v>
-      </c>
-      <c r="B479">
-        <v>4.47</v>
-      </c>
-      <c r="C479">
-        <v>4.47</v>
-      </c>
-      <c r="D479">
-        <v>4.66</v>
-      </c>
-      <c r="E479">
-        <v>4.66</v>
-      </c>
-      <c r="F479">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="480" spans="1:6">
-      <c r="A480" s="1">
-        <v>478</v>
-      </c>
-      <c r="B480">
-        <v>4.47</v>
-      </c>
-      <c r="C480">
-        <v>4.47</v>
-      </c>
-      <c r="D480">
-        <v>4.66</v>
-      </c>
-      <c r="E480">
-        <v>4.66</v>
-      </c>
-      <c r="F480">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="481" spans="1:6">
-      <c r="A481" s="1">
-        <v>479</v>
-      </c>
-      <c r="B481">
-        <v>4.47</v>
-      </c>
-      <c r="C481">
-        <v>4.47</v>
-      </c>
-      <c r="D481">
-        <v>4.66</v>
-      </c>
-      <c r="E481">
-        <v>4.66</v>
-      </c>
-      <c r="F481">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="482" spans="1:6">
-      <c r="A482" s="1">
-        <v>480</v>
-      </c>
-      <c r="B482">
-        <v>4.47</v>
-      </c>
-      <c r="C482">
-        <v>4.47</v>
-      </c>
-      <c r="D482">
-        <v>4.66</v>
-      </c>
-      <c r="E482">
-        <v>4.66</v>
-      </c>
-      <c r="F482">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="483" spans="1:6">
-      <c r="A483" s="1">
-        <v>481</v>
-      </c>
-      <c r="B483">
-        <v>4.47</v>
-      </c>
-      <c r="C483">
-        <v>4.47</v>
-      </c>
-      <c r="D483">
-        <v>4.66</v>
-      </c>
-      <c r="E483">
-        <v>4.66</v>
-      </c>
-      <c r="F483">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="484" spans="1:6">
-      <c r="A484" s="1">
-        <v>482</v>
-      </c>
-      <c r="B484">
-        <v>4.47</v>
-      </c>
-      <c r="C484">
-        <v>4.47</v>
-      </c>
-      <c r="D484">
-        <v>4.66</v>
-      </c>
-      <c r="E484">
-        <v>4.66</v>
-      </c>
-      <c r="F484">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="485" spans="1:6">
-      <c r="A485" s="1">
-        <v>483</v>
-      </c>
-      <c r="B485">
-        <v>4.47</v>
-      </c>
-      <c r="C485">
-        <v>4.47</v>
-      </c>
-      <c r="D485">
-        <v>4.66</v>
-      </c>
-      <c r="E485">
-        <v>4.66</v>
-      </c>
-      <c r="F485">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="486" spans="1:6">
-      <c r="A486" s="1">
-        <v>484</v>
-      </c>
-      <c r="B486">
-        <v>4.47</v>
-      </c>
-      <c r="C486">
-        <v>4.47</v>
-      </c>
-      <c r="D486">
-        <v>4.66</v>
-      </c>
-      <c r="E486">
-        <v>4.66</v>
-      </c>
-      <c r="F486">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="487" spans="1:6">
-      <c r="A487" s="1">
-        <v>485</v>
-      </c>
-      <c r="B487">
-        <v>4.47</v>
-      </c>
-      <c r="C487">
-        <v>4.47</v>
-      </c>
-      <c r="D487">
-        <v>4.66</v>
-      </c>
-      <c r="E487">
-        <v>4.66</v>
-      </c>
-      <c r="F487">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="488" spans="1:6">
-      <c r="A488" s="1">
-        <v>486</v>
-      </c>
-      <c r="B488">
-        <v>4.47</v>
-      </c>
-      <c r="C488">
-        <v>4.47</v>
-      </c>
-      <c r="D488">
-        <v>4.66</v>
-      </c>
-      <c r="E488">
-        <v>4.66</v>
-      </c>
-      <c r="F488">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="489" spans="1:6">
-      <c r="A489" s="1">
-        <v>487</v>
-      </c>
-      <c r="B489">
-        <v>4.47</v>
-      </c>
-      <c r="C489">
-        <v>4.47</v>
-      </c>
-      <c r="D489">
-        <v>4.66</v>
-      </c>
-      <c r="E489">
-        <v>4.66</v>
-      </c>
-      <c r="F489">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="490" spans="1:6">
-      <c r="A490" s="1">
-        <v>488</v>
-      </c>
-      <c r="B490">
-        <v>4.47</v>
-      </c>
-      <c r="C490">
-        <v>4.47</v>
-      </c>
-      <c r="D490">
-        <v>4.66</v>
-      </c>
-      <c r="E490">
-        <v>4.66</v>
-      </c>
-      <c r="F490">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="491" spans="1:6">
-      <c r="A491" s="1">
-        <v>489</v>
-      </c>
-      <c r="B491">
-        <v>4.47</v>
-      </c>
-      <c r="C491">
-        <v>4.47</v>
-      </c>
-      <c r="D491">
-        <v>4.66</v>
-      </c>
-      <c r="E491">
-        <v>4.66</v>
-      </c>
-      <c r="F491">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="492" spans="1:6">
-      <c r="A492" s="1">
-        <v>490</v>
-      </c>
-      <c r="B492">
-        <v>4.47</v>
-      </c>
-      <c r="C492">
-        <v>4.47</v>
-      </c>
-      <c r="D492">
-        <v>4.66</v>
-      </c>
-      <c r="E492">
-        <v>4.66</v>
-      </c>
-      <c r="F492">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="493" spans="1:6">
-      <c r="A493" s="1">
-        <v>491</v>
-      </c>
-      <c r="B493">
-        <v>4.47</v>
-      </c>
-      <c r="C493">
-        <v>4.47</v>
-      </c>
-      <c r="D493">
-        <v>4.66</v>
-      </c>
-      <c r="E493">
-        <v>4.66</v>
-      </c>
-      <c r="F493">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="494" spans="1:6">
-      <c r="A494" s="1">
-        <v>492</v>
-      </c>
-      <c r="B494">
-        <v>4.47</v>
-      </c>
-      <c r="C494">
-        <v>4.47</v>
-      </c>
-      <c r="D494">
-        <v>4.66</v>
-      </c>
-      <c r="E494">
-        <v>4.66</v>
-      </c>
-      <c r="F494">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="495" spans="1:6">
-      <c r="A495" s="1">
-        <v>493</v>
-      </c>
-      <c r="B495">
-        <v>4.47</v>
-      </c>
-      <c r="C495">
-        <v>4.47</v>
-      </c>
-      <c r="D495">
-        <v>4.66</v>
-      </c>
-      <c r="E495">
-        <v>4.66</v>
-      </c>
-      <c r="F495">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="496" spans="1:6">
-      <c r="A496" s="1">
-        <v>494</v>
-      </c>
-      <c r="B496">
-        <v>4.47</v>
-      </c>
-      <c r="C496">
-        <v>4.47</v>
-      </c>
-      <c r="D496">
-        <v>4.66</v>
-      </c>
-      <c r="E496">
-        <v>4.66</v>
-      </c>
-      <c r="F496">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="497" spans="1:6">
-      <c r="A497" s="1">
-        <v>495</v>
-      </c>
-      <c r="B497">
-        <v>4.47</v>
-      </c>
-      <c r="C497">
-        <v>4.47</v>
-      </c>
-      <c r="D497">
-        <v>4.66</v>
-      </c>
-      <c r="E497">
-        <v>4.66</v>
-      </c>
-      <c r="F497">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="498" spans="1:6">
-      <c r="A498" s="1">
-        <v>496</v>
-      </c>
-      <c r="B498">
-        <v>4.47</v>
-      </c>
-      <c r="C498">
-        <v>4.47</v>
-      </c>
-      <c r="D498">
-        <v>4.66</v>
-      </c>
-      <c r="E498">
-        <v>4.66</v>
-      </c>
-      <c r="F498">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="499" spans="1:6">
-      <c r="A499" s="1">
-        <v>497</v>
-      </c>
-      <c r="B499">
-        <v>4.47</v>
-      </c>
-      <c r="C499">
-        <v>4.47</v>
-      </c>
-      <c r="D499">
-        <v>4.66</v>
-      </c>
-      <c r="E499">
-        <v>4.66</v>
-      </c>
-      <c r="F499">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="500" spans="1:6">
-      <c r="A500" s="1">
-        <v>498</v>
-      </c>
-      <c r="B500">
-        <v>4.47</v>
-      </c>
-      <c r="C500">
-        <v>4.47</v>
-      </c>
-      <c r="D500">
-        <v>4.66</v>
-      </c>
-      <c r="E500">
-        <v>4.66</v>
-      </c>
-      <c r="F500">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="501" spans="1:6">
-      <c r="A501" s="1">
-        <v>499</v>
-      </c>
-      <c r="B501">
-        <v>4.47</v>
-      </c>
-      <c r="C501">
-        <v>4.47</v>
-      </c>
-      <c r="D501">
-        <v>4.66</v>
-      </c>
-      <c r="E501">
-        <v>4.66</v>
-      </c>
-      <c r="F501">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="502" spans="1:6">
-      <c r="A502" s="1">
-        <v>500</v>
-      </c>
-      <c r="B502">
-        <v>4.47</v>
-      </c>
-      <c r="C502">
-        <v>4.47</v>
-      </c>
-      <c r="D502">
-        <v>4.66</v>
-      </c>
-      <c r="E502">
-        <v>4.66</v>
-      </c>
-      <c r="F502">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="503" spans="1:6">
-      <c r="A503" s="1">
-        <v>501</v>
-      </c>
-      <c r="B503">
-        <v>4.47</v>
-      </c>
-      <c r="C503">
-        <v>4.47</v>
-      </c>
-      <c r="D503">
-        <v>4.66</v>
-      </c>
-      <c r="E503">
-        <v>4.66</v>
-      </c>
-      <c r="F503">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="504" spans="1:6">
-      <c r="A504" s="1">
-        <v>502</v>
-      </c>
-      <c r="B504">
-        <v>4.47</v>
-      </c>
-      <c r="C504">
-        <v>4.47</v>
-      </c>
-      <c r="D504">
-        <v>4.66</v>
-      </c>
-      <c r="E504">
-        <v>4.66</v>
-      </c>
-      <c r="F504">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="505" spans="1:6">
-      <c r="A505" s="1">
-        <v>503</v>
-      </c>
-      <c r="B505">
-        <v>4.47</v>
-      </c>
-      <c r="C505">
-        <v>4.47</v>
-      </c>
-      <c r="D505">
-        <v>4.66</v>
-      </c>
-      <c r="E505">
-        <v>4.66</v>
-      </c>
-      <c r="F505">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="506" spans="1:6">
-      <c r="A506" s="1">
-        <v>504</v>
-      </c>
-      <c r="B506">
-        <v>4.47</v>
-      </c>
-      <c r="C506">
-        <v>4.47</v>
-      </c>
-      <c r="D506">
-        <v>4.66</v>
-      </c>
-      <c r="E506">
-        <v>4.66</v>
-      </c>
-      <c r="F506">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="507" spans="1:6">
-      <c r="A507" s="1">
-        <v>505</v>
-      </c>
-      <c r="B507">
-        <v>4.47</v>
-      </c>
-      <c r="C507">
-        <v>4.47</v>
-      </c>
-      <c r="D507">
-        <v>4.66</v>
-      </c>
-      <c r="E507">
-        <v>4.66</v>
-      </c>
-      <c r="F507">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="508" spans="1:6">
-      <c r="A508" s="1">
-        <v>506</v>
-      </c>
-      <c r="B508">
-        <v>4.47</v>
-      </c>
-      <c r="C508">
-        <v>4.47</v>
-      </c>
-      <c r="D508">
-        <v>4.66</v>
-      </c>
-      <c r="E508">
-        <v>4.66</v>
-      </c>
-      <c r="F508">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="509" spans="1:6">
-      <c r="A509" s="1">
-        <v>507</v>
-      </c>
-      <c r="B509">
-        <v>4.47</v>
-      </c>
-      <c r="C509">
-        <v>4.47</v>
-      </c>
-      <c r="D509">
-        <v>4.66</v>
-      </c>
-      <c r="E509">
-        <v>4.66</v>
-      </c>
-      <c r="F509">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="510" spans="1:6">
-      <c r="A510" s="1">
-        <v>508</v>
-      </c>
-      <c r="B510">
-        <v>4.47</v>
-      </c>
-      <c r="C510">
-        <v>4.47</v>
-      </c>
-      <c r="D510">
-        <v>4.66</v>
-      </c>
-      <c r="E510">
-        <v>4.66</v>
-      </c>
-      <c r="F510">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="511" spans="1:6">
-      <c r="A511" s="1">
-        <v>509</v>
-      </c>
-      <c r="B511">
-        <v>4.47</v>
-      </c>
-      <c r="C511">
-        <v>4.47</v>
-      </c>
-      <c r="D511">
-        <v>4.66</v>
-      </c>
-      <c r="E511">
-        <v>4.66</v>
-      </c>
-      <c r="F511">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="512" spans="1:6">
-      <c r="A512" s="1">
-        <v>510</v>
-      </c>
-      <c r="B512">
-        <v>4.47</v>
-      </c>
-      <c r="C512">
-        <v>4.47</v>
-      </c>
-      <c r="D512">
-        <v>4.66</v>
-      </c>
-      <c r="E512">
-        <v>4.66</v>
-      </c>
-      <c r="F512">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="513" spans="1:6">
-      <c r="A513" s="1">
-        <v>511</v>
-      </c>
-      <c r="B513">
-        <v>4.47</v>
-      </c>
-      <c r="C513">
-        <v>4.47</v>
-      </c>
-      <c r="D513">
-        <v>4.66</v>
-      </c>
-      <c r="E513">
-        <v>4.66</v>
-      </c>
-      <c r="F513">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="514" spans="1:6">
-      <c r="A514" s="1">
-        <v>512</v>
-      </c>
-      <c r="B514">
-        <v>4.47</v>
-      </c>
-      <c r="C514">
-        <v>4.47</v>
-      </c>
-      <c r="D514">
-        <v>4.66</v>
-      </c>
-      <c r="E514">
-        <v>4.66</v>
-      </c>
-      <c r="F514">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="515" spans="1:6">
-      <c r="A515" s="1">
-        <v>513</v>
-      </c>
-      <c r="B515">
-        <v>4.47</v>
-      </c>
-      <c r="C515">
-        <v>4.47</v>
-      </c>
-      <c r="D515">
-        <v>4.66</v>
-      </c>
-      <c r="E515">
-        <v>4.66</v>
-      </c>
-      <c r="F515">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="516" spans="1:6">
-      <c r="A516" s="1">
-        <v>514</v>
-      </c>
-      <c r="B516">
-        <v>4.47</v>
-      </c>
-      <c r="C516">
-        <v>4.47</v>
-      </c>
-      <c r="D516">
-        <v>4.66</v>
-      </c>
-      <c r="E516">
-        <v>4.66</v>
-      </c>
-      <c r="F516">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="517" spans="1:6">
-      <c r="A517" s="1">
-        <v>515</v>
-      </c>
-      <c r="B517">
-        <v>4.47</v>
-      </c>
-      <c r="C517">
-        <v>4.47</v>
-      </c>
-      <c r="D517">
-        <v>4.66</v>
-      </c>
-      <c r="E517">
-        <v>4.66</v>
-      </c>
-      <c r="F517">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="518" spans="1:6">
-      <c r="A518" s="1">
-        <v>516</v>
-      </c>
-      <c r="B518">
-        <v>4.47</v>
-      </c>
-      <c r="C518">
-        <v>4.47</v>
-      </c>
-      <c r="D518">
-        <v>4.66</v>
-      </c>
-      <c r="E518">
-        <v>4.66</v>
-      </c>
-      <c r="F518">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="519" spans="1:6">
-      <c r="A519" s="1">
-        <v>517</v>
-      </c>
-      <c r="B519">
-        <v>4.47</v>
-      </c>
-      <c r="C519">
-        <v>4.47</v>
-      </c>
-      <c r="D519">
-        <v>4.66</v>
-      </c>
-      <c r="E519">
-        <v>4.66</v>
-      </c>
-      <c r="F519">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="520" spans="1:6">
-      <c r="A520" s="1">
-        <v>518</v>
-      </c>
-      <c r="B520">
-        <v>4.47</v>
-      </c>
-      <c r="C520">
-        <v>4.47</v>
-      </c>
-      <c r="D520">
-        <v>4.66</v>
-      </c>
-      <c r="E520">
-        <v>4.66</v>
-      </c>
-      <c r="F520">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="521" spans="1:6">
-      <c r="A521" s="1">
-        <v>519</v>
-      </c>
-      <c r="B521">
-        <v>4.47</v>
-      </c>
-      <c r="C521">
-        <v>4.47</v>
-      </c>
-      <c r="D521">
-        <v>4.66</v>
-      </c>
-      <c r="E521">
-        <v>4.66</v>
-      </c>
-      <c r="F521">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="522" spans="1:6">
-      <c r="A522" s="1">
-        <v>520</v>
-      </c>
-      <c r="B522">
-        <v>4.47</v>
-      </c>
-      <c r="C522">
-        <v>4.47</v>
-      </c>
-      <c r="D522">
-        <v>4.66</v>
-      </c>
-      <c r="E522">
-        <v>4.66</v>
-      </c>
-      <c r="F522">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="523" spans="1:6">
-      <c r="A523" s="1">
-        <v>521</v>
-      </c>
-      <c r="B523">
-        <v>4.47</v>
-      </c>
-      <c r="C523">
-        <v>4.47</v>
-      </c>
-      <c r="D523">
-        <v>4.66</v>
-      </c>
-      <c r="E523">
-        <v>4.66</v>
-      </c>
-      <c r="F523">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="524" spans="1:6">
-      <c r="A524" s="1">
-        <v>522</v>
-      </c>
-      <c r="B524">
-        <v>4.47</v>
-      </c>
-      <c r="C524">
-        <v>4.47</v>
-      </c>
-      <c r="D524">
-        <v>4.66</v>
-      </c>
-      <c r="E524">
-        <v>4.66</v>
-      </c>
-      <c r="F524">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="525" spans="1:6">
-      <c r="A525" s="1">
-        <v>523</v>
-      </c>
-      <c r="B525">
-        <v>4.47</v>
-      </c>
-      <c r="C525">
-        <v>4.47</v>
-      </c>
-      <c r="D525">
-        <v>4.66</v>
-      </c>
-      <c r="E525">
-        <v>4.66</v>
-      </c>
-      <c r="F525">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="526" spans="1:6">
-      <c r="A526" s="1">
-        <v>524</v>
-      </c>
-      <c r="B526">
-        <v>4.47</v>
-      </c>
-      <c r="C526">
-        <v>4.47</v>
-      </c>
-      <c r="D526">
-        <v>4.66</v>
-      </c>
-      <c r="E526">
-        <v>4.66</v>
-      </c>
-      <c r="F526">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="527" spans="1:6">
-      <c r="A527" s="1">
-        <v>525</v>
-      </c>
-      <c r="B527">
-        <v>4.47</v>
-      </c>
-      <c r="C527">
-        <v>4.47</v>
-      </c>
-      <c r="D527">
-        <v>4.66</v>
-      </c>
-      <c r="E527">
-        <v>4.66</v>
-      </c>
-      <c r="F527">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="528" spans="1:6">
-      <c r="A528" s="1">
-        <v>526</v>
-      </c>
-      <c r="B528">
-        <v>4.47</v>
-      </c>
-      <c r="C528">
-        <v>4.47</v>
-      </c>
-      <c r="D528">
-        <v>4.66</v>
-      </c>
-      <c r="E528">
-        <v>4.66</v>
-      </c>
-      <c r="F528">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="529" spans="1:6">
-      <c r="A529" s="1">
-        <v>527</v>
-      </c>
-      <c r="B529">
-        <v>4.47</v>
-      </c>
-      <c r="C529">
-        <v>4.47</v>
-      </c>
-      <c r="D529">
-        <v>4.66</v>
-      </c>
-      <c r="E529">
-        <v>4.66</v>
-      </c>
-      <c r="F529">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="530" spans="1:6">
-      <c r="A530" s="1">
-        <v>528</v>
-      </c>
-      <c r="B530">
-        <v>4.47</v>
-      </c>
-      <c r="C530">
-        <v>4.47</v>
-      </c>
-      <c r="D530">
-        <v>4.66</v>
-      </c>
-      <c r="E530">
-        <v>4.66</v>
-      </c>
-      <c r="F530">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="531" spans="1:6">
-      <c r="A531" s="1">
-        <v>529</v>
-      </c>
-      <c r="B531">
-        <v>4.47</v>
-      </c>
-      <c r="C531">
-        <v>4.47</v>
-      </c>
-      <c r="D531">
-        <v>4.66</v>
-      </c>
-      <c r="E531">
-        <v>4.66</v>
-      </c>
-      <c r="F531">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="532" spans="1:6">
-      <c r="A532" s="1">
-        <v>530</v>
-      </c>
-      <c r="B532">
-        <v>4.47</v>
-      </c>
-      <c r="C532">
-        <v>4.47</v>
-      </c>
-      <c r="D532">
-        <v>4.66</v>
-      </c>
-      <c r="E532">
-        <v>4.66</v>
-      </c>
-      <c r="F532">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="533" spans="1:6">
-      <c r="A533" s="1">
-        <v>531</v>
-      </c>
-      <c r="B533">
-        <v>4.47</v>
-      </c>
-      <c r="C533">
-        <v>4.47</v>
-      </c>
-      <c r="D533">
-        <v>4.66</v>
-      </c>
-      <c r="E533">
-        <v>4.66</v>
-      </c>
-      <c r="F533">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="534" spans="1:6">
-      <c r="A534" s="1">
-        <v>532</v>
-      </c>
-      <c r="B534">
-        <v>4.47</v>
-      </c>
-      <c r="C534">
-        <v>4.47</v>
-      </c>
-      <c r="D534">
-        <v>4.66</v>
-      </c>
-      <c r="E534">
-        <v>4.66</v>
-      </c>
-      <c r="F534">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="535" spans="1:6">
-      <c r="A535" s="1">
-        <v>533</v>
-      </c>
-      <c r="B535">
-        <v>4.47</v>
-      </c>
-      <c r="C535">
-        <v>4.47</v>
-      </c>
-      <c r="D535">
-        <v>4.66</v>
-      </c>
-      <c r="E535">
-        <v>4.66</v>
-      </c>
-      <c r="F535">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="536" spans="1:6">
-      <c r="A536" s="1">
-        <v>534</v>
-      </c>
-      <c r="B536">
-        <v>4.47</v>
-      </c>
-      <c r="C536">
-        <v>4.47</v>
-      </c>
-      <c r="D536">
-        <v>4.66</v>
-      </c>
-      <c r="E536">
-        <v>4.66</v>
-      </c>
-      <c r="F536">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="537" spans="1:6">
-      <c r="A537" s="1">
-        <v>535</v>
-      </c>
-      <c r="B537">
-        <v>4.47</v>
-      </c>
-      <c r="C537">
-        <v>4.47</v>
-      </c>
-      <c r="D537">
-        <v>4.66</v>
-      </c>
-      <c r="E537">
-        <v>4.66</v>
-      </c>
-      <c r="F537">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="538" spans="1:6">
-      <c r="A538" s="1">
-        <v>536</v>
-      </c>
-      <c r="B538">
-        <v>4.47</v>
-      </c>
-      <c r="C538">
-        <v>4.47</v>
-      </c>
-      <c r="D538">
-        <v>4.66</v>
-      </c>
-      <c r="E538">
-        <v>4.66</v>
-      </c>
-      <c r="F538">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="539" spans="1:6">
-      <c r="A539" s="1">
-        <v>537</v>
-      </c>
-      <c r="B539">
-        <v>4.47</v>
-      </c>
-      <c r="C539">
-        <v>4.47</v>
-      </c>
-      <c r="D539">
-        <v>4.66</v>
-      </c>
-      <c r="E539">
-        <v>4.66</v>
-      </c>
-      <c r="F539">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="540" spans="1:6">
-      <c r="A540" s="1">
-        <v>538</v>
-      </c>
-      <c r="B540">
-        <v>4.47</v>
-      </c>
-      <c r="C540">
-        <v>4.47</v>
-      </c>
-      <c r="D540">
-        <v>4.66</v>
-      </c>
-      <c r="E540">
-        <v>4.66</v>
-      </c>
-      <c r="F540">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="541" spans="1:6">
-      <c r="A541" s="1">
-        <v>539</v>
-      </c>
-      <c r="B541">
-        <v>4.47</v>
-      </c>
-      <c r="C541">
-        <v>4.47</v>
-      </c>
-      <c r="D541">
-        <v>4.66</v>
-      </c>
-      <c r="E541">
-        <v>4.66</v>
-      </c>
-      <c r="F541">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="542" spans="1:6">
-      <c r="A542" s="1">
-        <v>540</v>
-      </c>
-      <c r="B542">
-        <v>4.47</v>
-      </c>
-      <c r="C542">
-        <v>4.47</v>
-      </c>
-      <c r="D542">
-        <v>4.66</v>
-      </c>
-      <c r="E542">
-        <v>4.66</v>
-      </c>
-      <c r="F542">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="543" spans="1:6">
-      <c r="A543" s="1">
-        <v>541</v>
-      </c>
-      <c r="B543">
-        <v>4.47</v>
-      </c>
-      <c r="C543">
-        <v>4.47</v>
-      </c>
-      <c r="D543">
-        <v>4.66</v>
-      </c>
-      <c r="E543">
-        <v>4.66</v>
-      </c>
-      <c r="F543">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="544" spans="1:6">
-      <c r="A544" s="1">
-        <v>542</v>
-      </c>
-      <c r="B544">
-        <v>4.47</v>
-      </c>
-      <c r="C544">
-        <v>4.47</v>
-      </c>
-      <c r="D544">
-        <v>4.66</v>
-      </c>
-      <c r="E544">
-        <v>4.66</v>
-      </c>
-      <c r="F544">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="545" spans="1:6">
-      <c r="A545" s="1">
-        <v>543</v>
-      </c>
-      <c r="B545">
-        <v>4.47</v>
-      </c>
-      <c r="C545">
-        <v>4.47</v>
-      </c>
-      <c r="D545">
-        <v>4.66</v>
-      </c>
-      <c r="E545">
-        <v>4.66</v>
-      </c>
-      <c r="F545">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="546" spans="1:6">
-      <c r="A546" s="1">
-        <v>544</v>
-      </c>
-      <c r="B546">
-        <v>4.47</v>
-      </c>
-      <c r="C546">
-        <v>4.47</v>
-      </c>
-      <c r="D546">
-        <v>4.66</v>
-      </c>
-      <c r="E546">
-        <v>4.66</v>
-      </c>
-      <c r="F546">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="547" spans="1:6">
-      <c r="A547" s="1">
-        <v>545</v>
-      </c>
-      <c r="B547">
-        <v>4.47</v>
-      </c>
-      <c r="C547">
-        <v>4.47</v>
-      </c>
-      <c r="D547">
-        <v>4.66</v>
-      </c>
-      <c r="E547">
-        <v>4.66</v>
-      </c>
-      <c r="F547">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="548" spans="1:6">
-      <c r="A548" s="1">
-        <v>546</v>
-      </c>
-      <c r="B548">
-        <v>4.47</v>
-      </c>
-      <c r="C548">
-        <v>4.47</v>
-      </c>
-      <c r="D548">
-        <v>4.66</v>
-      </c>
-      <c r="E548">
-        <v>4.66</v>
-      </c>
-      <c r="F548">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="549" spans="1:6">
-      <c r="A549" s="1">
-        <v>547</v>
-      </c>
-      <c r="B549">
-        <v>4.47</v>
-      </c>
-      <c r="C549">
-        <v>4.47</v>
-      </c>
-      <c r="D549">
-        <v>4.66</v>
-      </c>
-      <c r="E549">
-        <v>4.66</v>
-      </c>
-      <c r="F549">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="550" spans="1:6">
-      <c r="A550" s="1">
-        <v>548</v>
-      </c>
-      <c r="B550">
-        <v>4.47</v>
-      </c>
-      <c r="C550">
-        <v>4.47</v>
-      </c>
-      <c r="D550">
-        <v>4.66</v>
-      </c>
-      <c r="E550">
-        <v>4.66</v>
-      </c>
-      <c r="F550">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="551" spans="1:6">
-      <c r="A551" s="1">
-        <v>549</v>
-      </c>
-      <c r="B551">
-        <v>4.47</v>
-      </c>
-      <c r="C551">
-        <v>4.47</v>
-      </c>
-      <c r="D551">
-        <v>4.66</v>
-      </c>
-      <c r="E551">
-        <v>4.66</v>
-      </c>
-      <c r="F551">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="552" spans="1:6">
-      <c r="A552" s="1">
-        <v>550</v>
-      </c>
-      <c r="B552">
-        <v>4.47</v>
-      </c>
-      <c r="C552">
-        <v>4.47</v>
-      </c>
-      <c r="D552">
-        <v>4.66</v>
-      </c>
-      <c r="E552">
-        <v>4.66</v>
-      </c>
-      <c r="F552">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="553" spans="1:6">
-      <c r="A553" s="1">
-        <v>551</v>
-      </c>
-      <c r="B553">
-        <v>4.47</v>
-      </c>
-      <c r="C553">
-        <v>4.47</v>
-      </c>
-      <c r="D553">
-        <v>4.66</v>
-      </c>
-      <c r="E553">
-        <v>4.66</v>
-      </c>
-      <c r="F553">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="554" spans="1:6">
-      <c r="A554" s="1">
-        <v>552</v>
-      </c>
-      <c r="B554">
-        <v>4.47</v>
-      </c>
-      <c r="C554">
-        <v>4.47</v>
-      </c>
-      <c r="D554">
-        <v>4.66</v>
-      </c>
-      <c r="E554">
-        <v>4.66</v>
-      </c>
-      <c r="F554">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="555" spans="1:6">
-      <c r="A555" s="1">
-        <v>553</v>
-      </c>
-      <c r="B555">
-        <v>4.47</v>
-      </c>
-      <c r="C555">
-        <v>4.47</v>
-      </c>
-      <c r="D555">
-        <v>4.66</v>
-      </c>
-      <c r="E555">
-        <v>4.66</v>
-      </c>
-      <c r="F555">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="556" spans="1:6">
-      <c r="A556" s="1">
-        <v>554</v>
-      </c>
-      <c r="B556">
-        <v>4.47</v>
-      </c>
-      <c r="C556">
-        <v>4.47</v>
-      </c>
-      <c r="D556">
-        <v>4.66</v>
-      </c>
-      <c r="E556">
-        <v>4.66</v>
-      </c>
-      <c r="F556">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="557" spans="1:6">
-      <c r="A557" s="1">
-        <v>555</v>
-      </c>
-      <c r="B557">
-        <v>4.47</v>
-      </c>
-      <c r="C557">
-        <v>4.47</v>
-      </c>
-      <c r="D557">
-        <v>4.66</v>
-      </c>
-      <c r="E557">
-        <v>4.66</v>
-      </c>
-      <c r="F557">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="558" spans="1:6">
-      <c r="A558" s="1">
-        <v>556</v>
-      </c>
-      <c r="B558">
-        <v>4.47</v>
-      </c>
-      <c r="C558">
-        <v>4.47</v>
-      </c>
-      <c r="D558">
-        <v>4.66</v>
-      </c>
-      <c r="E558">
-        <v>4.66</v>
-      </c>
-      <c r="F558">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="559" spans="1:6">
-      <c r="A559" s="1">
-        <v>557</v>
-      </c>
-      <c r="B559">
-        <v>4.47</v>
-      </c>
-      <c r="C559">
-        <v>4.47</v>
-      </c>
-      <c r="D559">
-        <v>4.66</v>
-      </c>
-      <c r="E559">
-        <v>4.66</v>
-      </c>
-      <c r="F559">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="560" spans="1:6">
-      <c r="A560" s="1">
-        <v>558</v>
-      </c>
-      <c r="B560">
-        <v>4.47</v>
-      </c>
-      <c r="C560">
-        <v>4.47</v>
-      </c>
-      <c r="D560">
-        <v>4.66</v>
-      </c>
-      <c r="E560">
-        <v>4.66</v>
-      </c>
-      <c r="F560">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="561" spans="1:6">
-      <c r="A561" s="1">
-        <v>559</v>
-      </c>
-      <c r="B561">
-        <v>4.47</v>
-      </c>
-      <c r="C561">
-        <v>4.47</v>
-      </c>
-      <c r="D561">
-        <v>4.66</v>
-      </c>
-      <c r="E561">
-        <v>4.66</v>
-      </c>
-      <c r="F561">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="562" spans="1:6">
-      <c r="A562" s="1">
-        <v>560</v>
-      </c>
-      <c r="B562">
-        <v>4.47</v>
-      </c>
-      <c r="C562">
-        <v>4.47</v>
-      </c>
-      <c r="D562">
-        <v>4.66</v>
-      </c>
-      <c r="E562">
-        <v>4.66</v>
-      </c>
-      <c r="F562">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="563" spans="1:6">
-      <c r="A563" s="1">
-        <v>561</v>
-      </c>
-      <c r="B563">
-        <v>4.47</v>
-      </c>
-      <c r="C563">
-        <v>4.47</v>
-      </c>
-      <c r="D563">
-        <v>4.66</v>
-      </c>
-      <c r="E563">
-        <v>4.66</v>
-      </c>
-      <c r="F563">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="564" spans="1:6">
-      <c r="A564" s="1">
-        <v>562</v>
-      </c>
-      <c r="B564">
-        <v>4.47</v>
-      </c>
-      <c r="C564">
-        <v>4.47</v>
-      </c>
-      <c r="D564">
-        <v>4.66</v>
-      </c>
-      <c r="E564">
-        <v>4.66</v>
-      </c>
-      <c r="F564">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="565" spans="1:6">
-      <c r="A565" s="1">
-        <v>563</v>
-      </c>
-      <c r="B565">
-        <v>4.47</v>
-      </c>
-      <c r="C565">
-        <v>4.47</v>
-      </c>
-      <c r="D565">
-        <v>4.66</v>
-      </c>
-      <c r="E565">
-        <v>4.66</v>
-      </c>
-      <c r="F565">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="566" spans="1:6">
-      <c r="A566" s="1">
-        <v>564</v>
-      </c>
-      <c r="B566">
-        <v>4.47</v>
-      </c>
-      <c r="C566">
-        <v>4.47</v>
-      </c>
-      <c r="D566">
-        <v>4.66</v>
-      </c>
-      <c r="E566">
-        <v>4.66</v>
-      </c>
-      <c r="F566">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="567" spans="1:6">
-      <c r="A567" s="1">
-        <v>565</v>
-      </c>
-      <c r="B567">
-        <v>4.47</v>
-      </c>
-      <c r="C567">
-        <v>4.47</v>
-      </c>
-      <c r="D567">
-        <v>4.66</v>
-      </c>
-      <c r="E567">
-        <v>4.66</v>
-      </c>
-      <c r="F567">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="568" spans="1:6">
-      <c r="A568" s="1">
-        <v>566</v>
-      </c>
-      <c r="B568">
-        <v>4.47</v>
-      </c>
-      <c r="C568">
-        <v>4.47</v>
-      </c>
-      <c r="D568">
-        <v>4.66</v>
-      </c>
-      <c r="E568">
-        <v>4.66</v>
-      </c>
-      <c r="F568">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="569" spans="1:6">
-      <c r="A569" s="1">
-        <v>567</v>
-      </c>
-      <c r="B569">
-        <v>4.47</v>
-      </c>
-      <c r="C569">
-        <v>4.47</v>
-      </c>
-      <c r="D569">
-        <v>4.66</v>
-      </c>
-      <c r="E569">
-        <v>4.66</v>
-      </c>
-      <c r="F569">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="570" spans="1:6">
-      <c r="A570" s="1">
-        <v>568</v>
-      </c>
-      <c r="B570">
-        <v>4.47</v>
-      </c>
-      <c r="C570">
-        <v>4.47</v>
-      </c>
-      <c r="D570">
-        <v>4.66</v>
-      </c>
-      <c r="E570">
-        <v>4.66</v>
-      </c>
-      <c r="F570">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="571" spans="1:6">
-      <c r="A571" s="1">
-        <v>569</v>
-      </c>
-      <c r="B571">
-        <v>4.47</v>
-      </c>
-      <c r="C571">
-        <v>4.47</v>
-      </c>
-      <c r="D571">
-        <v>4.66</v>
-      </c>
-      <c r="E571">
-        <v>4.66</v>
-      </c>
-      <c r="F571">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="572" spans="1:6">
-      <c r="A572" s="1">
-        <v>570</v>
-      </c>
-      <c r="B572">
-        <v>4.47</v>
-      </c>
-      <c r="C572">
-        <v>4.47</v>
-      </c>
-      <c r="D572">
-        <v>4.66</v>
-      </c>
-      <c r="E572">
-        <v>4.66</v>
-      </c>
-      <c r="F572">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="573" spans="1:6">
-      <c r="A573" s="1">
-        <v>571</v>
-      </c>
-      <c r="B573">
-        <v>4.47</v>
-      </c>
-      <c r="C573">
-        <v>4.47</v>
-      </c>
-      <c r="D573">
-        <v>4.66</v>
-      </c>
-      <c r="E573">
-        <v>4.66</v>
-      </c>
-      <c r="F573">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="574" spans="1:6">
-      <c r="A574" s="1">
-        <v>572</v>
-      </c>
-      <c r="B574">
-        <v>4.47</v>
-      </c>
-      <c r="C574">
-        <v>4.47</v>
-      </c>
-      <c r="D574">
-        <v>4.66</v>
-      </c>
-      <c r="E574">
-        <v>4.66</v>
-      </c>
-      <c r="F574">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="575" spans="1:6">
-      <c r="A575" s="1">
-        <v>573</v>
-      </c>
-      <c r="B575">
-        <v>4.47</v>
-      </c>
-      <c r="C575">
-        <v>4.47</v>
-      </c>
-      <c r="D575">
-        <v>4.66</v>
-      </c>
-      <c r="E575">
-        <v>4.66</v>
-      </c>
-      <c r="F575">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="576" spans="1:6">
-      <c r="A576" s="1">
-        <v>574</v>
-      </c>
-      <c r="B576">
-        <v>4.47</v>
-      </c>
-      <c r="C576">
-        <v>4.47</v>
-      </c>
-      <c r="D576">
-        <v>4.66</v>
-      </c>
-      <c r="E576">
-        <v>4.66</v>
-      </c>
-      <c r="F576">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="577" spans="1:6">
-      <c r="A577" s="1">
-        <v>575</v>
-      </c>
-      <c r="B577">
-        <v>4.47</v>
-      </c>
-      <c r="C577">
-        <v>4.47</v>
-      </c>
-      <c r="D577">
-        <v>4.66</v>
-      </c>
-      <c r="E577">
-        <v>4.66</v>
-      </c>
-      <c r="F577">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="578" spans="1:6">
-      <c r="A578" s="1">
-        <v>576</v>
-      </c>
-      <c r="B578">
-        <v>4.47</v>
-      </c>
-      <c r="C578">
-        <v>4.47</v>
-      </c>
-      <c r="D578">
-        <v>4.66</v>
-      </c>
-      <c r="E578">
-        <v>4.66</v>
-      </c>
-      <c r="F578">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="579" spans="1:6">
-      <c r="A579" s="1">
-        <v>577</v>
-      </c>
-      <c r="B579">
-        <v>4.47</v>
-      </c>
-      <c r="C579">
-        <v>4.47</v>
-      </c>
-      <c r="D579">
-        <v>4.66</v>
-      </c>
-      <c r="E579">
-        <v>4.66</v>
-      </c>
-      <c r="F579">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="580" spans="1:6">
-      <c r="A580" s="1">
-        <v>578</v>
-      </c>
-      <c r="B580">
-        <v>4.47</v>
-      </c>
-      <c r="C580">
-        <v>4.47</v>
-      </c>
-      <c r="D580">
-        <v>4.66</v>
-      </c>
-      <c r="E580">
-        <v>4.66</v>
-      </c>
-      <c r="F580">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="581" spans="1:6">
-      <c r="A581" s="1">
-        <v>579</v>
-      </c>
-      <c r="B581">
-        <v>4.47</v>
-      </c>
-      <c r="C581">
-        <v>4.47</v>
-      </c>
-      <c r="D581">
-        <v>4.66</v>
-      </c>
-      <c r="E581">
-        <v>4.66</v>
-      </c>
-      <c r="F581">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="582" spans="1:6">
-      <c r="A582" s="1">
-        <v>580</v>
-      </c>
-      <c r="B582">
-        <v>4.47</v>
-      </c>
-      <c r="C582">
-        <v>4.47</v>
-      </c>
-      <c r="D582">
-        <v>4.66</v>
-      </c>
-      <c r="E582">
-        <v>4.66</v>
-      </c>
-      <c r="F582">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="583" spans="1:6">
-      <c r="A583" s="1">
-        <v>581</v>
-      </c>
-      <c r="B583">
-        <v>4.47</v>
-      </c>
-      <c r="C583">
-        <v>4.47</v>
-      </c>
-      <c r="D583">
-        <v>4.66</v>
-      </c>
-      <c r="E583">
-        <v>4.66</v>
-      </c>
-      <c r="F583">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="584" spans="1:6">
-      <c r="A584" s="1">
-        <v>582</v>
-      </c>
-      <c r="B584">
-        <v>4.47</v>
-      </c>
-      <c r="C584">
-        <v>4.47</v>
-      </c>
-      <c r="D584">
-        <v>4.66</v>
-      </c>
-      <c r="E584">
-        <v>4.66</v>
-      </c>
-      <c r="F584">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="585" spans="1:6">
-      <c r="A585" s="1">
-        <v>583</v>
-      </c>
-      <c r="B585">
-        <v>4.47</v>
-      </c>
-      <c r="C585">
-        <v>4.47</v>
-      </c>
-      <c r="D585">
-        <v>4.66</v>
-      </c>
-      <c r="E585">
-        <v>4.66</v>
-      </c>
-      <c r="F585">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="586" spans="1:6">
-      <c r="A586" s="1">
-        <v>584</v>
-      </c>
-      <c r="B586">
-        <v>4.47</v>
-      </c>
-      <c r="C586">
-        <v>4.47</v>
-      </c>
-      <c r="D586">
-        <v>4.66</v>
-      </c>
-      <c r="E586">
-        <v>4.66</v>
-      </c>
-      <c r="F586">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="587" spans="1:6">
-      <c r="A587" s="1">
-        <v>585</v>
-      </c>
-      <c r="B587">
-        <v>4.47</v>
-      </c>
-      <c r="C587">
-        <v>4.47</v>
-      </c>
-      <c r="D587">
-        <v>4.66</v>
-      </c>
-      <c r="E587">
-        <v>4.66</v>
-      </c>
-      <c r="F587">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="588" spans="1:6">
-      <c r="A588" s="1">
-        <v>586</v>
-      </c>
-      <c r="B588">
-        <v>4.47</v>
-      </c>
-      <c r="C588">
-        <v>4.47</v>
-      </c>
-      <c r="D588">
-        <v>4.66</v>
-      </c>
-      <c r="E588">
-        <v>4.66</v>
-      </c>
-      <c r="F588">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="589" spans="1:6">
-      <c r="A589" s="1">
-        <v>587</v>
-      </c>
-      <c r="B589">
-        <v>4.47</v>
-      </c>
-      <c r="C589">
-        <v>4.47</v>
-      </c>
-      <c r="D589">
-        <v>4.66</v>
-      </c>
-      <c r="E589">
-        <v>4.66</v>
-      </c>
-      <c r="F589">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="590" spans="1:6">
-      <c r="A590" s="1">
-        <v>588</v>
-      </c>
-      <c r="B590">
-        <v>4.47</v>
-      </c>
-      <c r="C590">
-        <v>4.47</v>
-      </c>
-      <c r="D590">
-        <v>4.66</v>
-      </c>
-      <c r="E590">
-        <v>4.66</v>
-      </c>
-      <c r="F590">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="591" spans="1:6">
-      <c r="A591" s="1">
-        <v>589</v>
-      </c>
-      <c r="B591">
-        <v>4.47</v>
-      </c>
-      <c r="C591">
-        <v>4.47</v>
-      </c>
-      <c r="D591">
-        <v>4.66</v>
-      </c>
-      <c r="E591">
-        <v>4.66</v>
-      </c>
-      <c r="F591">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="592" spans="1:6">
-      <c r="A592" s="1">
-        <v>590</v>
-      </c>
-      <c r="B592">
-        <v>4.47</v>
-      </c>
-      <c r="C592">
-        <v>4.47</v>
-      </c>
-      <c r="D592">
-        <v>4.66</v>
-      </c>
-      <c r="E592">
-        <v>4.66</v>
-      </c>
-      <c r="F592">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="593" spans="1:6">
-      <c r="A593" s="1">
-        <v>591</v>
-      </c>
-      <c r="B593">
-        <v>4.47</v>
-      </c>
-      <c r="C593">
-        <v>4.47</v>
-      </c>
-      <c r="D593">
-        <v>4.66</v>
-      </c>
-      <c r="E593">
-        <v>4.66</v>
-      </c>
-      <c r="F593">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="594" spans="1:6">
-      <c r="A594" s="1">
-        <v>592</v>
-      </c>
-      <c r="B594">
-        <v>4.47</v>
-      </c>
-      <c r="C594">
-        <v>4.47</v>
-      </c>
-      <c r="D594">
-        <v>4.66</v>
-      </c>
-      <c r="E594">
-        <v>4.66</v>
-      </c>
-      <c r="F594">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="595" spans="1:6">
-      <c r="A595" s="1">
-        <v>593</v>
-      </c>
-      <c r="B595">
-        <v>4.47</v>
-      </c>
-      <c r="C595">
-        <v>4.47</v>
-      </c>
-      <c r="D595">
-        <v>4.66</v>
-      </c>
-      <c r="E595">
-        <v>4.66</v>
-      </c>
-      <c r="F595">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="596" spans="1:6">
-      <c r="A596" s="1">
-        <v>594</v>
-      </c>
-      <c r="B596">
-        <v>4.47</v>
-      </c>
-      <c r="C596">
-        <v>4.47</v>
-      </c>
-      <c r="D596">
-        <v>4.66</v>
-      </c>
-      <c r="E596">
-        <v>4.66</v>
-      </c>
-      <c r="F596">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="597" spans="1:6">
-      <c r="A597" s="1">
-        <v>595</v>
-      </c>
-      <c r="B597">
-        <v>4.47</v>
-      </c>
-      <c r="C597">
-        <v>4.47</v>
-      </c>
-      <c r="D597">
-        <v>4.66</v>
-      </c>
-      <c r="E597">
-        <v>4.66</v>
-      </c>
-      <c r="F597">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="598" spans="1:6">
-      <c r="A598" s="1">
-        <v>596</v>
-      </c>
-      <c r="B598">
-        <v>4.47</v>
-      </c>
-      <c r="C598">
-        <v>4.47</v>
-      </c>
-      <c r="D598">
-        <v>4.66</v>
-      </c>
-      <c r="E598">
-        <v>4.66</v>
-      </c>
-      <c r="F598">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="599" spans="1:6">
-      <c r="A599" s="1">
-        <v>597</v>
-      </c>
-      <c r="B599">
-        <v>4.47</v>
-      </c>
-      <c r="C599">
-        <v>4.47</v>
-      </c>
-      <c r="D599">
-        <v>4.66</v>
-      </c>
-      <c r="E599">
-        <v>4.66</v>
-      </c>
-      <c r="F599">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="600" spans="1:6">
-      <c r="A600" s="1">
-        <v>598</v>
-      </c>
-      <c r="B600">
-        <v>4.47</v>
-      </c>
-      <c r="C600">
-        <v>4.47</v>
-      </c>
-      <c r="D600">
-        <v>4.66</v>
-      </c>
-      <c r="E600">
-        <v>4.66</v>
-      </c>
-      <c r="F600">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="601" spans="1:6">
-      <c r="A601" s="1">
-        <v>599</v>
-      </c>
-      <c r="B601">
-        <v>4.47</v>
-      </c>
-      <c r="C601">
-        <v>4.47</v>
-      </c>
-      <c r="D601">
-        <v>4.66</v>
-      </c>
-      <c r="E601">
-        <v>4.66</v>
-      </c>
-      <c r="F601">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="602" spans="1:6">
-      <c r="A602" s="1">
-        <v>600</v>
-      </c>
-      <c r="B602">
-        <v>4.47</v>
-      </c>
-      <c r="C602">
-        <v>4.47</v>
-      </c>
-      <c r="D602">
-        <v>4.66</v>
-      </c>
-      <c r="E602">
-        <v>4.66</v>
-      </c>
-      <c r="F602">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="603" spans="1:6">
-      <c r="A603" s="1">
-        <v>601</v>
-      </c>
-      <c r="B603">
-        <v>4.47</v>
-      </c>
-      <c r="C603">
-        <v>4.47</v>
-      </c>
-      <c r="D603">
-        <v>4.66</v>
-      </c>
-      <c r="E603">
-        <v>4.66</v>
-      </c>
-      <c r="F603">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="604" spans="1:6">
-      <c r="A604" s="1">
-        <v>602</v>
-      </c>
-      <c r="B604">
-        <v>4.47</v>
-      </c>
-      <c r="C604">
-        <v>4.47</v>
-      </c>
-      <c r="D604">
-        <v>4.66</v>
-      </c>
-      <c r="E604">
-        <v>4.66</v>
-      </c>
-      <c r="F604">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="605" spans="1:6">
-      <c r="A605" s="1">
-        <v>603</v>
-      </c>
-      <c r="B605">
-        <v>4.47</v>
-      </c>
-      <c r="C605">
-        <v>4.47</v>
-      </c>
-      <c r="D605">
-        <v>4.66</v>
-      </c>
-      <c r="E605">
-        <v>4.66</v>
-      </c>
-      <c r="F605">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="606" spans="1:6">
-      <c r="A606" s="1">
-        <v>604</v>
-      </c>
-      <c r="B606">
-        <v>4.47</v>
-      </c>
-      <c r="C606">
-        <v>4.47</v>
-      </c>
-      <c r="D606">
-        <v>4.66</v>
-      </c>
-      <c r="E606">
-        <v>4.66</v>
-      </c>
-      <c r="F606">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="607" spans="1:6">
-      <c r="A607" s="1">
-        <v>605</v>
-      </c>
-      <c r="B607">
-        <v>4.47</v>
-      </c>
-      <c r="C607">
-        <v>4.47</v>
-      </c>
-      <c r="D607">
-        <v>4.66</v>
-      </c>
-      <c r="E607">
-        <v>4.66</v>
-      </c>
-      <c r="F607">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="608" spans="1:6">
-      <c r="A608" s="1">
-        <v>606</v>
-      </c>
-      <c r="B608">
-        <v>4.47</v>
-      </c>
-      <c r="C608">
-        <v>4.47</v>
-      </c>
-      <c r="D608">
-        <v>4.66</v>
-      </c>
-      <c r="E608">
-        <v>4.66</v>
-      </c>
-      <c r="F608">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="609" spans="1:6">
-      <c r="A609" s="1">
-        <v>607</v>
-      </c>
-      <c r="B609">
-        <v>4.47</v>
-      </c>
-      <c r="C609">
-        <v>4.47</v>
-      </c>
-      <c r="D609">
-        <v>4.66</v>
-      </c>
-      <c r="E609">
-        <v>4.66</v>
-      </c>
-      <c r="F609">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="610" spans="1:6">
-      <c r="A610" s="1">
-        <v>608</v>
-      </c>
-      <c r="B610">
-        <v>4.47</v>
-      </c>
-      <c r="C610">
-        <v>4.47</v>
-      </c>
-      <c r="D610">
-        <v>4.66</v>
-      </c>
-      <c r="E610">
-        <v>4.66</v>
-      </c>
-      <c r="F610">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="611" spans="1:6">
-      <c r="A611" s="1">
-        <v>609</v>
-      </c>
-      <c r="B611">
-        <v>4.47</v>
-      </c>
-      <c r="C611">
-        <v>4.47</v>
-      </c>
-      <c r="D611">
-        <v>4.66</v>
-      </c>
-      <c r="E611">
-        <v>4.66</v>
-      </c>
-      <c r="F611">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="612" spans="1:6">
-      <c r="A612" s="1">
-        <v>610</v>
-      </c>
-      <c r="B612">
-        <v>4.47</v>
-      </c>
-      <c r="C612">
-        <v>4.47</v>
-      </c>
-      <c r="D612">
-        <v>4.66</v>
-      </c>
-      <c r="E612">
-        <v>4.66</v>
-      </c>
-      <c r="F612">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="613" spans="1:6">
-      <c r="A613" s="1">
-        <v>611</v>
-      </c>
-      <c r="B613">
-        <v>4.47</v>
-      </c>
-      <c r="C613">
-        <v>4.47</v>
-      </c>
-      <c r="D613">
-        <v>4.66</v>
-      </c>
-      <c r="E613">
-        <v>4.66</v>
-      </c>
-      <c r="F613">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="614" spans="1:6">
-      <c r="A614" s="1">
-        <v>612</v>
-      </c>
-      <c r="B614">
-        <v>4.47</v>
-      </c>
-      <c r="C614">
-        <v>4.47</v>
-      </c>
-      <c r="D614">
-        <v>4.66</v>
-      </c>
-      <c r="E614">
-        <v>4.66</v>
-      </c>
-      <c r="F614">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="615" spans="1:6">
-      <c r="A615" s="1">
-        <v>613</v>
-      </c>
-      <c r="B615">
-        <v>4.47</v>
-      </c>
-      <c r="C615">
-        <v>4.47</v>
-      </c>
-      <c r="D615">
-        <v>4.66</v>
-      </c>
-      <c r="E615">
-        <v>4.66</v>
-      </c>
-      <c r="F615">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="616" spans="1:6">
-      <c r="A616" s="1">
-        <v>614</v>
-      </c>
-      <c r="B616">
-        <v>4.47</v>
-      </c>
-      <c r="C616">
-        <v>4.47</v>
-      </c>
-      <c r="D616">
-        <v>4.66</v>
-      </c>
-      <c r="E616">
-        <v>4.66</v>
-      </c>
-      <c r="F616">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="617" spans="1:6">
-      <c r="A617" s="1">
-        <v>615</v>
-      </c>
-      <c r="B617">
-        <v>4.47</v>
-      </c>
-      <c r="C617">
-        <v>4.47</v>
-      </c>
-      <c r="D617">
-        <v>4.66</v>
-      </c>
-      <c r="E617">
-        <v>4.66</v>
-      </c>
-      <c r="F617">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="618" spans="1:6">
-      <c r="A618" s="1">
-        <v>616</v>
-      </c>
-      <c r="B618">
-        <v>4.47</v>
-      </c>
-      <c r="C618">
-        <v>4.47</v>
-      </c>
-      <c r="D618">
-        <v>4.66</v>
-      </c>
-      <c r="E618">
-        <v>4.66</v>
-      </c>
-      <c r="F618">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="619" spans="1:6">
-      <c r="A619" s="1">
-        <v>617</v>
-      </c>
-      <c r="B619">
-        <v>4.47</v>
-      </c>
-      <c r="C619">
-        <v>4.47</v>
-      </c>
-      <c r="D619">
-        <v>4.66</v>
-      </c>
-      <c r="E619">
-        <v>4.66</v>
-      </c>
-      <c r="F619">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="620" spans="1:6">
-      <c r="A620" s="1">
-        <v>618</v>
-      </c>
-      <c r="B620">
-        <v>4.47</v>
-      </c>
-      <c r="C620">
-        <v>4.47</v>
-      </c>
-      <c r="D620">
-        <v>4.66</v>
-      </c>
-      <c r="E620">
-        <v>4.66</v>
-      </c>
-      <c r="F620">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="621" spans="1:6">
-      <c r="A621" s="1">
-        <v>619</v>
-      </c>
-      <c r="B621">
-        <v>4.47</v>
-      </c>
-      <c r="C621">
-        <v>4.47</v>
-      </c>
-      <c r="D621">
-        <v>4.66</v>
-      </c>
-      <c r="E621">
-        <v>4.66</v>
-      </c>
-      <c r="F621">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="622" spans="1:6">
-      <c r="A622" s="1">
-        <v>620</v>
-      </c>
-      <c r="B622">
-        <v>4.47</v>
-      </c>
-      <c r="C622">
-        <v>4.47</v>
-      </c>
-      <c r="D622">
-        <v>4.66</v>
-      </c>
-      <c r="E622">
-        <v>4.66</v>
-      </c>
-      <c r="F622">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="623" spans="1:6">
-      <c r="A623" s="1">
-        <v>621</v>
-      </c>
-      <c r="B623">
-        <v>4.47</v>
-      </c>
-      <c r="C623">
-        <v>4.47</v>
-      </c>
-      <c r="D623">
-        <v>4.66</v>
-      </c>
-      <c r="E623">
-        <v>4.66</v>
-      </c>
-      <c r="F623">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="624" spans="1:6">
-      <c r="A624" s="1">
-        <v>622</v>
-      </c>
-      <c r="B624">
-        <v>4.47</v>
-      </c>
-      <c r="C624">
-        <v>4.47</v>
-      </c>
-      <c r="D624">
-        <v>4.66</v>
-      </c>
-      <c r="E624">
-        <v>4.66</v>
-      </c>
-      <c r="F624">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="625" spans="1:6">
-      <c r="A625" s="1">
-        <v>623</v>
-      </c>
-      <c r="B625">
-        <v>4.47</v>
-      </c>
-      <c r="C625">
-        <v>4.47</v>
-      </c>
-      <c r="D625">
-        <v>4.66</v>
-      </c>
-      <c r="E625">
-        <v>4.66</v>
-      </c>
-      <c r="F625">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="626" spans="1:6">
-      <c r="A626" s="1">
-        <v>624</v>
-      </c>
-      <c r="B626">
-        <v>4.47</v>
-      </c>
-      <c r="C626">
-        <v>4.47</v>
-      </c>
-      <c r="D626">
-        <v>4.66</v>
-      </c>
-      <c r="E626">
-        <v>4.66</v>
-      </c>
-      <c r="F626">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="627" spans="1:6">
-      <c r="A627" s="1">
-        <v>625</v>
-      </c>
-      <c r="B627">
-        <v>4.47</v>
-      </c>
-      <c r="C627">
-        <v>4.47</v>
-      </c>
-      <c r="D627">
-        <v>4.66</v>
-      </c>
-      <c r="E627">
-        <v>4.66</v>
-      </c>
-      <c r="F627">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="628" spans="1:6">
-      <c r="A628" s="1">
-        <v>626</v>
-      </c>
-      <c r="B628">
-        <v>4.47</v>
-      </c>
-      <c r="C628">
-        <v>4.47</v>
-      </c>
-      <c r="D628">
-        <v>4.66</v>
-      </c>
-      <c r="E628">
-        <v>4.66</v>
-      </c>
-      <c r="F628">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="629" spans="1:6">
-      <c r="A629" s="1">
-        <v>627</v>
-      </c>
-      <c r="B629">
-        <v>4.47</v>
-      </c>
-      <c r="C629">
-        <v>4.47</v>
-      </c>
-      <c r="D629">
-        <v>4.66</v>
-      </c>
-      <c r="E629">
-        <v>4.66</v>
-      </c>
-      <c r="F629">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="630" spans="1:6">
-      <c r="A630" s="1">
-        <v>628</v>
-      </c>
-      <c r="B630">
-        <v>4.47</v>
-      </c>
-      <c r="C630">
-        <v>4.47</v>
-      </c>
-      <c r="D630">
-        <v>4.66</v>
-      </c>
-      <c r="E630">
-        <v>4.66</v>
-      </c>
-      <c r="F630">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="631" spans="1:6">
-      <c r="A631" s="1">
-        <v>629</v>
-      </c>
-      <c r="B631">
-        <v>4.47</v>
-      </c>
-      <c r="C631">
-        <v>4.47</v>
-      </c>
-      <c r="D631">
-        <v>4.66</v>
-      </c>
-      <c r="E631">
-        <v>4.66</v>
-      </c>
-      <c r="F631">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="632" spans="1:6">
-      <c r="A632" s="1">
-        <v>630</v>
-      </c>
-      <c r="B632">
-        <v>4.47</v>
-      </c>
-      <c r="C632">
-        <v>4.47</v>
-      </c>
-      <c r="D632">
-        <v>4.66</v>
-      </c>
-      <c r="E632">
-        <v>4.66</v>
-      </c>
-      <c r="F632">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="633" spans="1:6">
-      <c r="A633" s="1">
-        <v>631</v>
-      </c>
-      <c r="B633">
-        <v>4.47</v>
-      </c>
-      <c r="C633">
-        <v>4.47</v>
-      </c>
-      <c r="D633">
-        <v>4.66</v>
-      </c>
-      <c r="E633">
-        <v>4.66</v>
-      </c>
-      <c r="F633">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="634" spans="1:6">
-      <c r="A634" s="1">
-        <v>632</v>
-      </c>
-      <c r="B634">
-        <v>4.47</v>
-      </c>
-      <c r="C634">
-        <v>4.47</v>
-      </c>
-      <c r="D634">
-        <v>4.66</v>
-      </c>
-      <c r="E634">
-        <v>4.66</v>
-      </c>
-      <c r="F634">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="635" spans="1:6">
-      <c r="A635" s="1">
-        <v>633</v>
-      </c>
-      <c r="B635">
-        <v>4.47</v>
-      </c>
-      <c r="C635">
-        <v>4.47</v>
-      </c>
-      <c r="D635">
-        <v>4.66</v>
-      </c>
-      <c r="E635">
-        <v>4.66</v>
-      </c>
-      <c r="F635">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="636" spans="1:6">
-      <c r="A636" s="1">
-        <v>634</v>
-      </c>
-      <c r="B636">
-        <v>4.47</v>
-      </c>
-      <c r="C636">
-        <v>4.47</v>
-      </c>
-      <c r="D636">
-        <v>4.66</v>
-      </c>
-      <c r="E636">
-        <v>4.66</v>
-      </c>
-      <c r="F636">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="637" spans="1:6">
-      <c r="A637" s="1">
-        <v>635</v>
-      </c>
-      <c r="B637">
-        <v>4.47</v>
-      </c>
-      <c r="C637">
-        <v>4.47</v>
-      </c>
-      <c r="D637">
-        <v>4.66</v>
-      </c>
-      <c r="E637">
-        <v>4.66</v>
-      </c>
-      <c r="F637">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="638" spans="1:6">
-      <c r="A638" s="1">
-        <v>636</v>
-      </c>
-      <c r="B638">
-        <v>4.47</v>
-      </c>
-      <c r="C638">
-        <v>4.47</v>
-      </c>
-      <c r="D638">
-        <v>4.66</v>
-      </c>
-      <c r="E638">
-        <v>4.66</v>
-      </c>
-      <c r="F638">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="639" spans="1:6">
-      <c r="A639" s="1">
-        <v>637</v>
-      </c>
-      <c r="B639">
-        <v>4.47</v>
-      </c>
-      <c r="C639">
-        <v>4.47</v>
-      </c>
-      <c r="D639">
-        <v>4.66</v>
-      </c>
-      <c r="E639">
-        <v>4.66</v>
-      </c>
-      <c r="F639">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="640" spans="1:6">
-      <c r="A640" s="1">
-        <v>638</v>
-      </c>
-      <c r="B640">
-        <v>4.47</v>
-      </c>
-      <c r="C640">
-        <v>4.47</v>
-      </c>
-      <c r="D640">
-        <v>4.66</v>
-      </c>
-      <c r="E640">
-        <v>4.66</v>
-      </c>
-      <c r="F640">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="641" spans="1:6">
-      <c r="A641" s="1">
-        <v>639</v>
-      </c>
-      <c r="B641">
-        <v>4.47</v>
-      </c>
-      <c r="C641">
-        <v>4.47</v>
-      </c>
-      <c r="D641">
-        <v>4.66</v>
-      </c>
-      <c r="E641">
-        <v>4.66</v>
-      </c>
-      <c r="F641">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="642" spans="1:6">
-      <c r="A642" s="1">
-        <v>640</v>
-      </c>
-      <c r="B642">
-        <v>4.47</v>
-      </c>
-      <c r="C642">
-        <v>4.47</v>
-      </c>
-      <c r="D642">
-        <v>4.66</v>
-      </c>
-      <c r="E642">
-        <v>4.66</v>
-      </c>
-      <c r="F642">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="643" spans="1:6">
-      <c r="A643" s="1">
-        <v>641</v>
-      </c>
-      <c r="B643">
-        <v>4.47</v>
-      </c>
-      <c r="C643">
-        <v>4.47</v>
-      </c>
-      <c r="D643">
-        <v>4.66</v>
-      </c>
-      <c r="E643">
-        <v>4.66</v>
-      </c>
-      <c r="F643">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="644" spans="1:6">
-      <c r="A644" s="1">
-        <v>642</v>
-      </c>
-      <c r="B644">
-        <v>4.47</v>
-      </c>
-      <c r="C644">
-        <v>4.47</v>
-      </c>
-      <c r="D644">
-        <v>4.66</v>
-      </c>
-      <c r="E644">
-        <v>4.66</v>
-      </c>
-      <c r="F644">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="645" spans="1:6">
-      <c r="A645" s="1">
-        <v>643</v>
-      </c>
-      <c r="B645">
-        <v>4.47</v>
-      </c>
-      <c r="C645">
-        <v>4.47</v>
-      </c>
-      <c r="D645">
-        <v>4.66</v>
-      </c>
-      <c r="E645">
-        <v>4.66</v>
-      </c>
-      <c r="F645">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="646" spans="1:6">
-      <c r="A646" s="1">
-        <v>644</v>
-      </c>
-      <c r="B646">
-        <v>4.47</v>
-      </c>
-      <c r="C646">
-        <v>4.47</v>
-      </c>
-      <c r="D646">
-        <v>4.66</v>
-      </c>
-      <c r="E646">
-        <v>4.66</v>
-      </c>
-      <c r="F646">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="647" spans="1:6">
-      <c r="A647" s="1">
-        <v>645</v>
-      </c>
-      <c r="B647">
-        <v>4.47</v>
-      </c>
-      <c r="C647">
-        <v>4.47</v>
-      </c>
-      <c r="D647">
-        <v>4.66</v>
-      </c>
-      <c r="E647">
-        <v>4.66</v>
-      </c>
-      <c r="F647">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="648" spans="1:6">
-      <c r="A648" s="1">
-        <v>646</v>
-      </c>
-      <c r="B648">
-        <v>4.47</v>
-      </c>
-      <c r="C648">
-        <v>4.47</v>
-      </c>
-      <c r="D648">
-        <v>4.66</v>
-      </c>
-      <c r="E648">
-        <v>4.66</v>
-      </c>
-      <c r="F648">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="649" spans="1:6">
-      <c r="A649" s="1">
-        <v>647</v>
-      </c>
-      <c r="B649">
-        <v>4.47</v>
-      </c>
-      <c r="C649">
-        <v>4.47</v>
-      </c>
-      <c r="D649">
-        <v>4.66</v>
-      </c>
-      <c r="E649">
-        <v>4.66</v>
-      </c>
-      <c r="F649">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="650" spans="1:6">
-      <c r="A650" s="1">
-        <v>648</v>
-      </c>
-      <c r="B650">
-        <v>4.47</v>
-      </c>
-      <c r="C650">
-        <v>4.47</v>
-      </c>
-      <c r="D650">
-        <v>4.66</v>
-      </c>
-      <c r="E650">
-        <v>4.66</v>
-      </c>
-      <c r="F650">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="651" spans="1:6">
-      <c r="A651" s="1">
-        <v>649</v>
-      </c>
-      <c r="B651">
-        <v>4.47</v>
-      </c>
-      <c r="C651">
-        <v>4.47</v>
-      </c>
-      <c r="D651">
-        <v>4.66</v>
-      </c>
-      <c r="E651">
-        <v>4.66</v>
-      </c>
-      <c r="F651">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="652" spans="1:6">
-      <c r="A652" s="1">
-        <v>650</v>
-      </c>
-      <c r="B652">
-        <v>4.47</v>
-      </c>
-      <c r="C652">
-        <v>4.47</v>
-      </c>
-      <c r="D652">
-        <v>4.66</v>
-      </c>
-      <c r="E652">
-        <v>4.66</v>
-      </c>
-      <c r="F652">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="653" spans="1:6">
-      <c r="A653" s="1">
-        <v>651</v>
-      </c>
-      <c r="B653">
-        <v>4.47</v>
-      </c>
-      <c r="C653">
-        <v>4.47</v>
-      </c>
-      <c r="D653">
-        <v>4.66</v>
-      </c>
-      <c r="E653">
-        <v>4.66</v>
-      </c>
-      <c r="F653">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="654" spans="1:6">
-      <c r="A654" s="1">
-        <v>652</v>
-      </c>
-      <c r="B654">
-        <v>4.47</v>
-      </c>
-      <c r="C654">
-        <v>4.47</v>
-      </c>
-      <c r="D654">
-        <v>4.66</v>
-      </c>
-      <c r="E654">
-        <v>4.66</v>
-      </c>
-      <c r="F654">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="655" spans="1:6">
-      <c r="A655" s="1">
-        <v>653</v>
-      </c>
-      <c r="B655">
-        <v>4.47</v>
-      </c>
-      <c r="C655">
-        <v>4.47</v>
-      </c>
-      <c r="D655">
-        <v>4.66</v>
-      </c>
-      <c r="E655">
-        <v>4.66</v>
-      </c>
-      <c r="F655">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="656" spans="1:6">
-      <c r="A656" s="1">
-        <v>654</v>
-      </c>
-      <c r="B656">
-        <v>4.47</v>
-      </c>
-      <c r="C656">
-        <v>4.47</v>
-      </c>
-      <c r="D656">
-        <v>4.66</v>
-      </c>
-      <c r="E656">
-        <v>4.66</v>
-      </c>
-      <c r="F656">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="657" spans="1:6">
-      <c r="A657" s="1">
-        <v>655</v>
-      </c>
-      <c r="B657">
-        <v>4.47</v>
-      </c>
-      <c r="C657">
-        <v>4.47</v>
-      </c>
-      <c r="D657">
-        <v>4.66</v>
-      </c>
-      <c r="E657">
-        <v>4.66</v>
-      </c>
-      <c r="F657">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="658" spans="1:6">
-      <c r="A658" s="1">
-        <v>656</v>
-      </c>
-      <c r="B658">
-        <v>4.47</v>
-      </c>
-      <c r="C658">
-        <v>4.47</v>
-      </c>
-      <c r="D658">
-        <v>4.66</v>
-      </c>
-      <c r="E658">
-        <v>4.66</v>
-      </c>
-      <c r="F658">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="659" spans="1:6">
-      <c r="A659" s="1">
-        <v>657</v>
-      </c>
-      <c r="B659">
-        <v>4.47</v>
-      </c>
-      <c r="C659">
-        <v>4.47</v>
-      </c>
-      <c r="D659">
-        <v>4.66</v>
-      </c>
-      <c r="E659">
-        <v>4.66</v>
-      </c>
-      <c r="F659">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="660" spans="1:6">
-      <c r="A660" s="1">
-        <v>658</v>
-      </c>
-      <c r="B660">
-        <v>4.47</v>
-      </c>
-      <c r="C660">
-        <v>4.47</v>
-      </c>
-      <c r="D660">
-        <v>4.66</v>
-      </c>
-      <c r="E660">
-        <v>4.66</v>
-      </c>
-      <c r="F660">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="661" spans="1:6">
-      <c r="A661" s="1">
-        <v>659</v>
-      </c>
-      <c r="B661">
-        <v>4.47</v>
-      </c>
-      <c r="C661">
-        <v>4.47</v>
-      </c>
-      <c r="D661">
-        <v>4.66</v>
-      </c>
-      <c r="E661">
-        <v>4.66</v>
-      </c>
-      <c r="F661">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="662" spans="1:6">
-      <c r="A662" s="1">
-        <v>660</v>
-      </c>
-      <c r="B662">
-        <v>4.47</v>
-      </c>
-      <c r="C662">
-        <v>4.47</v>
-      </c>
-      <c r="D662">
-        <v>4.66</v>
-      </c>
-      <c r="E662">
-        <v>4.66</v>
-      </c>
-      <c r="F662">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="663" spans="1:6">
-      <c r="A663" s="1">
-        <v>661</v>
-      </c>
-      <c r="B663">
-        <v>4.47</v>
-      </c>
-      <c r="C663">
-        <v>4.47</v>
-      </c>
-      <c r="D663">
-        <v>4.66</v>
-      </c>
-      <c r="E663">
-        <v>4.66</v>
-      </c>
-      <c r="F663">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="664" spans="1:6">
-      <c r="A664" s="1">
-        <v>662</v>
-      </c>
-      <c r="B664">
-        <v>4.47</v>
-      </c>
-      <c r="C664">
-        <v>4.47</v>
-      </c>
-      <c r="D664">
-        <v>4.66</v>
-      </c>
-      <c r="E664">
-        <v>4.66</v>
-      </c>
-      <c r="F664">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="665" spans="1:6">
-      <c r="A665" s="1">
-        <v>663</v>
-      </c>
-      <c r="B665">
-        <v>4.47</v>
-      </c>
-      <c r="C665">
-        <v>4.47</v>
-      </c>
-      <c r="D665">
-        <v>4.66</v>
-      </c>
-      <c r="E665">
-        <v>4.66</v>
-      </c>
-      <c r="F665">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="666" spans="1:6">
-      <c r="A666" s="1">
-        <v>664</v>
-      </c>
-      <c r="B666">
-        <v>4.47</v>
-      </c>
-      <c r="C666">
-        <v>4.47</v>
-      </c>
-      <c r="D666">
-        <v>4.66</v>
-      </c>
-      <c r="E666">
-        <v>4.66</v>
-      </c>
-      <c r="F666">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="667" spans="1:6">
-      <c r="A667" s="1">
-        <v>665</v>
-      </c>
-      <c r="B667">
-        <v>4.47</v>
-      </c>
-      <c r="C667">
-        <v>4.47</v>
-      </c>
-      <c r="D667">
-        <v>4.66</v>
-      </c>
-      <c r="E667">
-        <v>4.66</v>
-      </c>
-      <c r="F667">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="668" spans="1:6">
-      <c r="A668" s="1">
-        <v>666</v>
-      </c>
-      <c r="B668">
-        <v>4.47</v>
-      </c>
-      <c r="C668">
-        <v>4.47</v>
-      </c>
-      <c r="D668">
-        <v>4.66</v>
-      </c>
-      <c r="E668">
-        <v>4.66</v>
-      </c>
-      <c r="F668">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="669" spans="1:6">
-      <c r="A669" s="1">
-        <v>667</v>
-      </c>
-      <c r="B669">
-        <v>4.47</v>
-      </c>
-      <c r="C669">
-        <v>4.47</v>
-      </c>
-      <c r="D669">
-        <v>4.66</v>
-      </c>
-      <c r="E669">
-        <v>4.66</v>
-      </c>
-      <c r="F669">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="670" spans="1:6">
-      <c r="A670" s="1">
-        <v>668</v>
-      </c>
-      <c r="B670">
-        <v>4.47</v>
-      </c>
-      <c r="C670">
-        <v>4.47</v>
-      </c>
-      <c r="D670">
-        <v>4.66</v>
-      </c>
-      <c r="E670">
-        <v>4.66</v>
-      </c>
-      <c r="F670">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="671" spans="1:6">
-      <c r="A671" s="1">
-        <v>669</v>
-      </c>
-      <c r="B671">
-        <v>4.47</v>
-      </c>
-      <c r="C671">
-        <v>4.47</v>
-      </c>
-      <c r="D671">
-        <v>4.66</v>
-      </c>
-      <c r="E671">
-        <v>4.66</v>
-      </c>
-      <c r="F671">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="672" spans="1:6">
-      <c r="A672" s="1">
-        <v>670</v>
-      </c>
-      <c r="B672">
-        <v>4.47</v>
-      </c>
-      <c r="C672">
-        <v>4.47</v>
-      </c>
-      <c r="D672">
-        <v>4.66</v>
-      </c>
-      <c r="E672">
-        <v>4.66</v>
-      </c>
-      <c r="F672">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="673" spans="1:6">
-      <c r="A673" s="1">
-        <v>671</v>
-      </c>
-      <c r="B673">
-        <v>4.47</v>
-      </c>
-      <c r="C673">
-        <v>4.47</v>
-      </c>
-      <c r="D673">
-        <v>4.66</v>
-      </c>
-      <c r="E673">
-        <v>4.66</v>
-      </c>
-      <c r="F673">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="674" spans="1:6">
-      <c r="A674" s="1">
-        <v>672</v>
-      </c>
-      <c r="B674">
-        <v>4.47</v>
-      </c>
-      <c r="C674">
-        <v>4.47</v>
-      </c>
-      <c r="D674">
-        <v>4.66</v>
-      </c>
-      <c r="E674">
-        <v>4.66</v>
-      </c>
-      <c r="F674">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="675" spans="1:6">
-      <c r="A675" s="1">
-        <v>673</v>
-      </c>
-      <c r="B675">
-        <v>4.47</v>
-      </c>
-      <c r="C675">
-        <v>4.47</v>
-      </c>
-      <c r="D675">
-        <v>4.66</v>
-      </c>
-      <c r="E675">
-        <v>4.66</v>
-      </c>
-      <c r="F675">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="676" spans="1:6">
-      <c r="A676" s="1">
-        <v>674</v>
-      </c>
-      <c r="B676">
-        <v>4.47</v>
-      </c>
-      <c r="C676">
-        <v>4.47</v>
-      </c>
-      <c r="D676">
-        <v>4.66</v>
-      </c>
-      <c r="E676">
-        <v>4.66</v>
-      </c>
-      <c r="F676">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="677" spans="1:6">
-      <c r="A677" s="1">
-        <v>675</v>
-      </c>
-      <c r="B677">
-        <v>4.47</v>
-      </c>
-      <c r="C677">
-        <v>4.47</v>
-      </c>
-      <c r="D677">
-        <v>4.66</v>
-      </c>
-      <c r="E677">
-        <v>4.66</v>
-      </c>
-      <c r="F677">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="678" spans="1:6">
-      <c r="A678" s="1">
-        <v>676</v>
-      </c>
-      <c r="B678">
-        <v>4.47</v>
-      </c>
-      <c r="C678">
-        <v>4.47</v>
-      </c>
-      <c r="D678">
-        <v>4.66</v>
-      </c>
-      <c r="E678">
-        <v>4.66</v>
-      </c>
-      <c r="F678">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="679" spans="1:6">
-      <c r="A679" s="1">
-        <v>677</v>
-      </c>
-      <c r="B679">
-        <v>4.47</v>
-      </c>
-      <c r="C679">
-        <v>4.47</v>
-      </c>
-      <c r="D679">
-        <v>4.66</v>
-      </c>
-      <c r="E679">
-        <v>4.66</v>
-      </c>
-      <c r="F679">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="680" spans="1:6">
-      <c r="A680" s="1">
-        <v>678</v>
-      </c>
-      <c r="B680">
-        <v>4.47</v>
-      </c>
-      <c r="C680">
-        <v>4.47</v>
-      </c>
-      <c r="D680">
-        <v>4.66</v>
-      </c>
-      <c r="E680">
-        <v>4.66</v>
-      </c>
-      <c r="F680">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="681" spans="1:6">
-      <c r="A681" s="1">
-        <v>679</v>
-      </c>
-      <c r="B681">
-        <v>4.47</v>
-      </c>
-      <c r="C681">
-        <v>4.47</v>
-      </c>
-      <c r="D681">
-        <v>4.66</v>
-      </c>
-      <c r="E681">
-        <v>4.66</v>
-      </c>
-      <c r="F681">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="682" spans="1:6">
-      <c r="A682" s="1">
-        <v>680</v>
-      </c>
-      <c r="B682">
-        <v>4.47</v>
-      </c>
-      <c r="C682">
-        <v>4.47</v>
-      </c>
-      <c r="D682">
-        <v>4.66</v>
-      </c>
-      <c r="E682">
-        <v>4.66</v>
-      </c>
-      <c r="F682">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="683" spans="1:6">
-      <c r="A683" s="1">
-        <v>681</v>
-      </c>
-      <c r="B683">
-        <v>4.47</v>
-      </c>
-      <c r="C683">
-        <v>4.47</v>
-      </c>
-      <c r="D683">
-        <v>4.66</v>
-      </c>
-      <c r="E683">
-        <v>4.66</v>
-      </c>
-      <c r="F683">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="684" spans="1:6">
-      <c r="A684" s="1">
-        <v>682</v>
-      </c>
-      <c r="B684">
-        <v>4.47</v>
-      </c>
-      <c r="C684">
-        <v>4.47</v>
-      </c>
-      <c r="D684">
-        <v>4.66</v>
-      </c>
-      <c r="E684">
-        <v>4.66</v>
-      </c>
-      <c r="F684">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="685" spans="1:6">
-      <c r="A685" s="1">
-        <v>683</v>
-      </c>
-      <c r="B685">
-        <v>4.47</v>
-      </c>
-      <c r="C685">
-        <v>4.47</v>
-      </c>
-      <c r="D685">
-        <v>4.66</v>
-      </c>
-      <c r="E685">
-        <v>4.66</v>
-      </c>
-      <c r="F685">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="686" spans="1:6">
-      <c r="A686" s="1">
-        <v>684</v>
-      </c>
-      <c r="B686">
-        <v>4.47</v>
-      </c>
-      <c r="C686">
-        <v>4.47</v>
-      </c>
-      <c r="D686">
-        <v>4.66</v>
-      </c>
-      <c r="E686">
-        <v>4.66</v>
-      </c>
-      <c r="F686">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="687" spans="1:6">
-      <c r="A687" s="1">
-        <v>685</v>
-      </c>
-      <c r="B687">
-        <v>4.47</v>
-      </c>
-      <c r="C687">
-        <v>4.47</v>
-      </c>
-      <c r="D687">
-        <v>4.66</v>
-      </c>
-      <c r="E687">
-        <v>4.66</v>
-      </c>
-      <c r="F687">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="688" spans="1:6">
-      <c r="A688" s="1">
-        <v>686</v>
-      </c>
-      <c r="B688">
-        <v>4.47</v>
-      </c>
-      <c r="C688">
-        <v>4.47</v>
-      </c>
-      <c r="D688">
-        <v>4.66</v>
-      </c>
-      <c r="E688">
-        <v>4.66</v>
-      </c>
-      <c r="F688">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="689" spans="1:6">
-      <c r="A689" s="1">
-        <v>687</v>
-      </c>
-      <c r="B689">
-        <v>4.47</v>
-      </c>
-      <c r="C689">
-        <v>4.47</v>
-      </c>
-      <c r="D689">
-        <v>4.66</v>
-      </c>
-      <c r="E689">
-        <v>4.66</v>
-      </c>
-      <c r="F689">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="690" spans="1:6">
-      <c r="A690" s="1">
-        <v>688</v>
-      </c>
-      <c r="B690">
-        <v>4.47</v>
-      </c>
-      <c r="C690">
-        <v>4.47</v>
-      </c>
-      <c r="D690">
-        <v>4.66</v>
-      </c>
-      <c r="E690">
-        <v>4.66</v>
-      </c>
-      <c r="F690">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="691" spans="1:6">
-      <c r="A691" s="1">
-        <v>689</v>
-      </c>
-      <c r="B691">
-        <v>4.47</v>
-      </c>
-      <c r="C691">
-        <v>4.47</v>
-      </c>
-      <c r="D691">
-        <v>4.66</v>
-      </c>
-      <c r="E691">
-        <v>4.66</v>
-      </c>
-      <c r="F691">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="692" spans="1:6">
-      <c r="A692" s="1">
-        <v>690</v>
-      </c>
-      <c r="B692">
-        <v>4.47</v>
-      </c>
-      <c r="C692">
-        <v>4.47</v>
-      </c>
-      <c r="D692">
-        <v>4.66</v>
-      </c>
-      <c r="E692">
-        <v>4.66</v>
-      </c>
-      <c r="F692">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="693" spans="1:6">
-      <c r="A693" s="1">
-        <v>691</v>
-      </c>
-      <c r="B693">
-        <v>4.47</v>
-      </c>
-      <c r="C693">
-        <v>4.47</v>
-      </c>
-      <c r="D693">
-        <v>4.66</v>
-      </c>
-      <c r="E693">
-        <v>4.66</v>
-      </c>
-      <c r="F693">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="694" spans="1:6">
-      <c r="A694" s="1">
-        <v>692</v>
-      </c>
-      <c r="B694">
-        <v>4.47</v>
-      </c>
-      <c r="C694">
-        <v>4.47</v>
-      </c>
-      <c r="D694">
-        <v>4.66</v>
-      </c>
-      <c r="E694">
-        <v>4.66</v>
-      </c>
-      <c r="F694">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="695" spans="1:6">
-      <c r="A695" s="1">
-        <v>693</v>
-      </c>
-      <c r="B695">
-        <v>4.47</v>
-      </c>
-      <c r="C695">
-        <v>4.47</v>
-      </c>
-      <c r="D695">
-        <v>4.66</v>
-      </c>
-      <c r="E695">
-        <v>4.66</v>
-      </c>
-      <c r="F695">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="696" spans="1:6">
-      <c r="A696" s="1">
-        <v>694</v>
-      </c>
-      <c r="B696">
-        <v>4.47</v>
-      </c>
-      <c r="C696">
-        <v>4.47</v>
-      </c>
-      <c r="D696">
-        <v>4.66</v>
-      </c>
-      <c r="E696">
-        <v>4.66</v>
-      </c>
-      <c r="F696">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="697" spans="1:6">
-      <c r="A697" s="1">
-        <v>695</v>
-      </c>
-      <c r="B697">
-        <v>4.47</v>
-      </c>
-      <c r="C697">
-        <v>4.47</v>
-      </c>
-      <c r="D697">
-        <v>4.66</v>
-      </c>
-      <c r="E697">
-        <v>4.66</v>
-      </c>
-      <c r="F697">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="698" spans="1:6">
-      <c r="A698" s="1">
-        <v>696</v>
-      </c>
-      <c r="B698">
-        <v>4.47</v>
-      </c>
-      <c r="C698">
-        <v>4.47</v>
-      </c>
-      <c r="D698">
-        <v>4.66</v>
-      </c>
-      <c r="E698">
-        <v>4.66</v>
-      </c>
-      <c r="F698">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="699" spans="1:6">
-      <c r="A699" s="1">
-        <v>697</v>
-      </c>
-      <c r="B699">
-        <v>4.47</v>
-      </c>
-      <c r="C699">
-        <v>4.47</v>
-      </c>
-      <c r="D699">
-        <v>4.66</v>
-      </c>
-      <c r="E699">
-        <v>4.66</v>
-      </c>
-      <c r="F699">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="700" spans="1:6">
-      <c r="A700" s="1">
-        <v>698</v>
-      </c>
-      <c r="B700">
-        <v>4.47</v>
-      </c>
-      <c r="C700">
-        <v>4.47</v>
-      </c>
-      <c r="D700">
-        <v>4.66</v>
-      </c>
-      <c r="E700">
-        <v>4.66</v>
-      </c>
-      <c r="F700">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="701" spans="1:6">
-      <c r="A701" s="1">
-        <v>699</v>
-      </c>
-      <c r="B701">
-        <v>4.47</v>
-      </c>
-      <c r="C701">
-        <v>4.47</v>
-      </c>
-      <c r="D701">
-        <v>4.66</v>
-      </c>
-      <c r="E701">
-        <v>4.66</v>
-      </c>
-      <c r="F701">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="702" spans="1:6">
-      <c r="A702" s="1">
-        <v>700</v>
-      </c>
-      <c r="B702">
-        <v>4.47</v>
-      </c>
-      <c r="C702">
-        <v>4.47</v>
-      </c>
-      <c r="D702">
-        <v>4.66</v>
-      </c>
-      <c r="E702">
-        <v>4.66</v>
-      </c>
-      <c r="F702">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="703" spans="1:6">
-      <c r="A703" s="1">
-        <v>701</v>
-      </c>
-      <c r="B703">
-        <v>4.47</v>
-      </c>
-      <c r="C703">
-        <v>4.47</v>
-      </c>
-      <c r="D703">
-        <v>4.66</v>
-      </c>
-      <c r="E703">
-        <v>4.66</v>
-      </c>
-      <c r="F703">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="704" spans="1:6">
-      <c r="A704" s="1">
-        <v>702</v>
-      </c>
-      <c r="B704">
-        <v>4.47</v>
-      </c>
-      <c r="C704">
-        <v>4.47</v>
-      </c>
-      <c r="D704">
-        <v>4.66</v>
-      </c>
-      <c r="E704">
-        <v>4.66</v>
-      </c>
-      <c r="F704">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="705" spans="1:6">
-      <c r="A705" s="1">
-        <v>703</v>
-      </c>
-      <c r="B705">
-        <v>4.47</v>
-      </c>
-      <c r="C705">
-        <v>4.47</v>
-      </c>
-      <c r="D705">
-        <v>4.66</v>
-      </c>
-      <c r="E705">
-        <v>4.66</v>
-      </c>
-      <c r="F705">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="706" spans="1:6">
-      <c r="A706" s="1">
-        <v>704</v>
-      </c>
-      <c r="B706">
-        <v>4.47</v>
-      </c>
-      <c r="C706">
-        <v>4.47</v>
-      </c>
-      <c r="D706">
-        <v>4.66</v>
-      </c>
-      <c r="E706">
-        <v>4.66</v>
-      </c>
-      <c r="F706">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="707" spans="1:6">
-      <c r="A707" s="1">
-        <v>705</v>
-      </c>
-      <c r="B707">
-        <v>4.47</v>
-      </c>
-      <c r="C707">
-        <v>4.47</v>
-      </c>
-      <c r="D707">
-        <v>4.66</v>
-      </c>
-      <c r="E707">
-        <v>4.66</v>
-      </c>
-      <c r="F707">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="708" spans="1:6">
-      <c r="A708" s="1">
-        <v>706</v>
-      </c>
-      <c r="B708">
-        <v>4.47</v>
-      </c>
-      <c r="C708">
-        <v>4.47</v>
-      </c>
-      <c r="D708">
-        <v>4.66</v>
-      </c>
-      <c r="E708">
-        <v>4.66</v>
-      </c>
-      <c r="F708">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="709" spans="1:6">
-      <c r="A709" s="1">
-        <v>707</v>
-      </c>
-      <c r="B709">
-        <v>4.47</v>
-      </c>
-      <c r="C709">
-        <v>4.47</v>
-      </c>
-      <c r="D709">
-        <v>4.66</v>
-      </c>
-      <c r="E709">
-        <v>4.66</v>
-      </c>
-      <c r="F709">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="710" spans="1:6">
-      <c r="A710" s="1">
-        <v>708</v>
-      </c>
-      <c r="B710">
-        <v>4.47</v>
-      </c>
-      <c r="C710">
-        <v>4.47</v>
-      </c>
-      <c r="D710">
-        <v>4.66</v>
-      </c>
-      <c r="E710">
-        <v>4.66</v>
-      </c>
-      <c r="F710">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="711" spans="1:6">
-      <c r="A711" s="1">
-        <v>709</v>
-      </c>
-      <c r="B711">
-        <v>4.47</v>
-      </c>
-      <c r="C711">
-        <v>4.47</v>
-      </c>
-      <c r="D711">
-        <v>4.66</v>
-      </c>
-      <c r="E711">
-        <v>4.66</v>
-      </c>
-      <c r="F711">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="712" spans="1:6">
-      <c r="A712" s="1">
-        <v>710</v>
-      </c>
-      <c r="B712">
-        <v>4.47</v>
-      </c>
-      <c r="C712">
-        <v>4.47</v>
-      </c>
-      <c r="D712">
-        <v>4.66</v>
-      </c>
-      <c r="E712">
-        <v>4.66</v>
-      </c>
-      <c r="F712">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="713" spans="1:6">
-      <c r="A713" s="1">
-        <v>711</v>
-      </c>
-      <c r="B713">
-        <v>4.47</v>
-      </c>
-      <c r="C713">
-        <v>4.47</v>
-      </c>
-      <c r="D713">
-        <v>4.66</v>
-      </c>
-      <c r="E713">
-        <v>4.66</v>
-      </c>
-      <c r="F713">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="714" spans="1:6">
-      <c r="A714" s="1">
-        <v>712</v>
-      </c>
-      <c r="B714">
-        <v>4.47</v>
-      </c>
-      <c r="C714">
-        <v>4.47</v>
-      </c>
-      <c r="D714">
-        <v>4.66</v>
-      </c>
-      <c r="E714">
-        <v>4.66</v>
-      </c>
-      <c r="F714">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="715" spans="1:6">
-      <c r="A715" s="1">
-        <v>713</v>
-      </c>
-      <c r="B715">
-        <v>4.47</v>
-      </c>
-      <c r="C715">
-        <v>4.47</v>
-      </c>
-      <c r="D715">
-        <v>4.66</v>
-      </c>
-      <c r="E715">
-        <v>4.66</v>
-      </c>
-      <c r="F715">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="716" spans="1:6">
-      <c r="A716" s="1">
-        <v>714</v>
-      </c>
-      <c r="B716">
-        <v>4.47</v>
-      </c>
-      <c r="C716">
-        <v>4.47</v>
-      </c>
-      <c r="D716">
-        <v>4.66</v>
-      </c>
-      <c r="E716">
-        <v>4.66</v>
-      </c>
-      <c r="F716">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="717" spans="1:6">
-      <c r="A717" s="1">
-        <v>715</v>
-      </c>
-      <c r="B717">
-        <v>4.47</v>
-      </c>
-      <c r="C717">
-        <v>4.47</v>
-      </c>
-      <c r="D717">
-        <v>4.66</v>
-      </c>
-      <c r="E717">
-        <v>4.66</v>
-      </c>
-      <c r="F717">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="718" spans="1:6">
-      <c r="A718" s="1">
-        <v>716</v>
-      </c>
-      <c r="B718">
-        <v>4.47</v>
-      </c>
-      <c r="C718">
-        <v>4.47</v>
-      </c>
-      <c r="D718">
-        <v>4.66</v>
-      </c>
-      <c r="E718">
-        <v>4.66</v>
-      </c>
-      <c r="F718">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="719" spans="1:6">
-      <c r="A719" s="1">
-        <v>717</v>
-      </c>
-      <c r="B719">
-        <v>4.47</v>
-      </c>
-      <c r="C719">
-        <v>4.47</v>
-      </c>
-      <c r="D719">
-        <v>4.66</v>
-      </c>
-      <c r="E719">
-        <v>4.66</v>
-      </c>
-      <c r="F719">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="720" spans="1:6">
-      <c r="A720" s="1">
-        <v>718</v>
-      </c>
-      <c r="B720">
-        <v>4.47</v>
-      </c>
-      <c r="C720">
-        <v>4.47</v>
-      </c>
-      <c r="D720">
-        <v>4.66</v>
-      </c>
-      <c r="E720">
-        <v>4.66</v>
-      </c>
-      <c r="F720">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="721" spans="1:6">
-      <c r="A721" s="1">
-        <v>719</v>
-      </c>
-      <c r="B721">
-        <v>4.47</v>
-      </c>
-      <c r="C721">
-        <v>4.47</v>
-      </c>
-      <c r="D721">
-        <v>4.66</v>
-      </c>
-      <c r="E721">
-        <v>4.66</v>
-      </c>
-      <c r="F721">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="722" spans="1:6">
-      <c r="A722" s="1">
-        <v>720</v>
-      </c>
-      <c r="B722">
-        <v>4.47</v>
-      </c>
-      <c r="C722">
-        <v>4.47</v>
-      </c>
-      <c r="D722">
-        <v>4.66</v>
-      </c>
-      <c r="E722">
-        <v>4.66</v>
-      </c>
-      <c r="F722">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="723" spans="1:6">
-      <c r="A723" s="1">
-        <v>721</v>
-      </c>
-      <c r="B723">
-        <v>4.47</v>
-      </c>
-      <c r="C723">
-        <v>4.47</v>
-      </c>
-      <c r="D723">
-        <v>4.66</v>
-      </c>
-      <c r="E723">
-        <v>4.66</v>
-      </c>
-      <c r="F723">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="724" spans="1:6">
-      <c r="A724" s="1">
-        <v>722</v>
-      </c>
-      <c r="B724">
-        <v>4.47</v>
-      </c>
-      <c r="C724">
-        <v>4.47</v>
-      </c>
-      <c r="D724">
-        <v>4.66</v>
-      </c>
-      <c r="E724">
-        <v>4.66</v>
-      </c>
-      <c r="F724">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="725" spans="1:6">
-      <c r="A725" s="1">
-        <v>723</v>
-      </c>
-      <c r="B725">
-        <v>4.47</v>
-      </c>
-      <c r="C725">
-        <v>4.47</v>
-      </c>
-      <c r="D725">
-        <v>4.66</v>
-      </c>
-      <c r="E725">
-        <v>4.66</v>
-      </c>
-      <c r="F725">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="726" spans="1:6">
-      <c r="A726" s="1">
-        <v>724</v>
-      </c>
-      <c r="B726">
-        <v>4.47</v>
-      </c>
-      <c r="C726">
-        <v>4.47</v>
-      </c>
-      <c r="D726">
-        <v>4.66</v>
-      </c>
-      <c r="E726">
-        <v>4.66</v>
-      </c>
-      <c r="F726">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="727" spans="1:6">
-      <c r="A727" s="1">
-        <v>725</v>
-      </c>
-      <c r="B727">
-        <v>4.47</v>
-      </c>
-      <c r="C727">
-        <v>4.47</v>
-      </c>
-      <c r="D727">
-        <v>4.66</v>
-      </c>
-      <c r="E727">
-        <v>4.66</v>
-      </c>
-      <c r="F727">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="728" spans="1:6">
-      <c r="A728" s="1">
-        <v>726</v>
-      </c>
-      <c r="B728">
-        <v>4.47</v>
-      </c>
-      <c r="C728">
-        <v>4.47</v>
-      </c>
-      <c r="D728">
-        <v>4.66</v>
-      </c>
-      <c r="E728">
-        <v>4.66</v>
-      </c>
-      <c r="F728">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="729" spans="1:6">
-      <c r="A729" s="1">
-        <v>727</v>
-      </c>
-      <c r="B729">
-        <v>4.47</v>
-      </c>
-      <c r="C729">
-        <v>4.47</v>
-      </c>
-      <c r="D729">
-        <v>4.66</v>
-      </c>
-      <c r="E729">
-        <v>4.66</v>
-      </c>
-      <c r="F729">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="730" spans="1:6">
-      <c r="A730" s="1">
-        <v>728</v>
-      </c>
-      <c r="B730">
-        <v>4.47</v>
-      </c>
-      <c r="C730">
-        <v>4.47</v>
-      </c>
-      <c r="D730">
-        <v>4.66</v>
-      </c>
-      <c r="E730">
-        <v>4.66</v>
-      </c>
-      <c r="F730">
-        <v>5.13</v>
-      </c>
-    </row>
-    <row r="731" spans="1:6">
-      <c r="A731" s="1">
-        <v>729</v>
-      </c>
-      <c r="B731">
-        <v>4.47</v>
-      </c>
-      <c r="C731">
-        <v>4.47</v>
-      </c>
-      <c r="D731">
-        <v>4.66</v>
-      </c>
-      <c r="E731">
-        <v>4.66</v>
-      </c>
-      <c r="F731">
-        <v>5.13</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
